--- a/name/vnindex/20230203/VNINDEX_HOSE_5p_20230203.xlsx
+++ b/name/vnindex/20230203/VNINDEX_HOSE_5p_20230203.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1675415700000</v>
+        <v>1675415640000</v>
       </c>
       <c r="B2">
-        <v>5063100</v>
+        <v>2075000</v>
       </c>
       <c r="C2">
-        <v>4721200</v>
+        <v>1753700</v>
       </c>
       <c r="D2">
-        <v>1717300</v>
+        <v>1685800</v>
       </c>
       <c r="E2">
-        <v>80017354000</v>
+        <v>33495634000</v>
       </c>
       <c r="F2">
-        <v>76998918000</v>
+        <v>30675147000</v>
       </c>
       <c r="G2">
-        <v>26743731000</v>
+        <v>26427833000</v>
       </c>
       <c r="H2">
-        <v>11501600</v>
+        <v>5514500</v>
       </c>
       <c r="I2">
-        <v>183760003000</v>
+        <v>90598614000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-02-03T09:15:00.000Z</v>
+        <v>2023-02-03T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>183760003000</v>
+        <v>90598614000</v>
       </c>
       <c r="L2">
-        <v>11501600</v>
+        <v>5514500</v>
       </c>
       <c r="M2">
-        <v>-341900</v>
+        <v>-321300</v>
       </c>
       <c r="N2">
-        <v>-3018436000</v>
+        <v>-2820487000</v>
       </c>
       <c r="O2">
-        <v>-341900</v>
+        <v>-321300</v>
       </c>
       <c r="P2">
-        <v>-3018436000</v>
+        <v>-2820487000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1675416000000</v>
+        <v>1675415760000</v>
       </c>
       <c r="B3">
-        <v>2684500</v>
+        <v>1194100</v>
       </c>
       <c r="C3">
-        <v>5172800</v>
+        <v>1666900</v>
       </c>
       <c r="D3">
-        <v>101500</v>
+        <v>26900</v>
       </c>
       <c r="E3">
-        <v>46958010000</v>
+        <v>20057478000</v>
       </c>
       <c r="F3">
-        <v>88842598000</v>
+        <v>25121161000</v>
       </c>
       <c r="G3">
-        <v>1238155000</v>
+        <v>261955000</v>
       </c>
       <c r="H3">
-        <v>7958800</v>
+        <v>2887900</v>
       </c>
       <c r="I3">
-        <v>137038763000</v>
+        <v>45440594000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-02-03T09:20:00.000Z</v>
+        <v>2023-02-03T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>320798766000</v>
+        <v>136039208000</v>
       </c>
       <c r="L3">
-        <v>19460400</v>
+        <v>8402400</v>
       </c>
       <c r="M3">
-        <v>2488300</v>
+        <v>472800</v>
       </c>
       <c r="N3">
-        <v>41884588000</v>
+        <v>5063683000</v>
       </c>
       <c r="O3">
-        <v>2146400</v>
+        <v>151500</v>
       </c>
       <c r="P3">
-        <v>38866152000</v>
+        <v>2243196000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1675416300000</v>
+        <v>1675415880000</v>
       </c>
       <c r="B4">
-        <v>3134700</v>
+        <v>1794000</v>
       </c>
       <c r="C4">
-        <v>4132200</v>
+        <v>1300600</v>
       </c>
       <c r="D4">
-        <v>23400</v>
+        <v>4600</v>
       </c>
       <c r="E4">
-        <v>56274562000</v>
+        <v>26464242000</v>
       </c>
       <c r="F4">
-        <v>69984718000</v>
+        <v>21202610000</v>
       </c>
       <c r="G4">
-        <v>363156000</v>
+        <v>53943000</v>
       </c>
       <c r="H4">
-        <v>7290300</v>
+        <v>3099200</v>
       </c>
       <c r="I4">
-        <v>126622436000</v>
+        <v>47720795000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-02-03T09:25:00.000Z</v>
+        <v>2023-02-03T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>447421202000</v>
+        <v>183760003000</v>
       </c>
       <c r="L4">
-        <v>26750700</v>
+        <v>11501600</v>
       </c>
       <c r="M4">
-        <v>997500</v>
+        <v>-493400</v>
       </c>
       <c r="N4">
-        <v>13710156000</v>
+        <v>-5261632000</v>
       </c>
       <c r="O4">
-        <v>3143900</v>
+        <v>-341900</v>
       </c>
       <c r="P4">
-        <v>52576308000</v>
+        <v>-3018436000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1675416600000</v>
+        <v>1675416000000</v>
       </c>
       <c r="B5">
-        <v>2802800</v>
+        <v>1166700</v>
       </c>
       <c r="C5">
-        <v>3777200</v>
+        <v>1142000</v>
       </c>
       <c r="D5">
-        <v>16500</v>
+        <v>63000</v>
       </c>
       <c r="E5">
-        <v>51585086000</v>
+        <v>18140227000</v>
       </c>
       <c r="F5">
-        <v>65018790000</v>
+        <v>20805827000</v>
       </c>
       <c r="G5">
-        <v>133535000</v>
+        <v>820664000</v>
       </c>
       <c r="H5">
-        <v>6596500</v>
+        <v>2371700</v>
       </c>
       <c r="I5">
-        <v>116737411000</v>
+        <v>39766718000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-02-03T09:30:00.000Z</v>
+        <v>2023-02-03T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>564158613000</v>
+        <v>223526721000</v>
       </c>
       <c r="L5">
-        <v>33347200</v>
+        <v>13873300</v>
       </c>
       <c r="M5">
-        <v>974400</v>
+        <v>-24700</v>
       </c>
       <c r="N5">
-        <v>13433704000</v>
+        <v>2665600000</v>
       </c>
       <c r="O5">
-        <v>4118300</v>
+        <v>-366600</v>
       </c>
       <c r="P5">
-        <v>66010012000</v>
+        <v>-352836000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1675416900000</v>
+        <v>1675416120000</v>
       </c>
       <c r="B6">
-        <v>3607600</v>
+        <v>953000</v>
       </c>
       <c r="C6">
-        <v>4158000</v>
+        <v>2478800</v>
       </c>
       <c r="D6">
-        <v>38600</v>
+        <v>2100</v>
       </c>
       <c r="E6">
-        <v>59552405000</v>
+        <v>15757510000</v>
       </c>
       <c r="F6">
-        <v>58027247000</v>
+        <v>40051460000</v>
       </c>
       <c r="G6">
-        <v>502315000</v>
+        <v>24683000</v>
       </c>
       <c r="H6">
-        <v>7804200</v>
+        <v>3433900</v>
       </c>
       <c r="I6">
-        <v>118081967000</v>
+        <v>55833653000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-02-03T09:35:00.000Z</v>
+        <v>2023-02-03T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>682240580000</v>
+        <v>279360374000</v>
       </c>
       <c r="L6">
-        <v>41151400</v>
+        <v>17307200</v>
       </c>
       <c r="M6">
-        <v>550400</v>
+        <v>1525800</v>
       </c>
       <c r="N6">
-        <v>-1525158000</v>
+        <v>24293950000</v>
       </c>
       <c r="O6">
-        <v>4668700</v>
+        <v>1159200</v>
       </c>
       <c r="P6">
-        <v>64484854000</v>
+        <v>23941114000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1675417200000</v>
+        <v>1675416240000</v>
       </c>
       <c r="B7">
-        <v>2900100</v>
+        <v>1311200</v>
       </c>
       <c r="C7">
-        <v>3905200</v>
+        <v>2306700</v>
       </c>
       <c r="D7">
-        <v>47000</v>
+        <v>55300</v>
       </c>
       <c r="E7">
-        <v>48729809000</v>
+        <v>26790942000</v>
       </c>
       <c r="F7">
-        <v>62924696000</v>
+        <v>41290203000</v>
       </c>
       <c r="G7">
-        <v>1202118000</v>
+        <v>669592000</v>
       </c>
       <c r="H7">
-        <v>6852300</v>
+        <v>3673200</v>
       </c>
       <c r="I7">
-        <v>112856623000</v>
+        <v>68750737000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-02-03T09:40:00.000Z</v>
+        <v>2023-02-03T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>795097203000</v>
+        <v>348111111000</v>
       </c>
       <c r="L7">
-        <v>48003700</v>
+        <v>20980400</v>
       </c>
       <c r="M7">
-        <v>1005100</v>
+        <v>995500</v>
       </c>
       <c r="N7">
-        <v>14194887000</v>
+        <v>14499261000</v>
       </c>
       <c r="O7">
-        <v>5673800</v>
+        <v>2154700</v>
       </c>
       <c r="P7">
-        <v>78679741000</v>
+        <v>38440375000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1675417500000</v>
+        <v>1675416360000</v>
       </c>
       <c r="B8">
-        <v>4262100</v>
+        <v>1300600</v>
       </c>
       <c r="C8">
-        <v>3459500</v>
+        <v>1745100</v>
       </c>
       <c r="D8">
-        <v>36100</v>
+        <v>1700</v>
       </c>
       <c r="E8">
-        <v>75357575000</v>
+        <v>22231632000</v>
       </c>
       <c r="F8">
-        <v>59781320000</v>
+        <v>28961534000</v>
       </c>
       <c r="G8">
-        <v>673720000</v>
+        <v>20086000</v>
       </c>
       <c r="H8">
-        <v>7757700</v>
+        <v>3047400</v>
       </c>
       <c r="I8">
-        <v>135812615000</v>
+        <v>51213252000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-02-03T09:45:00.000Z</v>
+        <v>2023-02-03T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>930909818000</v>
+        <v>399324363000</v>
       </c>
       <c r="L8">
-        <v>55761400</v>
+        <v>24027800</v>
       </c>
       <c r="M8">
-        <v>-802600</v>
+        <v>444500</v>
       </c>
       <c r="N8">
-        <v>-15576255000</v>
+        <v>6729902000</v>
       </c>
       <c r="O8">
-        <v>4871200</v>
+        <v>2599200</v>
       </c>
       <c r="P8">
-        <v>63103486000</v>
+        <v>45170277000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1675417800000</v>
+        <v>1675416480000</v>
       </c>
       <c r="B9">
-        <v>5264000</v>
+        <v>1087700</v>
       </c>
       <c r="C9">
-        <v>2303500</v>
+        <v>1632400</v>
       </c>
       <c r="D9">
-        <v>28500</v>
+        <v>2800</v>
       </c>
       <c r="E9">
-        <v>102796252000</v>
+        <v>20312261000</v>
       </c>
       <c r="F9">
-        <v>46036810000</v>
+        <v>27718292000</v>
       </c>
       <c r="G9">
-        <v>668523000</v>
+        <v>66286000</v>
       </c>
       <c r="H9">
-        <v>7596000</v>
+        <v>2722900</v>
       </c>
       <c r="I9">
-        <v>149501585000</v>
+        <v>48096839000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-02-03T09:50:00.000Z</v>
+        <v>2023-02-03T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1080411403000</v>
+        <v>447421202000</v>
       </c>
       <c r="L9">
-        <v>63357400</v>
+        <v>26750700</v>
       </c>
       <c r="M9">
-        <v>-2960500</v>
+        <v>544700</v>
       </c>
       <c r="N9">
-        <v>-56759442000</v>
+        <v>7406031000</v>
       </c>
       <c r="O9">
-        <v>1910700</v>
+        <v>3143900</v>
       </c>
       <c r="P9">
-        <v>6344044000</v>
+        <v>52576308000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1675418100000</v>
+        <v>1675416600000</v>
       </c>
       <c r="B10">
-        <v>5484400</v>
+        <v>916000</v>
       </c>
       <c r="C10">
-        <v>2210100</v>
+        <v>1401400</v>
       </c>
       <c r="D10">
-        <v>33200</v>
+        <v>9800</v>
       </c>
       <c r="E10">
-        <v>91472342000</v>
+        <v>14828823000</v>
       </c>
       <c r="F10">
-        <v>43763299000</v>
+        <v>26887181000</v>
       </c>
       <c r="G10">
-        <v>495926000</v>
+        <v>73386000</v>
       </c>
       <c r="H10">
-        <v>7727700</v>
+        <v>2327200</v>
       </c>
       <c r="I10">
-        <v>135731567000</v>
+        <v>41789390000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-02-03T09:55:00.000Z</v>
+        <v>2023-02-03T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1216142970000</v>
+        <v>489210592000</v>
       </c>
       <c r="L10">
-        <v>71085100</v>
+        <v>29077900</v>
       </c>
       <c r="M10">
-        <v>-3274300</v>
+        <v>485400</v>
       </c>
       <c r="N10">
-        <v>-47709043000</v>
+        <v>12058358000</v>
       </c>
       <c r="O10">
-        <v>-1363600</v>
+        <v>3629300</v>
       </c>
       <c r="P10">
-        <v>-41364999000</v>
+        <v>64634666000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1675418400000</v>
+        <v>1675416720000</v>
       </c>
       <c r="B11">
-        <v>3392900</v>
+        <v>855100</v>
       </c>
       <c r="C11">
-        <v>4090200</v>
+        <v>1411200</v>
       </c>
       <c r="D11">
-        <v>34500</v>
+        <v>2400</v>
       </c>
       <c r="E11">
-        <v>68354063000</v>
+        <v>15274299000</v>
       </c>
       <c r="F11">
-        <v>91692045000</v>
+        <v>25239389000</v>
       </c>
       <c r="G11">
-        <v>949759000</v>
+        <v>24943000</v>
       </c>
       <c r="H11">
-        <v>7517600</v>
+        <v>2268700</v>
       </c>
       <c r="I11">
-        <v>160995867000</v>
+        <v>40538631000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-02-03T10:00:00.000Z</v>
+        <v>2023-02-03T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1377138837000</v>
+        <v>529749223000</v>
       </c>
       <c r="L11">
-        <v>78602700</v>
+        <v>31346600</v>
       </c>
       <c r="M11">
-        <v>697300</v>
+        <v>556100</v>
       </c>
       <c r="N11">
-        <v>23337982000</v>
+        <v>9965090000</v>
       </c>
       <c r="O11">
-        <v>-666300</v>
+        <v>4185400</v>
       </c>
       <c r="P11">
-        <v>-18027017000</v>
+        <v>74599756000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1675418700000</v>
+        <v>1675416840000</v>
       </c>
       <c r="B12">
-        <v>2795800</v>
+        <v>1735900</v>
       </c>
       <c r="C12">
-        <v>2458500</v>
+        <v>1601100</v>
       </c>
       <c r="D12">
-        <v>10000</v>
+        <v>25200</v>
       </c>
       <c r="E12">
-        <v>56473707000</v>
+        <v>33114891000</v>
       </c>
       <c r="F12">
-        <v>49949696000</v>
+        <v>21660249000</v>
       </c>
       <c r="G12">
-        <v>249262000</v>
+        <v>203891000</v>
       </c>
       <c r="H12">
-        <v>5264300</v>
+        <v>3362200</v>
       </c>
       <c r="I12">
-        <v>106672665000</v>
+        <v>54979031000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-02-03T10:05:00.000Z</v>
+        <v>2023-02-03T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1483811502000</v>
+        <v>584728254000</v>
       </c>
       <c r="L12">
-        <v>83867000</v>
+        <v>34708800</v>
       </c>
       <c r="M12">
-        <v>-337300</v>
+        <v>-134800</v>
       </c>
       <c r="N12">
-        <v>-6524011000</v>
+        <v>-11454642000</v>
       </c>
       <c r="O12">
-        <v>-1003600</v>
+        <v>4050600</v>
       </c>
       <c r="P12">
-        <v>-24551028000</v>
+        <v>63145114000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1675419000000</v>
+        <v>1675416960000</v>
       </c>
       <c r="B13">
-        <v>4003200</v>
+        <v>1532000</v>
       </c>
       <c r="C13">
-        <v>3456900</v>
+        <v>1549100</v>
       </c>
       <c r="D13">
-        <v>5200</v>
+        <v>11100</v>
       </c>
       <c r="E13">
-        <v>91009524000</v>
+        <v>25192956000</v>
       </c>
       <c r="F13">
-        <v>65270668000</v>
+        <v>23532378000</v>
       </c>
       <c r="G13">
-        <v>120095000</v>
+        <v>159700000</v>
       </c>
       <c r="H13">
-        <v>7465300</v>
+        <v>3092200</v>
       </c>
       <c r="I13">
-        <v>156400287000</v>
+        <v>48885034000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-02-03T10:10:00.000Z</v>
+        <v>2023-02-03T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1640211789000</v>
+        <v>633613288000</v>
       </c>
       <c r="L13">
-        <v>91332300</v>
+        <v>37801000</v>
       </c>
       <c r="M13">
-        <v>-546300</v>
+        <v>17100</v>
       </c>
       <c r="N13">
-        <v>-25738856000</v>
+        <v>-1660578000</v>
       </c>
       <c r="O13">
-        <v>-1549900</v>
+        <v>4067700</v>
       </c>
       <c r="P13">
-        <v>-50289884000</v>
+        <v>61484536000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1675419300000</v>
+        <v>1675417080000</v>
       </c>
       <c r="B14">
-        <v>3397400</v>
+        <v>1371400</v>
       </c>
       <c r="C14">
-        <v>2350200</v>
+        <v>1972400</v>
       </c>
       <c r="D14">
-        <v>47300</v>
+        <v>6600</v>
       </c>
       <c r="E14">
-        <v>70433733000</v>
+        <v>22726522000</v>
       </c>
       <c r="F14">
-        <v>44229332000</v>
+        <v>25726840000</v>
       </c>
       <c r="G14">
-        <v>950431000</v>
+        <v>173930000</v>
       </c>
       <c r="H14">
-        <v>5794900</v>
+        <v>3350400</v>
       </c>
       <c r="I14">
-        <v>115613496000</v>
+        <v>48627292000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-02-03T10:15:00.000Z</v>
+        <v>2023-02-03T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1755825285000</v>
+        <v>682240580000</v>
       </c>
       <c r="L14">
-        <v>97127200</v>
+        <v>41151400</v>
       </c>
       <c r="M14">
-        <v>-1047200</v>
+        <v>601000</v>
       </c>
       <c r="N14">
-        <v>-26204401000</v>
+        <v>3000318000</v>
       </c>
       <c r="O14">
-        <v>-2597100</v>
+        <v>4668700</v>
       </c>
       <c r="P14">
-        <v>-76494285000</v>
+        <v>64484854000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1675419600000</v>
+        <v>1675417200000</v>
       </c>
       <c r="B15">
-        <v>2318100</v>
+        <v>1475400</v>
       </c>
       <c r="C15">
-        <v>2860700</v>
+        <v>1260800</v>
       </c>
       <c r="D15">
-        <v>13000</v>
+        <v>16800</v>
       </c>
       <c r="E15">
-        <v>42472675000</v>
+        <v>25489413000</v>
       </c>
       <c r="F15">
-        <v>60915492000</v>
+        <v>19742220000</v>
       </c>
       <c r="G15">
-        <v>179157000</v>
+        <v>336249000</v>
       </c>
       <c r="H15">
-        <v>5191800</v>
+        <v>2753000</v>
       </c>
       <c r="I15">
-        <v>103567324000</v>
+        <v>45567882000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-02-03T10:20:00.000Z</v>
+        <v>2023-02-03T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1859392609000</v>
+        <v>727808462000</v>
       </c>
       <c r="L15">
-        <v>102319000</v>
+        <v>43904400</v>
       </c>
       <c r="M15">
-        <v>542600</v>
+        <v>-214600</v>
       </c>
       <c r="N15">
-        <v>18442817000</v>
+        <v>-5747193000</v>
       </c>
       <c r="O15">
-        <v>-2054500</v>
+        <v>4454100</v>
       </c>
       <c r="P15">
-        <v>-58051468000</v>
+        <v>58737661000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1675419900000</v>
+        <v>1675417320000</v>
       </c>
       <c r="B16">
-        <v>2150400</v>
+        <v>1005600</v>
       </c>
       <c r="C16">
-        <v>2865900</v>
+        <v>1683400</v>
       </c>
       <c r="D16">
-        <v>1400</v>
+        <v>24200</v>
       </c>
       <c r="E16">
-        <v>36272450000</v>
+        <v>17135561000</v>
       </c>
       <c r="F16">
-        <v>49491530000</v>
+        <v>27703613000</v>
       </c>
       <c r="G16">
-        <v>15540000</v>
+        <v>714669000</v>
       </c>
       <c r="H16">
-        <v>5017700</v>
+        <v>2713200</v>
       </c>
       <c r="I16">
-        <v>85779520000</v>
+        <v>45553843000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-02-03T10:25:00.000Z</v>
+        <v>2023-02-03T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1945172129000</v>
+        <v>773362305000</v>
       </c>
       <c r="L16">
-        <v>107336700</v>
+        <v>46617600</v>
       </c>
       <c r="M16">
-        <v>715500</v>
+        <v>677800</v>
       </c>
       <c r="N16">
-        <v>13219080000</v>
+        <v>10568052000</v>
       </c>
       <c r="O16">
-        <v>-1339000</v>
+        <v>5131900</v>
       </c>
       <c r="P16">
-        <v>-44832388000</v>
+        <v>69305713000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1675420200000</v>
+        <v>1675417440000</v>
       </c>
       <c r="B17">
-        <v>2268400</v>
+        <v>1404800</v>
       </c>
       <c r="C17">
-        <v>7337000</v>
+        <v>1840800</v>
       </c>
       <c r="D17">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="E17">
-        <v>39503229000</v>
+        <v>23513139000</v>
       </c>
       <c r="F17">
-        <v>109025839000</v>
+        <v>28331111000</v>
       </c>
       <c r="G17">
-        <v>299397000</v>
+        <v>290270000</v>
       </c>
       <c r="H17">
-        <v>9623000</v>
+        <v>3262400</v>
       </c>
       <c r="I17">
-        <v>148828465000</v>
+        <v>52134520000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-02-03T10:30:00.000Z</v>
+        <v>2023-02-03T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2094000594000</v>
+        <v>825496825000</v>
       </c>
       <c r="L17">
-        <v>116959700</v>
+        <v>49880000</v>
       </c>
       <c r="M17">
-        <v>5068600</v>
+        <v>436000</v>
       </c>
       <c r="N17">
-        <v>69522610000</v>
+        <v>4817972000</v>
       </c>
       <c r="O17">
-        <v>3729600</v>
+        <v>5567900</v>
       </c>
       <c r="P17">
-        <v>24690222000</v>
+        <v>74123685000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1675420500000</v>
+        <v>1675417560000</v>
       </c>
       <c r="B18">
-        <v>3217000</v>
+        <v>1360300</v>
       </c>
       <c r="C18">
-        <v>10453700</v>
+        <v>1353600</v>
       </c>
       <c r="D18">
-        <v>44400</v>
+        <v>1100</v>
       </c>
       <c r="E18">
-        <v>56403681000</v>
+        <v>22885743000</v>
       </c>
       <c r="F18">
-        <v>172829124000</v>
+        <v>23132809000</v>
       </c>
       <c r="G18">
-        <v>718616000</v>
+        <v>67469000</v>
       </c>
       <c r="H18">
-        <v>13715100</v>
+        <v>2715000</v>
       </c>
       <c r="I18">
-        <v>229951421000</v>
+        <v>46086021000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-02-03T10:35:00.000Z</v>
+        <v>2023-02-03T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2323952015000</v>
+        <v>871582846000</v>
       </c>
       <c r="L18">
-        <v>130674800</v>
+        <v>52595000</v>
       </c>
       <c r="M18">
-        <v>7236700</v>
+        <v>-6700</v>
       </c>
       <c r="N18">
-        <v>116425443000</v>
+        <v>247066000</v>
       </c>
       <c r="O18">
-        <v>10966300</v>
+        <v>5561200</v>
       </c>
       <c r="P18">
-        <v>141115665000</v>
+        <v>74370751000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1675420800000</v>
+        <v>1675417680000</v>
       </c>
       <c r="B19">
-        <v>4501500</v>
+        <v>1916100</v>
       </c>
       <c r="C19">
-        <v>5924000</v>
+        <v>1226100</v>
       </c>
       <c r="D19">
-        <v>27700</v>
+        <v>24200</v>
       </c>
       <c r="E19">
-        <v>88094655000</v>
+        <v>35063528000</v>
       </c>
       <c r="F19">
-        <v>94744903000</v>
+        <v>23796263000</v>
       </c>
       <c r="G19">
-        <v>560918000</v>
+        <v>467181000</v>
       </c>
       <c r="H19">
-        <v>10453200</v>
+        <v>3166400</v>
       </c>
       <c r="I19">
-        <v>183400476000</v>
+        <v>59326972000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-02-03T10:40:00.000Z</v>
+        <v>2023-02-03T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2507352491000</v>
+        <v>930909818000</v>
       </c>
       <c r="L19">
-        <v>141128000</v>
+        <v>55761400</v>
       </c>
       <c r="M19">
-        <v>1422500</v>
+        <v>-690000</v>
       </c>
       <c r="N19">
-        <v>6650248000</v>
+        <v>-11267265000</v>
       </c>
       <c r="O19">
-        <v>12388800</v>
+        <v>4871200</v>
       </c>
       <c r="P19">
-        <v>147765913000</v>
+        <v>63103486000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1675421100000</v>
+        <v>1675417800000</v>
       </c>
       <c r="B20">
-        <v>5724700</v>
+        <v>1794300</v>
       </c>
       <c r="C20">
-        <v>1956800</v>
+        <v>1235300</v>
       </c>
       <c r="D20">
-        <v>17400</v>
+        <v>13400</v>
       </c>
       <c r="E20">
-        <v>112173459000</v>
+        <v>31712251000</v>
       </c>
       <c r="F20">
-        <v>34425394000</v>
+        <v>23923408000</v>
       </c>
       <c r="G20">
-        <v>241973000</v>
+        <v>305040000</v>
       </c>
       <c r="H20">
-        <v>7698900</v>
+        <v>3043000</v>
       </c>
       <c r="I20">
-        <v>146840826000</v>
+        <v>55940699000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-02-03T10:45:00.000Z</v>
+        <v>2023-02-03T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2654193317000</v>
+        <v>986850517000</v>
       </c>
       <c r="L20">
-        <v>148826900</v>
+        <v>58804400</v>
       </c>
       <c r="M20">
-        <v>-3767900</v>
+        <v>-559000</v>
       </c>
       <c r="N20">
-        <v>-77748065000</v>
+        <v>-7788843000</v>
       </c>
       <c r="O20">
-        <v>8620900</v>
+        <v>4312200</v>
       </c>
       <c r="P20">
-        <v>70017848000</v>
+        <v>55314643000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1675421400000</v>
+        <v>1675417920000</v>
       </c>
       <c r="B21">
-        <v>2813900</v>
+        <v>2022400</v>
       </c>
       <c r="C21">
-        <v>1932100</v>
+        <v>778700</v>
       </c>
       <c r="D21">
-        <v>8400</v>
+        <v>14100</v>
       </c>
       <c r="E21">
-        <v>53812742000</v>
+        <v>40690461000</v>
       </c>
       <c r="F21">
-        <v>38715062000</v>
+        <v>15332159000</v>
       </c>
       <c r="G21">
-        <v>156403000</v>
+        <v>306628000</v>
       </c>
       <c r="H21">
-        <v>4754400</v>
+        <v>2815200</v>
       </c>
       <c r="I21">
-        <v>92684207000</v>
+        <v>56329248000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-02-03T10:50:00.000Z</v>
+        <v>2023-02-03T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2746877524000</v>
+        <v>1043179765000</v>
       </c>
       <c r="L21">
-        <v>153581300</v>
+        <v>61619600</v>
       </c>
       <c r="M21">
-        <v>-881800</v>
+        <v>-1243700</v>
       </c>
       <c r="N21">
-        <v>-15097680000</v>
+        <v>-25358302000</v>
       </c>
       <c r="O21">
-        <v>7739100</v>
+        <v>3068500</v>
       </c>
       <c r="P21">
-        <v>54920168000</v>
+        <v>29956341000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1675421700000</v>
+        <v>1675418040000</v>
       </c>
       <c r="B22">
-        <v>2662100</v>
+        <v>3094700</v>
       </c>
       <c r="C22">
-        <v>1884300</v>
+        <v>559300</v>
       </c>
       <c r="D22">
-        <v>3200</v>
+        <v>12400</v>
       </c>
       <c r="E22">
-        <v>49003141000</v>
+        <v>57351428000</v>
       </c>
       <c r="F22">
-        <v>36872576000</v>
+        <v>11481290000</v>
       </c>
       <c r="G22">
-        <v>76299000</v>
+        <v>163151000</v>
       </c>
       <c r="H22">
-        <v>4549600</v>
+        <v>3666400</v>
       </c>
       <c r="I22">
-        <v>85952016000</v>
+        <v>68995869000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-02-03T10:55:00.000Z</v>
+        <v>2023-02-03T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2832829540000</v>
+        <v>1112175634000</v>
       </c>
       <c r="L22">
-        <v>158130900</v>
+        <v>65286000</v>
       </c>
       <c r="M22">
-        <v>-777800</v>
+        <v>-2535400</v>
       </c>
       <c r="N22">
-        <v>-12130565000</v>
+        <v>-45870138000</v>
       </c>
       <c r="O22">
-        <v>6961300</v>
+        <v>533100</v>
       </c>
       <c r="P22">
-        <v>42789603000</v>
+        <v>-15913797000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1675422000000</v>
+        <v>1675418160000</v>
       </c>
       <c r="B23">
-        <v>2442900</v>
+        <v>1480200</v>
       </c>
       <c r="C23">
-        <v>1346200</v>
+        <v>994700</v>
       </c>
       <c r="D23">
-        <v>22900</v>
+        <v>18200</v>
       </c>
       <c r="E23">
-        <v>47712138000</v>
+        <v>26340887000</v>
       </c>
       <c r="F23">
-        <v>25698404000</v>
+        <v>19256120000</v>
       </c>
       <c r="G23">
-        <v>474713000</v>
+        <v>357555000</v>
       </c>
       <c r="H23">
-        <v>3812000</v>
+        <v>2493100</v>
       </c>
       <c r="I23">
-        <v>73885255000</v>
+        <v>45954562000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-02-03T11:00:00.000Z</v>
+        <v>2023-02-03T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2906714795000</v>
+        <v>1158130196000</v>
       </c>
       <c r="L23">
-        <v>161942900</v>
+        <v>67779100</v>
       </c>
       <c r="M23">
-        <v>-1096700</v>
+        <v>-485500</v>
       </c>
       <c r="N23">
-        <v>-22013734000</v>
+        <v>-7084767000</v>
       </c>
       <c r="O23">
-        <v>5864600</v>
+        <v>47600</v>
       </c>
       <c r="P23">
-        <v>20775869000</v>
+        <v>-22998564000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1675422300000</v>
+        <v>1675418280000</v>
       </c>
       <c r="B24">
-        <v>2404900</v>
+        <v>2356800</v>
       </c>
       <c r="C24">
-        <v>1345700</v>
+        <v>945600</v>
       </c>
       <c r="D24">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="E24">
-        <v>40243214000</v>
+        <v>38173567000</v>
       </c>
       <c r="F24">
-        <v>29327322000</v>
+        <v>19807132000</v>
       </c>
       <c r="G24">
-        <v>208765000</v>
+        <v>32075000</v>
       </c>
       <c r="H24">
-        <v>3758600</v>
+        <v>3306000</v>
       </c>
       <c r="I24">
-        <v>69779301000</v>
+        <v>58012774000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-02-03T11:05:00.000Z</v>
+        <v>2023-02-03T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2976494096000</v>
+        <v>1216142970000</v>
       </c>
       <c r="L24">
-        <v>165701500</v>
+        <v>71085100</v>
       </c>
       <c r="M24">
-        <v>-1059200</v>
+        <v>-1411200</v>
       </c>
       <c r="N24">
-        <v>-10915892000</v>
+        <v>-18366435000</v>
       </c>
       <c r="O24">
-        <v>4805400</v>
+        <v>-1363600</v>
       </c>
       <c r="P24">
-        <v>9859977000</v>
+        <v>-41364999000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1675422600000</v>
+        <v>1675418400000</v>
       </c>
       <c r="B25">
-        <v>1775900</v>
+        <v>1219100</v>
       </c>
       <c r="C25">
-        <v>1485200</v>
+        <v>1025000</v>
       </c>
       <c r="D25">
-        <v>36500</v>
+        <v>400</v>
       </c>
       <c r="E25">
-        <v>32711192000</v>
+        <v>19422808000</v>
       </c>
       <c r="F25">
-        <v>32332178000</v>
+        <v>22014312000</v>
       </c>
       <c r="G25">
-        <v>805837000</v>
+        <v>6479000</v>
       </c>
       <c r="H25">
-        <v>3297600</v>
+        <v>2244500</v>
       </c>
       <c r="I25">
-        <v>65849207000</v>
+        <v>41443599000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-02-03T11:10:00.000Z</v>
+        <v>2023-02-03T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3042343303000</v>
+        <v>1257586569000</v>
       </c>
       <c r="L25">
-        <v>168999100</v>
+        <v>73329600</v>
       </c>
       <c r="M25">
-        <v>-290700</v>
+        <v>-194100</v>
       </c>
       <c r="N25">
-        <v>-379014000</v>
+        <v>2591504000</v>
       </c>
       <c r="O25">
-        <v>4514700</v>
+        <v>-1557700</v>
       </c>
       <c r="P25">
-        <v>9480963000</v>
+        <v>-38773495000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1675422900000</v>
+        <v>1675418520000</v>
       </c>
       <c r="B26">
-        <v>1995700</v>
+        <v>1154900</v>
       </c>
       <c r="C26">
-        <v>1140600</v>
+        <v>2459800</v>
       </c>
       <c r="D26">
-        <v>200</v>
+        <v>30800</v>
       </c>
       <c r="E26">
-        <v>37863003000</v>
+        <v>23769855000</v>
       </c>
       <c r="F26">
-        <v>22790605000</v>
+        <v>56688828000</v>
       </c>
       <c r="G26">
-        <v>1604000</v>
+        <v>858555000</v>
       </c>
       <c r="H26">
-        <v>3136500</v>
+        <v>3645500</v>
       </c>
       <c r="I26">
-        <v>60655212000</v>
+        <v>81317238000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-02-03T11:15:00.000Z</v>
+        <v>2023-02-03T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3102998515000</v>
+        <v>1338903807000</v>
       </c>
       <c r="L26">
-        <v>172135600</v>
+        <v>76975100</v>
       </c>
       <c r="M26">
-        <v>-855100</v>
+        <v>1304900</v>
       </c>
       <c r="N26">
-        <v>-15072398000</v>
+        <v>32918973000</v>
       </c>
       <c r="O26">
-        <v>3659600</v>
+        <v>-252800</v>
       </c>
       <c r="P26">
-        <v>-5591435000</v>
+        <v>-5854522000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1675423200000</v>
+        <v>1675418640000</v>
       </c>
       <c r="B27">
-        <v>1636800</v>
+        <v>2197400</v>
       </c>
       <c r="C27">
-        <v>1390200</v>
+        <v>955500</v>
       </c>
       <c r="D27">
-        <v>56300</v>
+        <v>3300</v>
       </c>
       <c r="E27">
-        <v>30918943000</v>
+        <v>52660096000</v>
       </c>
       <c r="F27">
-        <v>28292730000</v>
+        <v>20375730000</v>
       </c>
       <c r="G27">
-        <v>1022060000</v>
+        <v>84725000</v>
       </c>
       <c r="H27">
-        <v>3083300</v>
+        <v>3156200</v>
       </c>
       <c r="I27">
-        <v>60233733000</v>
+        <v>73120551000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-02-03T11:20:00.000Z</v>
+        <v>2023-02-03T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3163232248000</v>
+        <v>1412024358000</v>
       </c>
       <c r="L27">
-        <v>175218900</v>
+        <v>80131300</v>
       </c>
       <c r="M27">
-        <v>-246600</v>
+        <v>-1241900</v>
       </c>
       <c r="N27">
-        <v>-2626213000</v>
+        <v>-32284366000</v>
       </c>
       <c r="O27">
-        <v>3413000</v>
+        <v>-1494700</v>
       </c>
       <c r="P27">
-        <v>-8217648000</v>
+        <v>-38138888000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1675423500000</v>
+        <v>1675418760000</v>
       </c>
       <c r="B28">
-        <v>2224300</v>
+        <v>898600</v>
       </c>
       <c r="C28">
-        <v>1119900</v>
+        <v>907700</v>
       </c>
       <c r="D28">
-        <v>4500</v>
+        <v>8400</v>
       </c>
       <c r="E28">
-        <v>36676119000</v>
+        <v>15709482000</v>
       </c>
       <c r="F28">
-        <v>24040159000</v>
+        <v>16796299000</v>
       </c>
       <c r="G28">
-        <v>168750000</v>
+        <v>192814000</v>
       </c>
       <c r="H28">
-        <v>3348700</v>
+        <v>1814700</v>
       </c>
       <c r="I28">
-        <v>60885028000</v>
+        <v>32698595000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-02-03T11:25:00.000Z</v>
+        <v>2023-02-03T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3224117276000</v>
+        <v>1444722953000</v>
       </c>
       <c r="L28">
-        <v>178567600</v>
+        <v>81946000</v>
       </c>
       <c r="M28">
-        <v>-1104400</v>
+        <v>9100</v>
       </c>
       <c r="N28">
-        <v>-12635960000</v>
+        <v>1086817000</v>
       </c>
       <c r="O28">
-        <v>2308600</v>
+        <v>-1485600</v>
       </c>
       <c r="P28">
-        <v>-20853608000</v>
+        <v>-37052071000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1675423800000</v>
+        <v>1675418880000</v>
       </c>
       <c r="B29">
-        <v>2000</v>
+        <v>718700</v>
       </c>
       <c r="C29">
-        <v>3100</v>
+        <v>1200700</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E29">
-        <v>41200000</v>
+        <v>13265529000</v>
       </c>
       <c r="F29">
-        <v>18760000</v>
+        <v>25766572000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>56448000</v>
       </c>
       <c r="H29">
-        <v>5100</v>
+        <v>1921000</v>
       </c>
       <c r="I29">
-        <v>59960000</v>
+        <v>39088549000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-02-03T11:30:00.000Z</v>
+        <v>2023-02-03T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3224177236000</v>
+        <v>1483811502000</v>
       </c>
       <c r="L29">
-        <v>178572700</v>
+        <v>83867000</v>
       </c>
       <c r="M29">
-        <v>1100</v>
+        <v>482000</v>
       </c>
       <c r="N29">
-        <v>-22440000</v>
+        <v>12501043000</v>
       </c>
       <c r="O29">
-        <v>2309700</v>
+        <v>-1003600</v>
       </c>
       <c r="P29">
-        <v>-20876048000</v>
+        <v>-24551028000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1675429200000</v>
+        <v>1675419000000</v>
       </c>
       <c r="B30">
-        <v>11126200</v>
+        <v>2031900</v>
       </c>
       <c r="C30">
-        <v>3418300</v>
+        <v>1313400</v>
       </c>
       <c r="D30">
-        <v>296700</v>
+        <v>3000</v>
       </c>
       <c r="E30">
-        <v>167429911000</v>
+        <v>50028497000</v>
       </c>
       <c r="F30">
-        <v>63200144000</v>
+        <v>23409022000</v>
       </c>
       <c r="G30">
-        <v>4723282000</v>
+        <v>91080000</v>
       </c>
       <c r="H30">
-        <v>14841200</v>
+        <v>3348300</v>
       </c>
       <c r="I30">
-        <v>235353337000</v>
+        <v>73528599000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-02-03T13:00:00.000Z</v>
+        <v>2023-02-03T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3459530573000</v>
+        <v>1557340101000</v>
       </c>
       <c r="L30">
-        <v>193413900</v>
+        <v>87215300</v>
       </c>
       <c r="M30">
-        <v>-7707900</v>
+        <v>-718500</v>
       </c>
       <c r="N30">
-        <v>-104229767000</v>
+        <v>-26619475000</v>
       </c>
       <c r="O30">
-        <v>-5398200</v>
+        <v>-1722100</v>
       </c>
       <c r="P30">
-        <v>-125105815000</v>
+        <v>-51170503000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1675429500000</v>
+        <v>1675419120000</v>
       </c>
       <c r="B31">
-        <v>6910100</v>
+        <v>1575400</v>
       </c>
       <c r="C31">
-        <v>2466700</v>
+        <v>1244300</v>
       </c>
       <c r="D31">
-        <v>15100</v>
+        <v>2100</v>
       </c>
       <c r="E31">
-        <v>116619855000</v>
+        <v>33781638000</v>
       </c>
       <c r="F31">
-        <v>41001540000</v>
+        <v>19872196000</v>
       </c>
       <c r="G31">
-        <v>272591000</v>
+        <v>28377000</v>
       </c>
       <c r="H31">
-        <v>9391900</v>
+        <v>2821800</v>
       </c>
       <c r="I31">
-        <v>157893986000</v>
+        <v>53682211000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-02-03T13:05:00.000Z</v>
+        <v>2023-02-03T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3617424559000</v>
+        <v>1611022312000</v>
       </c>
       <c r="L31">
-        <v>202805800</v>
+        <v>90037100</v>
       </c>
       <c r="M31">
-        <v>-4443400</v>
+        <v>-331100</v>
       </c>
       <c r="N31">
-        <v>-75618315000</v>
+        <v>-13909442000</v>
       </c>
       <c r="O31">
-        <v>-9841600</v>
+        <v>-2053200</v>
       </c>
       <c r="P31">
-        <v>-200724130000</v>
+        <v>-65079945000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1675429800000</v>
+        <v>1675419240000</v>
       </c>
       <c r="B32">
-        <v>4740000</v>
+        <v>740000</v>
       </c>
       <c r="C32">
-        <v>4100400</v>
+        <v>1345300</v>
       </c>
       <c r="D32">
-        <v>34100</v>
+        <v>8100</v>
       </c>
       <c r="E32">
-        <v>79163653000</v>
+        <v>13810173000</v>
       </c>
       <c r="F32">
-        <v>84111325000</v>
+        <v>29799722000</v>
       </c>
       <c r="G32">
-        <v>1062397000</v>
+        <v>345053000</v>
       </c>
       <c r="H32">
-        <v>8874500</v>
+        <v>2093400</v>
       </c>
       <c r="I32">
-        <v>164337375000</v>
+        <v>43954948000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-02-03T13:10:00.000Z</v>
+        <v>2023-02-03T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3781761934000</v>
+        <v>1654977260000</v>
       </c>
       <c r="L32">
-        <v>211680300</v>
+        <v>92130500</v>
       </c>
       <c r="M32">
-        <v>-639600</v>
+        <v>605300</v>
       </c>
       <c r="N32">
-        <v>4947672000</v>
+        <v>15989549000</v>
       </c>
       <c r="O32">
-        <v>-10481200</v>
+        <v>-1447900</v>
       </c>
       <c r="P32">
-        <v>-195776458000</v>
+        <v>-49090396000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1675430100000</v>
+        <v>1675419360000</v>
       </c>
       <c r="B33">
-        <v>4432700</v>
+        <v>1227500</v>
       </c>
       <c r="C33">
-        <v>3754500</v>
+        <v>989600</v>
       </c>
       <c r="D33">
-        <v>52000</v>
+        <v>12800</v>
       </c>
       <c r="E33">
-        <v>80609719000</v>
+        <v>26322133000</v>
       </c>
       <c r="F33">
-        <v>65777437000</v>
+        <v>18093063000</v>
       </c>
       <c r="G33">
-        <v>1117716000</v>
+        <v>363248000</v>
       </c>
       <c r="H33">
-        <v>8239200</v>
+        <v>2229900</v>
       </c>
       <c r="I33">
-        <v>147504872000</v>
+        <v>44778444000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-02-03T13:15:00.000Z</v>
+        <v>2023-02-03T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3929266806000</v>
+        <v>1699755704000</v>
       </c>
       <c r="L33">
-        <v>219919500</v>
+        <v>94360400</v>
       </c>
       <c r="M33">
-        <v>-678200</v>
+        <v>-237900</v>
       </c>
       <c r="N33">
-        <v>-14832282000</v>
+        <v>-8229070000</v>
       </c>
       <c r="O33">
-        <v>-11159400</v>
+        <v>-1685800</v>
       </c>
       <c r="P33">
-        <v>-210608740000</v>
+        <v>-57319466000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1675430400000</v>
+        <v>1675419480000</v>
       </c>
       <c r="B34">
-        <v>4998500</v>
+        <v>1825800</v>
       </c>
       <c r="C34">
-        <v>2819200</v>
+        <v>914500</v>
       </c>
       <c r="D34">
-        <v>29100</v>
+        <v>26500</v>
       </c>
       <c r="E34">
-        <v>85232836000</v>
+        <v>37500816000</v>
       </c>
       <c r="F34">
-        <v>52492644000</v>
+        <v>18325997000</v>
       </c>
       <c r="G34">
-        <v>535823000</v>
+        <v>242768000</v>
       </c>
       <c r="H34">
-        <v>7846800</v>
+        <v>2766800</v>
       </c>
       <c r="I34">
-        <v>138261303000</v>
+        <v>56069581000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-02-03T13:20:00.000Z</v>
+        <v>2023-02-03T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>4067528109000</v>
+        <v>1755825285000</v>
       </c>
       <c r="L34">
-        <v>227766300</v>
+        <v>97127200</v>
       </c>
       <c r="M34">
-        <v>-2179300</v>
+        <v>-911300</v>
       </c>
       <c r="N34">
-        <v>-32740192000</v>
+        <v>-19174819000</v>
       </c>
       <c r="O34">
-        <v>-13338700</v>
+        <v>-2597100</v>
       </c>
       <c r="P34">
-        <v>-243348932000</v>
+        <v>-76494285000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1675430700000</v>
+        <v>1675419600000</v>
       </c>
       <c r="B35">
-        <v>16013300</v>
+        <v>1137700</v>
       </c>
       <c r="C35">
-        <v>3183600</v>
+        <v>1172700</v>
       </c>
       <c r="D35">
-        <v>137300</v>
+        <v>9000</v>
       </c>
       <c r="E35">
-        <v>265192290000</v>
+        <v>22149544000</v>
       </c>
       <c r="F35">
-        <v>60523040000</v>
+        <v>24389339000</v>
       </c>
       <c r="G35">
-        <v>2469302000</v>
+        <v>119865000</v>
       </c>
       <c r="H35">
-        <v>19334200</v>
+        <v>2319400</v>
       </c>
       <c r="I35">
-        <v>328184632000</v>
+        <v>46658748000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-02-03T13:25:00.000Z</v>
+        <v>2023-02-03T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4395712741000</v>
+        <v>1802484033000</v>
       </c>
       <c r="L35">
-        <v>247100500</v>
+        <v>99446600</v>
       </c>
       <c r="M35">
-        <v>-12829700</v>
+        <v>35000</v>
       </c>
       <c r="N35">
-        <v>-204669250000</v>
+        <v>2239795000</v>
       </c>
       <c r="O35">
-        <v>-26168400</v>
+        <v>-2562100</v>
       </c>
       <c r="P35">
-        <v>-448018182000</v>
+        <v>-74254490000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1675431000000</v>
+        <v>1675419720000</v>
       </c>
       <c r="B36">
-        <v>8485600</v>
+        <v>704200</v>
       </c>
       <c r="C36">
-        <v>2785100</v>
+        <v>1142000</v>
       </c>
       <c r="D36">
-        <v>25400</v>
+        <v>900</v>
       </c>
       <c r="E36">
-        <v>139180424000</v>
+        <v>11613818000</v>
       </c>
       <c r="F36">
-        <v>49659926000</v>
+        <v>26763115000</v>
       </c>
       <c r="G36">
-        <v>334011000</v>
+        <v>33335000</v>
       </c>
       <c r="H36">
-        <v>11296100</v>
+        <v>1847100</v>
       </c>
       <c r="I36">
-        <v>189174361000</v>
+        <v>38410268000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-02-03T13:30:00.000Z</v>
+        <v>2023-02-03T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4584887102000</v>
+        <v>1840894301000</v>
       </c>
       <c r="L36">
-        <v>258396600</v>
+        <v>101293700</v>
       </c>
       <c r="M36">
-        <v>-5700500</v>
+        <v>437800</v>
       </c>
       <c r="N36">
-        <v>-89520498000</v>
+        <v>15149297000</v>
       </c>
       <c r="O36">
-        <v>-31868900</v>
+        <v>-2124300</v>
       </c>
       <c r="P36">
-        <v>-537538680000</v>
+        <v>-59105193000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1675431300000</v>
+        <v>1675419840000</v>
       </c>
       <c r="B37">
-        <v>5574200</v>
+        <v>952200</v>
       </c>
       <c r="C37">
-        <v>4803400</v>
+        <v>1188900</v>
       </c>
       <c r="D37">
-        <v>66700</v>
+        <v>4000</v>
       </c>
       <c r="E37">
-        <v>98876482000</v>
+        <v>16630975000</v>
       </c>
       <c r="F37">
-        <v>89615693000</v>
+        <v>20906967000</v>
       </c>
       <c r="G37">
-        <v>719664000</v>
+        <v>33472000</v>
       </c>
       <c r="H37">
-        <v>10444300</v>
+        <v>2145100</v>
       </c>
       <c r="I37">
-        <v>189211839000</v>
+        <v>37571414000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-02-03T13:35:00.000Z</v>
+        <v>2023-02-03T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4774098941000</v>
+        <v>1878465715000</v>
       </c>
       <c r="L37">
-        <v>268840900</v>
+        <v>103438800</v>
       </c>
       <c r="M37">
-        <v>-770800</v>
+        <v>236700</v>
       </c>
       <c r="N37">
-        <v>-9260789000</v>
+        <v>4275992000</v>
       </c>
       <c r="O37">
-        <v>-32639700</v>
+        <v>-1887600</v>
       </c>
       <c r="P37">
-        <v>-546799469000</v>
+        <v>-54829201000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1675431600000</v>
+        <v>1675419960000</v>
       </c>
       <c r="B38">
-        <v>5084500</v>
+        <v>959100</v>
       </c>
       <c r="C38">
-        <v>5131900</v>
+        <v>990900</v>
       </c>
       <c r="D38">
-        <v>23900</v>
+        <v>500</v>
       </c>
       <c r="E38">
-        <v>72006873000</v>
+        <v>16226379000</v>
       </c>
       <c r="F38">
-        <v>92212559000</v>
+        <v>20475997000</v>
       </c>
       <c r="G38">
-        <v>241242000</v>
+        <v>8025000</v>
       </c>
       <c r="H38">
-        <v>10240300</v>
+        <v>1950500</v>
       </c>
       <c r="I38">
-        <v>164460674000</v>
+        <v>36710401000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-02-03T13:40:00.000Z</v>
+        <v>2023-02-03T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4938559615000</v>
+        <v>1915176116000</v>
       </c>
       <c r="L38">
-        <v>279081200</v>
+        <v>105389300</v>
       </c>
       <c r="M38">
-        <v>47400</v>
+        <v>31800</v>
       </c>
       <c r="N38">
-        <v>20205686000</v>
+        <v>4249618000</v>
       </c>
       <c r="O38">
-        <v>-32592300</v>
+        <v>-1855800</v>
       </c>
       <c r="P38">
-        <v>-526593783000</v>
+        <v>-50579583000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1675431900000</v>
+        <v>1675420080000</v>
       </c>
       <c r="B39">
-        <v>4278000</v>
+        <v>715300</v>
       </c>
       <c r="C39">
-        <v>5583100</v>
+        <v>1232100</v>
       </c>
       <c r="D39">
-        <v>72600</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>81383815000</v>
+        <v>12124409000</v>
       </c>
       <c r="F39">
-        <v>107338444000</v>
+        <v>17871604000</v>
       </c>
       <c r="G39">
-        <v>1366174000</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>9933700</v>
+        <v>1947400</v>
       </c>
       <c r="I39">
-        <v>190088433000</v>
+        <v>29996013000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-02-03T13:45:00.000Z</v>
+        <v>2023-02-03T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>5128648048000</v>
+        <v>1945172129000</v>
       </c>
       <c r="L39">
-        <v>289014900</v>
+        <v>107336700</v>
       </c>
       <c r="M39">
-        <v>1305100</v>
+        <v>516800</v>
       </c>
       <c r="N39">
-        <v>25954629000</v>
+        <v>5747195000</v>
       </c>
       <c r="O39">
-        <v>-31287200</v>
+        <v>-1339000</v>
       </c>
       <c r="P39">
-        <v>-500639154000</v>
+        <v>-44832388000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1675432200000</v>
+        <v>1675420200000</v>
       </c>
       <c r="B40">
-        <v>8089100</v>
+        <v>930600</v>
       </c>
       <c r="C40">
-        <v>3339500</v>
+        <v>2399800</v>
       </c>
       <c r="D40">
-        <v>100200</v>
+        <v>10700</v>
       </c>
       <c r="E40">
-        <v>139065906000</v>
+        <v>15049647000</v>
       </c>
       <c r="F40">
-        <v>55636829000</v>
+        <v>32879893000</v>
       </c>
       <c r="G40">
-        <v>1672389000</v>
+        <v>179735000</v>
       </c>
       <c r="H40">
-        <v>11528800</v>
+        <v>3341100</v>
       </c>
       <c r="I40">
-        <v>196375124000</v>
+        <v>48109275000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-02-03T13:50:00.000Z</v>
+        <v>2023-02-03T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>5325023172000</v>
+        <v>1993281404000</v>
       </c>
       <c r="L40">
-        <v>300543700</v>
+        <v>110677800</v>
       </c>
       <c r="M40">
-        <v>-4749600</v>
+        <v>1469200</v>
       </c>
       <c r="N40">
-        <v>-83429077000</v>
+        <v>17830246000</v>
       </c>
       <c r="O40">
-        <v>-36036800</v>
+        <v>130200</v>
       </c>
       <c r="P40">
-        <v>-584068231000</v>
+        <v>-27002142000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1675432500000</v>
+        <v>1675420320000</v>
       </c>
       <c r="B41">
-        <v>12427700</v>
+        <v>805900</v>
       </c>
       <c r="C41">
-        <v>2735500</v>
+        <v>2913500</v>
       </c>
       <c r="D41">
-        <v>36600</v>
+        <v>2900</v>
       </c>
       <c r="E41">
-        <v>214374760000</v>
+        <v>13746626000</v>
       </c>
       <c r="F41">
-        <v>49831814000</v>
+        <v>47683529000</v>
       </c>
       <c r="G41">
-        <v>377658000</v>
+        <v>62079000</v>
       </c>
       <c r="H41">
-        <v>15199800</v>
+        <v>3722300</v>
       </c>
       <c r="I41">
-        <v>264584232000</v>
+        <v>61492234000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-02-03T13:55:00.000Z</v>
+        <v>2023-02-03T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>5589607404000</v>
+        <v>2054773638000</v>
       </c>
       <c r="L41">
-        <v>315743500</v>
+        <v>114400100</v>
       </c>
       <c r="M41">
-        <v>-9692200</v>
+        <v>2107600</v>
       </c>
       <c r="N41">
-        <v>-164542946000</v>
+        <v>33936903000</v>
       </c>
       <c r="O41">
-        <v>-45729000</v>
+        <v>2237800</v>
       </c>
       <c r="P41">
-        <v>-748611177000</v>
+        <v>6934761000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1675432800000</v>
+        <v>1675420440000</v>
       </c>
       <c r="B42">
-        <v>17060600</v>
+        <v>980700</v>
       </c>
       <c r="C42">
-        <v>8085800</v>
+        <v>3906400</v>
       </c>
       <c r="D42">
-        <v>74600</v>
+        <v>5600</v>
       </c>
       <c r="E42">
-        <v>277677734000</v>
+        <v>18832337000</v>
       </c>
       <c r="F42">
-        <v>148306046000</v>
+        <v>56647891000</v>
       </c>
       <c r="G42">
-        <v>1167847000</v>
+        <v>86108000</v>
       </c>
       <c r="H42">
-        <v>25221000</v>
+        <v>4892700</v>
       </c>
       <c r="I42">
-        <v>427151627000</v>
+        <v>75566336000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-02-03T14:00:00.000Z</v>
+        <v>2023-02-03T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>6016759031000</v>
+        <v>2130339974000</v>
       </c>
       <c r="L42">
-        <v>340964500</v>
+        <v>119292800</v>
       </c>
       <c r="M42">
-        <v>-8974800</v>
+        <v>2925700</v>
       </c>
       <c r="N42">
-        <v>-129371688000</v>
+        <v>37815554000</v>
       </c>
       <c r="O42">
-        <v>-54703800</v>
+        <v>5163500</v>
       </c>
       <c r="P42">
-        <v>-877982865000</v>
+        <v>44750315000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1675433100000</v>
+        <v>1675420560000</v>
       </c>
       <c r="B43">
-        <v>5608800</v>
+        <v>1750600</v>
       </c>
       <c r="C43">
-        <v>5165000</v>
+        <v>4954900</v>
       </c>
       <c r="D43">
-        <v>36900</v>
+        <v>23200</v>
       </c>
       <c r="E43">
-        <v>92327017000</v>
+        <v>31893329000</v>
       </c>
       <c r="F43">
-        <v>90053530000</v>
+        <v>84302541000</v>
       </c>
       <c r="G43">
-        <v>965076000</v>
+        <v>343556000</v>
       </c>
       <c r="H43">
-        <v>10810700</v>
+        <v>6728700</v>
       </c>
       <c r="I43">
-        <v>183345623000</v>
+        <v>116539426000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-02-03T14:05:00.000Z</v>
+        <v>2023-02-03T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>6200104654000</v>
+        <v>2246879400000</v>
       </c>
       <c r="L43">
-        <v>351775200</v>
+        <v>126021500</v>
       </c>
       <c r="M43">
-        <v>-443800</v>
+        <v>3204300</v>
       </c>
       <c r="N43">
-        <v>-2273487000</v>
+        <v>52409212000</v>
       </c>
       <c r="O43">
-        <v>-55147600</v>
+        <v>8367800</v>
       </c>
       <c r="P43">
-        <v>-880256352000</v>
+        <v>97159527000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1675433400000</v>
+        <v>1675420680000</v>
       </c>
       <c r="B44">
-        <v>6055000</v>
+        <v>1017600</v>
       </c>
       <c r="C44">
-        <v>5221400</v>
+        <v>3616100</v>
       </c>
       <c r="D44">
-        <v>114300</v>
+        <v>19600</v>
       </c>
       <c r="E44">
-        <v>102346790000</v>
+        <v>16384971000</v>
       </c>
       <c r="F44">
-        <v>107899317000</v>
+        <v>60341109000</v>
       </c>
       <c r="G44">
-        <v>1260146000</v>
+        <v>346535000</v>
       </c>
       <c r="H44">
-        <v>11390700</v>
+        <v>4653300</v>
       </c>
       <c r="I44">
-        <v>211506253000</v>
+        <v>77072615000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-02-03T14:10:00.000Z</v>
+        <v>2023-02-03T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>6411610907000</v>
+        <v>2323952015000</v>
       </c>
       <c r="L44">
-        <v>363165900</v>
+        <v>130674800</v>
       </c>
       <c r="M44">
-        <v>-833600</v>
+        <v>2598500</v>
       </c>
       <c r="N44">
-        <v>5552527000</v>
+        <v>43956138000</v>
       </c>
       <c r="O44">
-        <v>-55981200</v>
+        <v>10966300</v>
       </c>
       <c r="P44">
-        <v>-874703825000</v>
+        <v>141115665000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1675433700000</v>
+        <v>1675420800000</v>
       </c>
       <c r="B45">
-        <v>4066600</v>
+        <v>1254800</v>
       </c>
       <c r="C45">
-        <v>14645300</v>
+        <v>2880300</v>
       </c>
       <c r="D45">
-        <v>98100</v>
+        <v>4800</v>
       </c>
       <c r="E45">
-        <v>73021879000</v>
+        <v>23498541000</v>
       </c>
       <c r="F45">
-        <v>263213230000</v>
+        <v>48622632000</v>
       </c>
       <c r="G45">
-        <v>1835679000</v>
+        <v>32423000</v>
       </c>
       <c r="H45">
-        <v>18810000</v>
+        <v>4139900</v>
       </c>
       <c r="I45">
-        <v>338070788000</v>
+        <v>72153596000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-02-03T14:15:00.000Z</v>
+        <v>2023-02-03T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>6749681695000</v>
+        <v>2396105611000</v>
       </c>
       <c r="L45">
-        <v>381975900</v>
+        <v>134814700</v>
       </c>
       <c r="M45">
-        <v>10578700</v>
+        <v>1625500</v>
       </c>
       <c r="N45">
-        <v>190191351000</v>
+        <v>25124091000</v>
       </c>
       <c r="O45">
-        <v>-45402500</v>
+        <v>12591800</v>
       </c>
       <c r="P45">
-        <v>-684512474000</v>
+        <v>166239756000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1675434000000</v>
+        <v>1675420920000</v>
       </c>
       <c r="B46">
-        <v>4999200</v>
+        <v>1631200</v>
       </c>
       <c r="C46">
-        <v>13110000</v>
+        <v>2462600</v>
       </c>
       <c r="D46">
-        <v>60700</v>
+        <v>10700</v>
       </c>
       <c r="E46">
-        <v>95816314000</v>
+        <v>29402875000</v>
       </c>
       <c r="F46">
-        <v>222338665000</v>
+        <v>36240837000</v>
       </c>
       <c r="G46">
-        <v>1001951000</v>
+        <v>201640000</v>
       </c>
       <c r="H46">
-        <v>18169900</v>
+        <v>4104500</v>
       </c>
       <c r="I46">
-        <v>319156930000</v>
+        <v>65845352000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-02-03T14:20:00.000Z</v>
+        <v>2023-02-03T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>7068838625000</v>
+        <v>2461950963000</v>
       </c>
       <c r="L46">
-        <v>400145800</v>
+        <v>138919200</v>
       </c>
       <c r="M46">
-        <v>8110800</v>
+        <v>831400</v>
       </c>
       <c r="N46">
-        <v>126522351000</v>
+        <v>6837962000</v>
       </c>
       <c r="O46">
-        <v>-37291700</v>
+        <v>13423200</v>
       </c>
       <c r="P46">
-        <v>-557990123000</v>
+        <v>173077718000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1675434300000</v>
+        <v>1675421040000</v>
       </c>
       <c r="B47">
-        <v>11506500</v>
+        <v>3252600</v>
       </c>
       <c r="C47">
-        <v>6319600</v>
+        <v>1199400</v>
       </c>
       <c r="D47">
-        <v>217200</v>
+        <v>18200</v>
       </c>
       <c r="E47">
-        <v>197436535000</v>
+        <v>71931093000</v>
       </c>
       <c r="F47">
-        <v>127097719000</v>
+        <v>19171371000</v>
       </c>
       <c r="G47">
-        <v>4954295000</v>
+        <v>447060000</v>
       </c>
       <c r="H47">
-        <v>18043300</v>
+        <v>4470200</v>
       </c>
       <c r="I47">
-        <v>329488549000</v>
+        <v>91549524000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-02-03T14:25:00.000Z</v>
+        <v>2023-02-03T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>7398327174000</v>
+        <v>2553500487000</v>
       </c>
       <c r="L47">
-        <v>418189100</v>
+        <v>143389400</v>
       </c>
       <c r="M47">
-        <v>-5186900</v>
+        <v>-2053200</v>
       </c>
       <c r="N47">
-        <v>-70338816000</v>
+        <v>-52759722000</v>
       </c>
       <c r="O47">
-        <v>-42478600</v>
+        <v>11370000</v>
       </c>
       <c r="P47">
-        <v>-628328939000</v>
+        <v>120317996000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1675434600000</v>
+        <v>1675421160000</v>
       </c>
       <c r="B48">
-        <v>11900</v>
+        <v>2600300</v>
       </c>
       <c r="C48">
-        <v>78700</v>
+        <v>682900</v>
       </c>
       <c r="D48">
-        <v>6600</v>
+        <v>10600</v>
       </c>
       <c r="E48">
-        <v>199145000</v>
+        <v>47047770000</v>
       </c>
       <c r="F48">
-        <v>1417858000</v>
+        <v>13427938000</v>
       </c>
       <c r="G48">
-        <v>120340000</v>
+        <v>92008000</v>
       </c>
       <c r="H48">
-        <v>97200</v>
+        <v>3293800</v>
       </c>
       <c r="I48">
-        <v>1737343000</v>
+        <v>60567716000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-02-03T14:30:00.000Z</v>
+        <v>2023-02-03T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>7400064517000</v>
+        <v>2614068203000</v>
       </c>
       <c r="L48">
-        <v>418286300</v>
+        <v>146683200</v>
       </c>
       <c r="M48">
-        <v>66800</v>
+        <v>-1917400</v>
       </c>
       <c r="N48">
-        <v>1218713000</v>
+        <v>-33619832000</v>
       </c>
       <c r="O48">
-        <v>-42411800</v>
+        <v>9452600</v>
       </c>
       <c r="P48">
-        <v>-627110226000</v>
+        <v>86698164000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1675435500000</v>
+        <v>1675421280000</v>
       </c>
       <c r="B49">
+        <v>1487300</v>
+      </c>
+      <c r="C49">
+        <v>655600</v>
+      </c>
+      <c r="D49">
+        <v>800</v>
+      </c>
+      <c r="E49">
+        <v>28387835000</v>
+      </c>
+      <c r="F49">
+        <v>11707519000</v>
+      </c>
+      <c r="G49">
+        <v>29760000</v>
+      </c>
+      <c r="H49">
+        <v>2143700</v>
+      </c>
+      <c r="I49">
+        <v>40125114000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-02-03T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>2654193317000</v>
+      </c>
+      <c r="L49">
+        <v>148826900</v>
+      </c>
+      <c r="M49">
+        <v>-831700</v>
+      </c>
+      <c r="N49">
+        <v>-16680316000</v>
+      </c>
+      <c r="O49">
+        <v>8620900</v>
+      </c>
+      <c r="P49">
+        <v>70017848000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1675421400000</v>
+      </c>
+      <c r="B50">
+        <v>1272300</v>
+      </c>
+      <c r="C50">
+        <v>655400</v>
+      </c>
+      <c r="D50">
+        <v>1200</v>
+      </c>
+      <c r="E50">
+        <v>24256943000</v>
+      </c>
+      <c r="F50">
+        <v>11998048000</v>
+      </c>
+      <c r="G50">
+        <v>63920000</v>
+      </c>
+      <c r="H50">
+        <v>1928900</v>
+      </c>
+      <c r="I50">
+        <v>36318911000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-02-03T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>2690512228000</v>
+      </c>
+      <c r="L50">
+        <v>150755800</v>
+      </c>
+      <c r="M50">
+        <v>-616900</v>
+      </c>
+      <c r="N50">
+        <v>-12258895000</v>
+      </c>
+      <c r="O50">
+        <v>8004000</v>
+      </c>
+      <c r="P50">
+        <v>57758953000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1675421520000</v>
+      </c>
+      <c r="B51">
+        <v>1143800</v>
+      </c>
+      <c r="C51">
+        <v>853500</v>
+      </c>
+      <c r="D51">
+        <v>7200</v>
+      </c>
+      <c r="E51">
+        <v>22365496000</v>
+      </c>
+      <c r="F51">
+        <v>18749029000</v>
+      </c>
+      <c r="G51">
+        <v>92483000</v>
+      </c>
+      <c r="H51">
+        <v>2004500</v>
+      </c>
+      <c r="I51">
+        <v>41207008000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-02-03T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>2731719236000</v>
+      </c>
+      <c r="L51">
+        <v>152760300</v>
+      </c>
+      <c r="M51">
+        <v>-290300</v>
+      </c>
+      <c r="N51">
+        <v>-3616467000</v>
+      </c>
+      <c r="O51">
+        <v>7713700</v>
+      </c>
+      <c r="P51">
+        <v>54142486000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1675421640000</v>
+      </c>
+      <c r="B52">
+        <v>899400</v>
+      </c>
+      <c r="C52">
+        <v>807400</v>
+      </c>
+      <c r="D52">
+        <v>2200</v>
+      </c>
+      <c r="E52">
+        <v>16599562000</v>
+      </c>
+      <c r="F52">
+        <v>15159352000</v>
+      </c>
+      <c r="G52">
+        <v>59204000</v>
+      </c>
+      <c r="H52">
+        <v>1709000</v>
+      </c>
+      <c r="I52">
+        <v>31818118000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-02-03T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2763537354000</v>
+      </c>
+      <c r="L52">
+        <v>154469300</v>
+      </c>
+      <c r="M52">
+        <v>-92000</v>
+      </c>
+      <c r="N52">
+        <v>-1440210000</v>
+      </c>
+      <c r="O52">
+        <v>7621700</v>
+      </c>
+      <c r="P52">
+        <v>52702276000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1675421760000</v>
+      </c>
+      <c r="B53">
+        <v>1186000</v>
+      </c>
+      <c r="C53">
+        <v>802200</v>
+      </c>
+      <c r="D53">
+        <v>400</v>
+      </c>
+      <c r="E53">
+        <v>22991393000</v>
+      </c>
+      <c r="F53">
+        <v>16244981000</v>
+      </c>
+      <c r="G53">
+        <v>7420000</v>
+      </c>
+      <c r="H53">
+        <v>1988600</v>
+      </c>
+      <c r="I53">
+        <v>39243794000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-02-03T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2802781148000</v>
+      </c>
+      <c r="L53">
+        <v>156457900</v>
+      </c>
+      <c r="M53">
+        <v>-383800</v>
+      </c>
+      <c r="N53">
+        <v>-6746412000</v>
+      </c>
+      <c r="O53">
+        <v>7237900</v>
+      </c>
+      <c r="P53">
+        <v>45955864000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1675421880000</v>
+      </c>
+      <c r="B54">
+        <v>974500</v>
+      </c>
+      <c r="C54">
+        <v>697900</v>
+      </c>
+      <c r="D54">
+        <v>600</v>
+      </c>
+      <c r="E54">
+        <v>16602489000</v>
+      </c>
+      <c r="F54">
+        <v>13436228000</v>
+      </c>
+      <c r="G54">
+        <v>9675000</v>
+      </c>
+      <c r="H54">
+        <v>1673000</v>
+      </c>
+      <c r="I54">
+        <v>30048392000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-02-03T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2832829540000</v>
+      </c>
+      <c r="L54">
+        <v>158130900</v>
+      </c>
+      <c r="M54">
+        <v>-276600</v>
+      </c>
+      <c r="N54">
+        <v>-3166261000</v>
+      </c>
+      <c r="O54">
+        <v>6961300</v>
+      </c>
+      <c r="P54">
+        <v>42789603000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1675422000000</v>
+      </c>
+      <c r="B55">
+        <v>886800</v>
+      </c>
+      <c r="C55">
+        <v>538900</v>
+      </c>
+      <c r="D55">
+        <v>8900</v>
+      </c>
+      <c r="E55">
+        <v>16704786000</v>
+      </c>
+      <c r="F55">
+        <v>10543791000</v>
+      </c>
+      <c r="G55">
+        <v>207243000</v>
+      </c>
+      <c r="H55">
+        <v>1434600</v>
+      </c>
+      <c r="I55">
+        <v>27455820000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-02-03T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2860285360000</v>
+      </c>
+      <c r="L55">
+        <v>159565500</v>
+      </c>
+      <c r="M55">
+        <v>-347900</v>
+      </c>
+      <c r="N55">
+        <v>-6160995000</v>
+      </c>
+      <c r="O55">
+        <v>6613400</v>
+      </c>
+      <c r="P55">
+        <v>36628608000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1675422120000</v>
+      </c>
+      <c r="B56">
+        <v>682600</v>
+      </c>
+      <c r="C56">
+        <v>611000</v>
+      </c>
+      <c r="D56">
+        <v>13000</v>
+      </c>
+      <c r="E56">
+        <v>15165717000</v>
+      </c>
+      <c r="F56">
+        <v>11198513000</v>
+      </c>
+      <c r="G56">
+        <v>261950000</v>
+      </c>
+      <c r="H56">
+        <v>1306600</v>
+      </c>
+      <c r="I56">
+        <v>26626180000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-02-03T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2886911540000</v>
+      </c>
+      <c r="L56">
+        <v>160872100</v>
+      </c>
+      <c r="M56">
+        <v>-71600</v>
+      </c>
+      <c r="N56">
+        <v>-3967204000</v>
+      </c>
+      <c r="O56">
+        <v>6541800</v>
+      </c>
+      <c r="P56">
+        <v>32661404000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1675422240000</v>
+      </c>
+      <c r="B57">
+        <v>1407200</v>
+      </c>
+      <c r="C57">
+        <v>468800</v>
+      </c>
+      <c r="D57">
+        <v>8800</v>
+      </c>
+      <c r="E57">
+        <v>25135957000</v>
+      </c>
+      <c r="F57">
+        <v>9658773000</v>
+      </c>
+      <c r="G57">
+        <v>212396000</v>
+      </c>
+      <c r="H57">
+        <v>1884800</v>
+      </c>
+      <c r="I57">
+        <v>35007126000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-02-03T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2921918666000</v>
+      </c>
+      <c r="L57">
+        <v>162756900</v>
+      </c>
+      <c r="M57">
+        <v>-938400</v>
+      </c>
+      <c r="N57">
+        <v>-15477184000</v>
+      </c>
+      <c r="O57">
+        <v>5603400</v>
+      </c>
+      <c r="P57">
+        <v>17184220000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1675422360000</v>
+      </c>
+      <c r="B58">
+        <v>1147200</v>
+      </c>
+      <c r="C58">
+        <v>427300</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>17779801000</v>
+      </c>
+      <c r="F58">
+        <v>9667607000</v>
+      </c>
+      <c r="G58">
+        <v>1360000</v>
+      </c>
+      <c r="H58">
+        <v>1574600</v>
+      </c>
+      <c r="I58">
+        <v>27448768000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-02-03T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2949367434000</v>
+      </c>
+      <c r="L58">
+        <v>164331500</v>
+      </c>
+      <c r="M58">
+        <v>-719900</v>
+      </c>
+      <c r="N58">
+        <v>-8112194000</v>
+      </c>
+      <c r="O58">
+        <v>4883500</v>
+      </c>
+      <c r="P58">
+        <v>9072026000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1675422480000</v>
+      </c>
+      <c r="B59">
+        <v>724000</v>
+      </c>
+      <c r="C59">
+        <v>645900</v>
+      </c>
+      <c r="D59">
+        <v>100</v>
+      </c>
+      <c r="E59">
+        <v>13169091000</v>
+      </c>
+      <c r="F59">
+        <v>13957042000</v>
+      </c>
+      <c r="G59">
+        <v>529000</v>
+      </c>
+      <c r="H59">
+        <v>1370000</v>
+      </c>
+      <c r="I59">
+        <v>27126662000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-02-03T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2976494096000</v>
+      </c>
+      <c r="L59">
+        <v>165701500</v>
+      </c>
+      <c r="M59">
+        <v>-78100</v>
+      </c>
+      <c r="N59">
+        <v>787951000</v>
+      </c>
+      <c r="O59">
+        <v>4805400</v>
+      </c>
+      <c r="P59">
+        <v>9859977000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1675422600000</v>
+      </c>
+      <c r="B60">
+        <v>798000</v>
+      </c>
+      <c r="C60">
+        <v>720700</v>
+      </c>
+      <c r="D60">
+        <v>3600</v>
+      </c>
+      <c r="E60">
+        <v>11740777000</v>
+      </c>
+      <c r="F60">
+        <v>16262741000</v>
+      </c>
+      <c r="G60">
+        <v>71492000</v>
+      </c>
+      <c r="H60">
+        <v>1522300</v>
+      </c>
+      <c r="I60">
+        <v>28075010000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-02-03T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>3004569106000</v>
+      </c>
+      <c r="L60">
+        <v>167223800</v>
+      </c>
+      <c r="M60">
+        <v>-77300</v>
+      </c>
+      <c r="N60">
+        <v>4521964000</v>
+      </c>
+      <c r="O60">
+        <v>4728100</v>
+      </c>
+      <c r="P60">
+        <v>14381941000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1675422720000</v>
+      </c>
+      <c r="B61">
+        <v>724500</v>
+      </c>
+      <c r="C61">
+        <v>565800</v>
+      </c>
+      <c r="D61">
+        <v>31000</v>
+      </c>
+      <c r="E61">
+        <v>15601440000</v>
+      </c>
+      <c r="F61">
+        <v>11042775000</v>
+      </c>
+      <c r="G61">
+        <v>685645000</v>
+      </c>
+      <c r="H61">
+        <v>1321300</v>
+      </c>
+      <c r="I61">
+        <v>27329860000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-02-03T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>3031898966000</v>
+      </c>
+      <c r="L61">
+        <v>168545100</v>
+      </c>
+      <c r="M61">
+        <v>-158700</v>
+      </c>
+      <c r="N61">
+        <v>-4558665000</v>
+      </c>
+      <c r="O61">
+        <v>4569400</v>
+      </c>
+      <c r="P61">
+        <v>9823276000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1675422840000</v>
+      </c>
+      <c r="B62">
+        <v>766500</v>
+      </c>
+      <c r="C62">
+        <v>445800</v>
+      </c>
+      <c r="D62">
+        <v>2000</v>
+      </c>
+      <c r="E62">
+        <v>14158459000</v>
+      </c>
+      <c r="F62">
+        <v>9985407000</v>
+      </c>
+      <c r="G62">
+        <v>49249000</v>
+      </c>
+      <c r="H62">
+        <v>1214300</v>
+      </c>
+      <c r="I62">
+        <v>24193115000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-02-03T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>3056092081000</v>
+      </c>
+      <c r="L62">
+        <v>169759400</v>
+      </c>
+      <c r="M62">
+        <v>-320700</v>
+      </c>
+      <c r="N62">
+        <v>-4173052000</v>
+      </c>
+      <c r="O62">
+        <v>4248700</v>
+      </c>
+      <c r="P62">
+        <v>5650224000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1675422960000</v>
+      </c>
+      <c r="B63">
+        <v>676100</v>
+      </c>
+      <c r="C63">
+        <v>321600</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>12268046000</v>
+      </c>
+      <c r="F63">
+        <v>6856520000</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>997700</v>
+      </c>
+      <c r="I63">
+        <v>19124566000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-02-03T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>3075216647000</v>
+      </c>
+      <c r="L63">
+        <v>170757100</v>
+      </c>
+      <c r="M63">
+        <v>-354500</v>
+      </c>
+      <c r="N63">
+        <v>-5411526000</v>
+      </c>
+      <c r="O63">
+        <v>3894200</v>
+      </c>
+      <c r="P63">
+        <v>238698000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1675423080000</v>
+      </c>
+      <c r="B64">
+        <v>806500</v>
+      </c>
+      <c r="C64">
+        <v>571900</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>16805473000</v>
+      </c>
+      <c r="F64">
+        <v>10975340000</v>
+      </c>
+      <c r="G64">
+        <v>1055000</v>
+      </c>
+      <c r="H64">
+        <v>1378500</v>
+      </c>
+      <c r="I64">
+        <v>27781868000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-02-03T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>3102998515000</v>
+      </c>
+      <c r="L64">
+        <v>172135600</v>
+      </c>
+      <c r="M64">
+        <v>-234600</v>
+      </c>
+      <c r="N64">
+        <v>-5830133000</v>
+      </c>
+      <c r="O64">
+        <v>3659600</v>
+      </c>
+      <c r="P64">
+        <v>-5591435000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1675423200000</v>
+      </c>
+      <c r="B65">
+        <v>480700</v>
+      </c>
+      <c r="C65">
+        <v>680600</v>
+      </c>
+      <c r="D65">
+        <v>12600</v>
+      </c>
+      <c r="E65">
+        <v>8843829000</v>
+      </c>
+      <c r="F65">
+        <v>11460532000</v>
+      </c>
+      <c r="G65">
+        <v>260820000</v>
+      </c>
+      <c r="H65">
+        <v>1173900</v>
+      </c>
+      <c r="I65">
+        <v>20565181000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-02-03T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>3123563696000</v>
+      </c>
+      <c r="L65">
+        <v>173309500</v>
+      </c>
+      <c r="M65">
+        <v>199900</v>
+      </c>
+      <c r="N65">
+        <v>2616703000</v>
+      </c>
+      <c r="O65">
+        <v>3859500</v>
+      </c>
+      <c r="P65">
+        <v>-2974732000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1675423320000</v>
+      </c>
+      <c r="B66">
+        <v>835500</v>
+      </c>
+      <c r="C66">
+        <v>464400</v>
+      </c>
+      <c r="D66">
+        <v>30700</v>
+      </c>
+      <c r="E66">
+        <v>14963629000</v>
+      </c>
+      <c r="F66">
+        <v>10925229000</v>
+      </c>
+      <c r="G66">
+        <v>440545000</v>
+      </c>
+      <c r="H66">
+        <v>1330600</v>
+      </c>
+      <c r="I66">
+        <v>26329403000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-02-03T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>3149893099000</v>
+      </c>
+      <c r="L66">
+        <v>174640100</v>
+      </c>
+      <c r="M66">
+        <v>-371100</v>
+      </c>
+      <c r="N66">
+        <v>-4038400000</v>
+      </c>
+      <c r="O66">
+        <v>3488400</v>
+      </c>
+      <c r="P66">
+        <v>-7013132000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1675423440000</v>
+      </c>
+      <c r="B67">
+        <v>630000</v>
+      </c>
+      <c r="C67">
+        <v>395100</v>
+      </c>
+      <c r="D67">
+        <v>13000</v>
+      </c>
+      <c r="E67">
+        <v>12601967000</v>
+      </c>
+      <c r="F67">
+        <v>9895294000</v>
+      </c>
+      <c r="G67">
+        <v>320695000</v>
+      </c>
+      <c r="H67">
+        <v>1038100</v>
+      </c>
+      <c r="I67">
+        <v>22817956000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-02-03T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>3172711055000</v>
+      </c>
+      <c r="L67">
+        <v>175678200</v>
+      </c>
+      <c r="M67">
+        <v>-234900</v>
+      </c>
+      <c r="N67">
+        <v>-2706673000</v>
+      </c>
+      <c r="O67">
+        <v>3253500</v>
+      </c>
+      <c r="P67">
+        <v>-9719805000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1675423560000</v>
+      </c>
+      <c r="B68">
+        <v>734900</v>
+      </c>
+      <c r="C68">
+        <v>513800</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>10459626000</v>
+      </c>
+      <c r="F68">
+        <v>10313726000</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1248700</v>
+      </c>
+      <c r="I68">
+        <v>20773352000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-02-03T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>3193484407000</v>
+      </c>
+      <c r="L68">
+        <v>176926900</v>
+      </c>
+      <c r="M68">
+        <v>-221100</v>
+      </c>
+      <c r="N68">
+        <v>-145900000</v>
+      </c>
+      <c r="O68">
+        <v>3032400</v>
+      </c>
+      <c r="P68">
+        <v>-9865705000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1675423680000</v>
+      </c>
+      <c r="B69">
+        <v>1180000</v>
+      </c>
+      <c r="C69">
+        <v>456200</v>
+      </c>
+      <c r="D69">
+        <v>4500</v>
+      </c>
+      <c r="E69">
+        <v>20726011000</v>
+      </c>
+      <c r="F69">
+        <v>9738108000</v>
+      </c>
+      <c r="G69">
+        <v>168750000</v>
+      </c>
+      <c r="H69">
+        <v>1640700</v>
+      </c>
+      <c r="I69">
+        <v>30632869000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-02-03T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>3224117276000</v>
+      </c>
+      <c r="L69">
+        <v>178567600</v>
+      </c>
+      <c r="M69">
+        <v>-723800</v>
+      </c>
+      <c r="N69">
+        <v>-10987903000</v>
+      </c>
+      <c r="O69">
+        <v>2308600</v>
+      </c>
+      <c r="P69">
+        <v>-20853608000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1675423800000</v>
+      </c>
+      <c r="B70">
+        <v>2000</v>
+      </c>
+      <c r="C70">
+        <v>3100</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>41200000</v>
+      </c>
+      <c r="F70">
+        <v>18760000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>5100</v>
+      </c>
+      <c r="I70">
+        <v>59960000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-02-03T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>3224177236000</v>
+      </c>
+      <c r="L70">
+        <v>178572700</v>
+      </c>
+      <c r="M70">
+        <v>1100</v>
+      </c>
+      <c r="N70">
+        <v>-22440000</v>
+      </c>
+      <c r="O70">
+        <v>2309700</v>
+      </c>
+      <c r="P70">
+        <v>-20876048000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1675429200000</v>
+      </c>
+      <c r="B71">
+        <v>5786400</v>
+      </c>
+      <c r="C71">
+        <v>2254000</v>
+      </c>
+      <c r="D71">
+        <v>269100</v>
+      </c>
+      <c r="E71">
+        <v>97227804000</v>
+      </c>
+      <c r="F71">
+        <v>39678697000</v>
+      </c>
+      <c r="G71">
+        <v>4357317000</v>
+      </c>
+      <c r="H71">
+        <v>8309500</v>
+      </c>
+      <c r="I71">
+        <v>141263818000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-02-03T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3365441054000</v>
+      </c>
+      <c r="L71">
+        <v>186882200</v>
+      </c>
+      <c r="M71">
+        <v>-3532400</v>
+      </c>
+      <c r="N71">
+        <v>-57549107000</v>
+      </c>
+      <c r="O71">
+        <v>-1222700</v>
+      </c>
+      <c r="P71">
+        <v>-78425155000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1675429320000</v>
+      </c>
+      <c r="B72">
+        <v>3123600</v>
+      </c>
+      <c r="C72">
+        <v>834700</v>
+      </c>
+      <c r="D72">
+        <v>11800</v>
+      </c>
+      <c r="E72">
+        <v>42289632000</v>
+      </c>
+      <c r="F72">
+        <v>17977829000</v>
+      </c>
+      <c r="G72">
+        <v>209895000</v>
+      </c>
+      <c r="H72">
+        <v>3970100</v>
+      </c>
+      <c r="I72">
+        <v>60477356000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-02-03T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3425918410000</v>
+      </c>
+      <c r="L72">
+        <v>190852300</v>
+      </c>
+      <c r="M72">
+        <v>-2288900</v>
+      </c>
+      <c r="N72">
+        <v>-24311803000</v>
+      </c>
+      <c r="O72">
+        <v>-3511600</v>
+      </c>
+      <c r="P72">
+        <v>-102736958000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1675429440000</v>
+      </c>
+      <c r="B73">
+        <v>4499100</v>
+      </c>
+      <c r="C73">
+        <v>1072700</v>
+      </c>
+      <c r="D73">
+        <v>20200</v>
+      </c>
+      <c r="E73">
+        <v>58950242000</v>
+      </c>
+      <c r="F73">
+        <v>15794387000</v>
+      </c>
+      <c r="G73">
+        <v>192948000</v>
+      </c>
+      <c r="H73">
+        <v>5592000</v>
+      </c>
+      <c r="I73">
+        <v>74937577000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-02-03T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3500855987000</v>
+      </c>
+      <c r="L73">
+        <v>196444300</v>
+      </c>
+      <c r="M73">
+        <v>-3426400</v>
+      </c>
+      <c r="N73">
+        <v>-43155855000</v>
+      </c>
+      <c r="O73">
+        <v>-6938000</v>
+      </c>
+      <c r="P73">
+        <v>-145892813000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1675429560000</v>
+      </c>
+      <c r="B74">
+        <v>2390800</v>
+      </c>
+      <c r="C74">
+        <v>1051400</v>
+      </c>
+      <c r="D74">
+        <v>5100</v>
+      </c>
+      <c r="E74">
+        <v>41536798000</v>
+      </c>
+      <c r="F74">
+        <v>20162685000</v>
+      </c>
+      <c r="G74">
+        <v>153293000</v>
+      </c>
+      <c r="H74">
+        <v>3447300</v>
+      </c>
+      <c r="I74">
+        <v>61852776000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-02-03T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3562708763000</v>
+      </c>
+      <c r="L74">
+        <v>199891600</v>
+      </c>
+      <c r="M74">
+        <v>-1339400</v>
+      </c>
+      <c r="N74">
+        <v>-21374113000</v>
+      </c>
+      <c r="O74">
+        <v>-8277400</v>
+      </c>
+      <c r="P74">
+        <v>-167266926000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1675429680000</v>
+      </c>
+      <c r="B75">
+        <v>2236400</v>
+      </c>
+      <c r="C75">
+        <v>672200</v>
+      </c>
+      <c r="D75">
+        <v>5600</v>
+      </c>
+      <c r="E75">
+        <v>44045290000</v>
+      </c>
+      <c r="F75">
+        <v>10588086000</v>
+      </c>
+      <c r="G75">
+        <v>82420000</v>
+      </c>
+      <c r="H75">
+        <v>2914200</v>
+      </c>
+      <c r="I75">
+        <v>54715796000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-02-03T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3617424559000</v>
+      </c>
+      <c r="L75">
+        <v>202805800</v>
+      </c>
+      <c r="M75">
+        <v>-1564200</v>
+      </c>
+      <c r="N75">
+        <v>-33457204000</v>
+      </c>
+      <c r="O75">
+        <v>-9841600</v>
+      </c>
+      <c r="P75">
+        <v>-200724130000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1675429800000</v>
+      </c>
+      <c r="B76">
+        <v>1982200</v>
+      </c>
+      <c r="C76">
+        <v>1962200</v>
+      </c>
+      <c r="D76">
+        <v>19400</v>
+      </c>
+      <c r="E76">
+        <v>34496022000</v>
+      </c>
+      <c r="F76">
+        <v>42994719000</v>
+      </c>
+      <c r="G76">
+        <v>375803000</v>
+      </c>
+      <c r="H76">
+        <v>3963800</v>
+      </c>
+      <c r="I76">
+        <v>77866544000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-02-03T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3695291103000</v>
+      </c>
+      <c r="L76">
+        <v>206769600</v>
+      </c>
+      <c r="M76">
+        <v>-20000</v>
+      </c>
+      <c r="N76">
+        <v>8498697000</v>
+      </c>
+      <c r="O76">
+        <v>-9861600</v>
+      </c>
+      <c r="P76">
+        <v>-192225433000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1675429920000</v>
+      </c>
+      <c r="B77">
+        <v>1888200</v>
+      </c>
+      <c r="C77">
+        <v>1466400</v>
+      </c>
+      <c r="D77">
+        <v>6800</v>
+      </c>
+      <c r="E77">
+        <v>30227090000</v>
+      </c>
+      <c r="F77">
+        <v>26994075000</v>
+      </c>
+      <c r="G77">
+        <v>260134000</v>
+      </c>
+      <c r="H77">
+        <v>3361400</v>
+      </c>
+      <c r="I77">
+        <v>57481299000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-02-03T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3752772402000</v>
+      </c>
+      <c r="L77">
+        <v>210131000</v>
+      </c>
+      <c r="M77">
+        <v>-421800</v>
+      </c>
+      <c r="N77">
+        <v>-3233015000</v>
+      </c>
+      <c r="O77">
+        <v>-10283400</v>
+      </c>
+      <c r="P77">
+        <v>-195458448000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1675430040000</v>
+      </c>
+      <c r="B78">
+        <v>1782400</v>
+      </c>
+      <c r="C78">
+        <v>1191500</v>
+      </c>
+      <c r="D78">
+        <v>16600</v>
+      </c>
+      <c r="E78">
+        <v>31352003000</v>
+      </c>
+      <c r="F78">
+        <v>24016268000</v>
+      </c>
+      <c r="G78">
+        <v>541140000</v>
+      </c>
+      <c r="H78">
+        <v>2990500</v>
+      </c>
+      <c r="I78">
+        <v>55909411000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-02-03T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3808681813000</v>
+      </c>
+      <c r="L78">
+        <v>213121500</v>
+      </c>
+      <c r="M78">
+        <v>-590900</v>
+      </c>
+      <c r="N78">
+        <v>-7335735000</v>
+      </c>
+      <c r="O78">
+        <v>-10874300</v>
+      </c>
+      <c r="P78">
+        <v>-202794183000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1675430160000</v>
+      </c>
+      <c r="B79">
+        <v>1728000</v>
+      </c>
+      <c r="C79">
+        <v>1251400</v>
+      </c>
+      <c r="D79">
+        <v>16700</v>
+      </c>
+      <c r="E79">
+        <v>31417687000</v>
+      </c>
+      <c r="F79">
+        <v>22109322000</v>
+      </c>
+      <c r="G79">
+        <v>251781000</v>
+      </c>
+      <c r="H79">
+        <v>2996100</v>
+      </c>
+      <c r="I79">
+        <v>53778790000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-02-03T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3862460603000</v>
+      </c>
+      <c r="L79">
+        <v>216117600</v>
+      </c>
+      <c r="M79">
+        <v>-476600</v>
+      </c>
+      <c r="N79">
+        <v>-9308365000</v>
+      </c>
+      <c r="O79">
+        <v>-11350900</v>
+      </c>
+      <c r="P79">
+        <v>-212102548000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1675430280000</v>
+      </c>
+      <c r="B80">
+        <v>1791900</v>
+      </c>
+      <c r="C80">
+        <v>1983400</v>
+      </c>
+      <c r="D80">
+        <v>26600</v>
+      </c>
+      <c r="E80">
+        <v>32280570000</v>
+      </c>
+      <c r="F80">
+        <v>33774378000</v>
+      </c>
+      <c r="G80">
+        <v>751255000</v>
+      </c>
+      <c r="H80">
+        <v>3801900</v>
+      </c>
+      <c r="I80">
+        <v>66806203000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-02-03T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>3929266806000</v>
+      </c>
+      <c r="L80">
+        <v>219919500</v>
+      </c>
+      <c r="M80">
+        <v>191500</v>
+      </c>
+      <c r="N80">
+        <v>1493808000</v>
+      </c>
+      <c r="O80">
+        <v>-11159400</v>
+      </c>
+      <c r="P80">
+        <v>-210608740000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1675430400000</v>
+      </c>
+      <c r="B81">
+        <v>1532600</v>
+      </c>
+      <c r="C81">
+        <v>1291300</v>
+      </c>
+      <c r="D81">
+        <v>7800</v>
+      </c>
+      <c r="E81">
+        <v>22616098000</v>
+      </c>
+      <c r="F81">
+        <v>24713353000</v>
+      </c>
+      <c r="G81">
+        <v>214720000</v>
+      </c>
+      <c r="H81">
+        <v>2831700</v>
+      </c>
+      <c r="I81">
+        <v>47544171000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-02-03T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>3976810977000</v>
+      </c>
+      <c r="L81">
+        <v>222751200</v>
+      </c>
+      <c r="M81">
+        <v>-241300</v>
+      </c>
+      <c r="N81">
+        <v>2097255000</v>
+      </c>
+      <c r="O81">
+        <v>-11400700</v>
+      </c>
+      <c r="P81">
+        <v>-208511485000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1675430520000</v>
+      </c>
+      <c r="B82">
+        <v>1843100</v>
+      </c>
+      <c r="C82">
+        <v>973200</v>
+      </c>
+      <c r="D82">
+        <v>20900</v>
+      </c>
+      <c r="E82">
+        <v>32313190000</v>
+      </c>
+      <c r="F82">
+        <v>18909304000</v>
+      </c>
+      <c r="G82">
+        <v>312300000</v>
+      </c>
+      <c r="H82">
+        <v>2837200</v>
+      </c>
+      <c r="I82">
+        <v>51534794000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-02-03T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>4028345771000</v>
+      </c>
+      <c r="L82">
+        <v>225588400</v>
+      </c>
+      <c r="M82">
+        <v>-869900</v>
+      </c>
+      <c r="N82">
+        <v>-13403886000</v>
+      </c>
+      <c r="O82">
+        <v>-12270600</v>
+      </c>
+      <c r="P82">
+        <v>-221915371000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1675430640000</v>
+      </c>
+      <c r="B83">
+        <v>6724200</v>
+      </c>
+      <c r="C83">
+        <v>1330200</v>
+      </c>
+      <c r="D83">
+        <v>42200</v>
+      </c>
+      <c r="E83">
+        <v>120457275000</v>
+      </c>
+      <c r="F83">
+        <v>22857426000</v>
+      </c>
+      <c r="G83">
+        <v>892041000</v>
+      </c>
+      <c r="H83">
+        <v>8096600</v>
+      </c>
+      <c r="I83">
+        <v>144206742000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-02-03T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>4172552513000</v>
+      </c>
+      <c r="L83">
+        <v>233685000</v>
+      </c>
+      <c r="M83">
+        <v>-5394000</v>
+      </c>
+      <c r="N83">
+        <v>-97599849000</v>
+      </c>
+      <c r="O83">
+        <v>-17664600</v>
+      </c>
+      <c r="P83">
+        <v>-319515220000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1675430760000</v>
+      </c>
+      <c r="B84">
+        <v>7133500</v>
+      </c>
+      <c r="C84">
+        <v>944200</v>
+      </c>
+      <c r="D84">
+        <v>28300</v>
+      </c>
+      <c r="E84">
+        <v>112645959000</v>
+      </c>
+      <c r="F84">
+        <v>17776032000</v>
+      </c>
+      <c r="G84">
+        <v>677957000</v>
+      </c>
+      <c r="H84">
+        <v>8106000</v>
+      </c>
+      <c r="I84">
+        <v>131099948000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-02-03T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>4303652461000</v>
+      </c>
+      <c r="L84">
+        <v>241791000</v>
+      </c>
+      <c r="M84">
+        <v>-6189300</v>
+      </c>
+      <c r="N84">
+        <v>-94869927000</v>
+      </c>
+      <c r="O84">
+        <v>-23853900</v>
+      </c>
+      <c r="P84">
+        <v>-414385147000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1675430880000</v>
+      </c>
+      <c r="B85">
+        <v>3778400</v>
+      </c>
+      <c r="C85">
+        <v>1463900</v>
+      </c>
+      <c r="D85">
+        <v>67200</v>
+      </c>
+      <c r="E85">
+        <v>62392604000</v>
+      </c>
+      <c r="F85">
+        <v>28759569000</v>
+      </c>
+      <c r="G85">
+        <v>908107000</v>
+      </c>
+      <c r="H85">
+        <v>5309500</v>
+      </c>
+      <c r="I85">
+        <v>92060280000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-02-03T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>4395712741000</v>
+      </c>
+      <c r="L85">
+        <v>247100500</v>
+      </c>
+      <c r="M85">
+        <v>-2314500</v>
+      </c>
+      <c r="N85">
+        <v>-33633035000</v>
+      </c>
+      <c r="O85">
+        <v>-26168400</v>
+      </c>
+      <c r="P85">
+        <v>-448018182000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1675431000000</v>
+      </c>
+      <c r="B86">
+        <v>2801100</v>
+      </c>
+      <c r="C86">
+        <v>1025100</v>
+      </c>
+      <c r="D86">
+        <v>1300</v>
+      </c>
+      <c r="E86">
+        <v>46710128000</v>
+      </c>
+      <c r="F86">
+        <v>18519082000</v>
+      </c>
+      <c r="G86">
+        <v>39954000</v>
+      </c>
+      <c r="H86">
+        <v>3827500</v>
+      </c>
+      <c r="I86">
+        <v>65269164000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-02-03T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4460981905000</v>
+      </c>
+      <c r="L86">
+        <v>250928000</v>
+      </c>
+      <c r="M86">
+        <v>-1776000</v>
+      </c>
+      <c r="N86">
+        <v>-28191046000</v>
+      </c>
+      <c r="O86">
+        <v>-27944400</v>
+      </c>
+      <c r="P86">
+        <v>-476209228000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1675431120000</v>
+      </c>
+      <c r="B87">
+        <v>3352500</v>
+      </c>
+      <c r="C87">
+        <v>1122200</v>
+      </c>
+      <c r="D87">
+        <v>12100</v>
+      </c>
+      <c r="E87">
+        <v>58123714000</v>
+      </c>
+      <c r="F87">
+        <v>19360744000</v>
+      </c>
+      <c r="G87">
+        <v>65159000</v>
+      </c>
+      <c r="H87">
+        <v>4486800</v>
+      </c>
+      <c r="I87">
+        <v>77549617000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-02-03T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4538531522000</v>
+      </c>
+      <c r="L87">
+        <v>255414800</v>
+      </c>
+      <c r="M87">
+        <v>-2230300</v>
+      </c>
+      <c r="N87">
+        <v>-38762970000</v>
+      </c>
+      <c r="O87">
+        <v>-30174700</v>
+      </c>
+      <c r="P87">
+        <v>-514972198000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1675431240000</v>
+      </c>
+      <c r="B88">
+        <v>4138500</v>
+      </c>
+      <c r="C88">
+        <v>1347000</v>
+      </c>
+      <c r="D88">
+        <v>17600</v>
+      </c>
+      <c r="E88">
+        <v>61912598000</v>
+      </c>
+      <c r="F88">
+        <v>23159463000</v>
+      </c>
+      <c r="G88">
+        <v>313738000</v>
+      </c>
+      <c r="H88">
+        <v>5503100</v>
+      </c>
+      <c r="I88">
+        <v>85385799000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-02-03T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4623917321000</v>
+      </c>
+      <c r="L88">
+        <v>260917900</v>
+      </c>
+      <c r="M88">
+        <v>-2791500</v>
+      </c>
+      <c r="N88">
+        <v>-38753135000</v>
+      </c>
+      <c r="O88">
+        <v>-32966200</v>
+      </c>
+      <c r="P88">
+        <v>-553725333000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1675431360000</v>
+      </c>
+      <c r="B89">
+        <v>2315400</v>
+      </c>
+      <c r="C89">
+        <v>1591300</v>
+      </c>
+      <c r="D89">
+        <v>60100</v>
+      </c>
+      <c r="E89">
+        <v>40922751000</v>
+      </c>
+      <c r="F89">
+        <v>27915054000</v>
+      </c>
+      <c r="G89">
+        <v>612144000</v>
+      </c>
+      <c r="H89">
+        <v>3966800</v>
+      </c>
+      <c r="I89">
+        <v>69449949000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-02-03T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4693367270000</v>
+      </c>
+      <c r="L89">
+        <v>264884700</v>
+      </c>
+      <c r="M89">
+        <v>-724100</v>
+      </c>
+      <c r="N89">
+        <v>-13007697000</v>
+      </c>
+      <c r="O89">
+        <v>-33690300</v>
+      </c>
+      <c r="P89">
+        <v>-566733030000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1675431480000</v>
+      </c>
+      <c r="B90">
+        <v>1452300</v>
+      </c>
+      <c r="C90">
+        <v>2502900</v>
+      </c>
+      <c r="D90">
+        <v>1000</v>
+      </c>
+      <c r="E90">
+        <v>30387715000</v>
+      </c>
+      <c r="F90">
+        <v>50321276000</v>
+      </c>
+      <c r="G90">
+        <v>22680000</v>
+      </c>
+      <c r="H90">
+        <v>3956200</v>
+      </c>
+      <c r="I90">
+        <v>80731671000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-02-03T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4774098941000</v>
+      </c>
+      <c r="L90">
+        <v>268840900</v>
+      </c>
+      <c r="M90">
+        <v>1050600</v>
+      </c>
+      <c r="N90">
+        <v>19933561000</v>
+      </c>
+      <c r="O90">
+        <v>-32639700</v>
+      </c>
+      <c r="P90">
+        <v>-546799469000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1675431600000</v>
+      </c>
+      <c r="B91">
+        <v>2575100</v>
+      </c>
+      <c r="C91">
+        <v>2223300</v>
+      </c>
+      <c r="D91">
+        <v>9000</v>
+      </c>
+      <c r="E91">
+        <v>31145923000</v>
+      </c>
+      <c r="F91">
+        <v>43354790000</v>
+      </c>
+      <c r="G91">
+        <v>80204000</v>
+      </c>
+      <c r="H91">
+        <v>4807400</v>
+      </c>
+      <c r="I91">
+        <v>74580917000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-02-03T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4848679858000</v>
+      </c>
+      <c r="L91">
+        <v>273648300</v>
+      </c>
+      <c r="M91">
+        <v>-351800</v>
+      </c>
+      <c r="N91">
+        <v>12208867000</v>
+      </c>
+      <c r="O91">
+        <v>-32991500</v>
+      </c>
+      <c r="P91">
+        <v>-534590602000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1675431720000</v>
+      </c>
+      <c r="B92">
+        <v>1718700</v>
+      </c>
+      <c r="C92">
+        <v>2249300</v>
+      </c>
+      <c r="D92">
+        <v>13500</v>
+      </c>
+      <c r="E92">
+        <v>29414768000</v>
+      </c>
+      <c r="F92">
+        <v>36002932000</v>
+      </c>
+      <c r="G92">
+        <v>144798000</v>
+      </c>
+      <c r="H92">
+        <v>3981500</v>
+      </c>
+      <c r="I92">
+        <v>65562498000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-02-03T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4914242356000</v>
+      </c>
+      <c r="L92">
+        <v>277629800</v>
+      </c>
+      <c r="M92">
+        <v>530600</v>
+      </c>
+      <c r="N92">
+        <v>6588164000</v>
+      </c>
+      <c r="O92">
+        <v>-32460900</v>
+      </c>
+      <c r="P92">
+        <v>-528002438000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1675431840000</v>
+      </c>
+      <c r="B93">
+        <v>1494800</v>
+      </c>
+      <c r="C93">
+        <v>1290900</v>
+      </c>
+      <c r="D93">
+        <v>4000</v>
+      </c>
+      <c r="E93">
+        <v>23048730000</v>
+      </c>
+      <c r="F93">
+        <v>25343205000</v>
+      </c>
+      <c r="G93">
+        <v>140920000</v>
+      </c>
+      <c r="H93">
+        <v>2789700</v>
+      </c>
+      <c r="I93">
+        <v>48532855000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-02-03T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4962775211000</v>
+      </c>
+      <c r="L93">
+        <v>280419500</v>
+      </c>
+      <c r="M93">
+        <v>-203900</v>
+      </c>
+      <c r="N93">
+        <v>2294475000</v>
+      </c>
+      <c r="O93">
+        <v>-32664800</v>
+      </c>
+      <c r="P93">
+        <v>-525707963000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1675431960000</v>
+      </c>
+      <c r="B94">
+        <v>1874400</v>
+      </c>
+      <c r="C94">
+        <v>2533800</v>
+      </c>
+      <c r="D94">
+        <v>69200</v>
+      </c>
+      <c r="E94">
+        <v>33210753000</v>
+      </c>
+      <c r="F94">
+        <v>50152788000</v>
+      </c>
+      <c r="G94">
+        <v>1232483000</v>
+      </c>
+      <c r="H94">
+        <v>4477400</v>
+      </c>
+      <c r="I94">
+        <v>84596024000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-02-03T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>5047371235000</v>
+      </c>
+      <c r="L94">
+        <v>284896900</v>
+      </c>
+      <c r="M94">
+        <v>659400</v>
+      </c>
+      <c r="N94">
+        <v>16942035000</v>
+      </c>
+      <c r="O94">
+        <v>-32005400</v>
+      </c>
+      <c r="P94">
+        <v>-508765928000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1675432080000</v>
+      </c>
+      <c r="B95">
+        <v>1699500</v>
+      </c>
+      <c r="C95">
+        <v>2417700</v>
+      </c>
+      <c r="D95">
+        <v>800</v>
+      </c>
+      <c r="E95">
+        <v>36570514000</v>
+      </c>
+      <c r="F95">
+        <v>44697288000</v>
+      </c>
+      <c r="G95">
+        <v>9011000</v>
+      </c>
+      <c r="H95">
+        <v>4118000</v>
+      </c>
+      <c r="I95">
+        <v>81276813000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-02-03T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>5128648048000</v>
+      </c>
+      <c r="L95">
+        <v>289014900</v>
+      </c>
+      <c r="M95">
+        <v>718200</v>
+      </c>
+      <c r="N95">
+        <v>8126774000</v>
+      </c>
+      <c r="O95">
+        <v>-31287200</v>
+      </c>
+      <c r="P95">
+        <v>-500639154000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1675432200000</v>
+      </c>
+      <c r="B96">
+        <v>3579500</v>
+      </c>
+      <c r="C96">
+        <v>1232400</v>
+      </c>
+      <c r="D96">
+        <v>51400</v>
+      </c>
+      <c r="E96">
+        <v>68119448000</v>
+      </c>
+      <c r="F96">
+        <v>19487116000</v>
+      </c>
+      <c r="G96">
+        <v>886985000</v>
+      </c>
+      <c r="H96">
+        <v>4863300</v>
+      </c>
+      <c r="I96">
+        <v>88493549000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-02-03T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>5217141597000</v>
+      </c>
+      <c r="L96">
+        <v>293878200</v>
+      </c>
+      <c r="M96">
+        <v>-2347100</v>
+      </c>
+      <c r="N96">
+        <v>-48632332000</v>
+      </c>
+      <c r="O96">
+        <v>-33634300</v>
+      </c>
+      <c r="P96">
+        <v>-549271486000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1675432320000</v>
+      </c>
+      <c r="B97">
+        <v>3007900</v>
+      </c>
+      <c r="C97">
+        <v>1250100</v>
+      </c>
+      <c r="D97">
+        <v>15400</v>
+      </c>
+      <c r="E97">
+        <v>48187958000</v>
+      </c>
+      <c r="F97">
+        <v>21880125000</v>
+      </c>
+      <c r="G97">
+        <v>134134000</v>
+      </c>
+      <c r="H97">
+        <v>4273400</v>
+      </c>
+      <c r="I97">
+        <v>70202217000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-02-03T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>5287343814000</v>
+      </c>
+      <c r="L97">
+        <v>298151600</v>
+      </c>
+      <c r="M97">
+        <v>-1757800</v>
+      </c>
+      <c r="N97">
+        <v>-26307833000</v>
+      </c>
+      <c r="O97">
+        <v>-35392100</v>
+      </c>
+      <c r="P97">
+        <v>-575579319000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1675432440000</v>
+      </c>
+      <c r="B98">
+        <v>2458600</v>
+      </c>
+      <c r="C98">
+        <v>1315700</v>
+      </c>
+      <c r="D98">
+        <v>47400</v>
+      </c>
+      <c r="E98">
+        <v>39066585000</v>
+      </c>
+      <c r="F98">
+        <v>22835759000</v>
+      </c>
+      <c r="G98">
+        <v>724274000</v>
+      </c>
+      <c r="H98">
+        <v>3821700</v>
+      </c>
+      <c r="I98">
+        <v>62626618000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-02-03T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>5349970432000</v>
+      </c>
+      <c r="L98">
+        <v>301973300</v>
+      </c>
+      <c r="M98">
+        <v>-1142900</v>
+      </c>
+      <c r="N98">
+        <v>-16230826000</v>
+      </c>
+      <c r="O98">
+        <v>-36535000</v>
+      </c>
+      <c r="P98">
+        <v>-591810145000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1675432560000</v>
+      </c>
+      <c r="B99">
+        <v>2889100</v>
+      </c>
+      <c r="C99">
+        <v>1086400</v>
+      </c>
+      <c r="D99">
+        <v>3800</v>
+      </c>
+      <c r="E99">
+        <v>49591837000</v>
+      </c>
+      <c r="F99">
+        <v>20568528000</v>
+      </c>
+      <c r="G99">
+        <v>68475000</v>
+      </c>
+      <c r="H99">
+        <v>3979300</v>
+      </c>
+      <c r="I99">
+        <v>70228840000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-02-03T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>5420199272000</v>
+      </c>
+      <c r="L99">
+        <v>305952600</v>
+      </c>
+      <c r="M99">
+        <v>-1802700</v>
+      </c>
+      <c r="N99">
+        <v>-29023309000</v>
+      </c>
+      <c r="O99">
+        <v>-38337700</v>
+      </c>
+      <c r="P99">
+        <v>-620833454000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1675432680000</v>
+      </c>
+      <c r="B100">
+        <v>8581700</v>
+      </c>
+      <c r="C100">
+        <v>1190400</v>
+      </c>
+      <c r="D100">
+        <v>18800</v>
+      </c>
+      <c r="E100">
+        <v>148474838000</v>
+      </c>
+      <c r="F100">
+        <v>20697115000</v>
+      </c>
+      <c r="G100">
+        <v>236179000</v>
+      </c>
+      <c r="H100">
+        <v>9790900</v>
+      </c>
+      <c r="I100">
+        <v>169408132000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-02-03T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>5589607404000</v>
+      </c>
+      <c r="L100">
+        <v>315743500</v>
+      </c>
+      <c r="M100">
+        <v>-7391300</v>
+      </c>
+      <c r="N100">
+        <v>-127777723000</v>
+      </c>
+      <c r="O100">
+        <v>-45729000</v>
+      </c>
+      <c r="P100">
+        <v>-748611177000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1675432800000</v>
+      </c>
+      <c r="B101">
+        <v>10868300</v>
+      </c>
+      <c r="C101">
+        <v>2046400</v>
+      </c>
+      <c r="D101">
+        <v>34400</v>
+      </c>
+      <c r="E101">
+        <v>183537622000</v>
+      </c>
+      <c r="F101">
+        <v>36537283000</v>
+      </c>
+      <c r="G101">
+        <v>591659000</v>
+      </c>
+      <c r="H101">
+        <v>12949100</v>
+      </c>
+      <c r="I101">
+        <v>220666564000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-02-03T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>5810273968000</v>
+      </c>
+      <c r="L101">
+        <v>328692600</v>
+      </c>
+      <c r="M101">
+        <v>-8821900</v>
+      </c>
+      <c r="N101">
+        <v>-147000339000</v>
+      </c>
+      <c r="O101">
+        <v>-54550900</v>
+      </c>
+      <c r="P101">
+        <v>-895611516000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1675432920000</v>
+      </c>
+      <c r="B102">
+        <v>5399100</v>
+      </c>
+      <c r="C102">
+        <v>4304400</v>
+      </c>
+      <c r="D102">
+        <v>38900</v>
+      </c>
+      <c r="E102">
+        <v>79387788000</v>
+      </c>
+      <c r="F102">
+        <v>82504646000</v>
+      </c>
+      <c r="G102">
+        <v>536567000</v>
+      </c>
+      <c r="H102">
+        <v>9742400</v>
+      </c>
+      <c r="I102">
+        <v>162429001000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-02-03T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>5972702969000</v>
+      </c>
+      <c r="L102">
+        <v>338435000</v>
+      </c>
+      <c r="M102">
+        <v>-1094700</v>
+      </c>
+      <c r="N102">
+        <v>3116858000</v>
+      </c>
+      <c r="O102">
+        <v>-55645600</v>
+      </c>
+      <c r="P102">
+        <v>-892494658000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1675433040000</v>
+      </c>
+      <c r="B103">
+        <v>1267400</v>
+      </c>
+      <c r="C103">
+        <v>3447300</v>
+      </c>
+      <c r="D103">
+        <v>6900</v>
+      </c>
+      <c r="E103">
+        <v>22726329000</v>
+      </c>
+      <c r="F103">
+        <v>56094749000</v>
+      </c>
+      <c r="G103">
+        <v>203915000</v>
+      </c>
+      <c r="H103">
+        <v>4721600</v>
+      </c>
+      <c r="I103">
+        <v>79024993000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-02-03T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>6051727962000</v>
+      </c>
+      <c r="L103">
+        <v>343156600</v>
+      </c>
+      <c r="M103">
+        <v>2179900</v>
+      </c>
+      <c r="N103">
+        <v>33368420000</v>
+      </c>
+      <c r="O103">
+        <v>-53465700</v>
+      </c>
+      <c r="P103">
+        <v>-859126238000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1675433160000</v>
+      </c>
+      <c r="B104">
+        <v>3123800</v>
+      </c>
+      <c r="C104">
+        <v>1937300</v>
+      </c>
+      <c r="D104">
+        <v>22000</v>
+      </c>
+      <c r="E104">
+        <v>52108097000</v>
+      </c>
+      <c r="F104">
+        <v>33376594000</v>
+      </c>
+      <c r="G104">
+        <v>476950000</v>
+      </c>
+      <c r="H104">
+        <v>5083100</v>
+      </c>
+      <c r="I104">
+        <v>85961641000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-02-03T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>6137689603000</v>
+      </c>
+      <c r="L104">
+        <v>348239700</v>
+      </c>
+      <c r="M104">
+        <v>-1186500</v>
+      </c>
+      <c r="N104">
+        <v>-18731503000</v>
+      </c>
+      <c r="O104">
+        <v>-54652200</v>
+      </c>
+      <c r="P104">
+        <v>-877857741000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1675433280000</v>
+      </c>
+      <c r="B105">
+        <v>2010800</v>
+      </c>
+      <c r="C105">
+        <v>1515400</v>
+      </c>
+      <c r="D105">
+        <v>9300</v>
+      </c>
+      <c r="E105">
+        <v>32244915000</v>
+      </c>
+      <c r="F105">
+        <v>29846304000</v>
+      </c>
+      <c r="G105">
+        <v>323832000</v>
+      </c>
+      <c r="H105">
+        <v>3535500</v>
+      </c>
+      <c r="I105">
+        <v>62415051000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-02-03T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>6200104654000</v>
+      </c>
+      <c r="L105">
+        <v>351775200</v>
+      </c>
+      <c r="M105">
+        <v>-495400</v>
+      </c>
+      <c r="N105">
+        <v>-2398611000</v>
+      </c>
+      <c r="O105">
+        <v>-55147600</v>
+      </c>
+      <c r="P105">
+        <v>-880256352000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1675433400000</v>
+      </c>
+      <c r="B106">
+        <v>2328300</v>
+      </c>
+      <c r="C106">
+        <v>2051400</v>
+      </c>
+      <c r="D106">
+        <v>9600</v>
+      </c>
+      <c r="E106">
+        <v>40339594000</v>
+      </c>
+      <c r="F106">
+        <v>43684876000</v>
+      </c>
+      <c r="G106">
+        <v>71714000</v>
+      </c>
+      <c r="H106">
+        <v>4389300</v>
+      </c>
+      <c r="I106">
+        <v>84096184000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-02-03T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>6284200838000</v>
+      </c>
+      <c r="L106">
+        <v>356164500</v>
+      </c>
+      <c r="M106">
+        <v>-276900</v>
+      </c>
+      <c r="N106">
+        <v>3345282000</v>
+      </c>
+      <c r="O106">
+        <v>-55424500</v>
+      </c>
+      <c r="P106">
+        <v>-876911070000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1675433520000</v>
+      </c>
+      <c r="B107">
+        <v>2607000</v>
+      </c>
+      <c r="C107">
+        <v>2029100</v>
+      </c>
+      <c r="D107">
+        <v>56800</v>
+      </c>
+      <c r="E107">
+        <v>44178911000</v>
+      </c>
+      <c r="F107">
+        <v>40927970000</v>
+      </c>
+      <c r="G107">
+        <v>590009000</v>
+      </c>
+      <c r="H107">
+        <v>4692900</v>
+      </c>
+      <c r="I107">
+        <v>85696890000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-02-03T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>6369897728000</v>
+      </c>
+      <c r="L107">
+        <v>360857400</v>
+      </c>
+      <c r="M107">
+        <v>-577900</v>
+      </c>
+      <c r="N107">
+        <v>-3250941000</v>
+      </c>
+      <c r="O107">
+        <v>-56002400</v>
+      </c>
+      <c r="P107">
+        <v>-880162011000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1675433640000</v>
+      </c>
+      <c r="B108">
+        <v>1873800</v>
+      </c>
+      <c r="C108">
+        <v>3446400</v>
+      </c>
+      <c r="D108">
+        <v>60600</v>
+      </c>
+      <c r="E108">
+        <v>31703513000</v>
+      </c>
+      <c r="F108">
+        <v>68990009000</v>
+      </c>
+      <c r="G108">
+        <v>761877000</v>
+      </c>
+      <c r="H108">
+        <v>5380800</v>
+      </c>
+      <c r="I108">
+        <v>101455399000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-02-03T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>6471353127000</v>
+      </c>
+      <c r="L108">
+        <v>366238200</v>
+      </c>
+      <c r="M108">
+        <v>1572600</v>
+      </c>
+      <c r="N108">
+        <v>37286496000</v>
+      </c>
+      <c r="O108">
+        <v>-54429800</v>
+      </c>
+      <c r="P108">
+        <v>-842875515000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1675433760000</v>
+      </c>
+      <c r="B109">
+        <v>1619700</v>
+      </c>
+      <c r="C109">
+        <v>5280500</v>
+      </c>
+      <c r="D109">
+        <v>22200</v>
+      </c>
+      <c r="E109">
+        <v>29803401000</v>
+      </c>
+      <c r="F109">
+        <v>92680896000</v>
+      </c>
+      <c r="G109">
+        <v>444555000</v>
+      </c>
+      <c r="H109">
+        <v>6922400</v>
+      </c>
+      <c r="I109">
+        <v>122928852000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-02-03T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>6594281979000</v>
+      </c>
+      <c r="L109">
+        <v>373160600</v>
+      </c>
+      <c r="M109">
+        <v>3660800</v>
+      </c>
+      <c r="N109">
+        <v>62877495000</v>
+      </c>
+      <c r="O109">
+        <v>-50769000</v>
+      </c>
+      <c r="P109">
+        <v>-779998020000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1675433880000</v>
+      </c>
+      <c r="B110">
+        <v>1692800</v>
+      </c>
+      <c r="C110">
+        <v>7059300</v>
+      </c>
+      <c r="D110">
+        <v>63200</v>
+      </c>
+      <c r="E110">
+        <v>29343250000</v>
+      </c>
+      <c r="F110">
+        <v>124828796000</v>
+      </c>
+      <c r="G110">
+        <v>1227670000</v>
+      </c>
+      <c r="H110">
+        <v>8815300</v>
+      </c>
+      <c r="I110">
+        <v>155399716000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-02-03T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>6749681695000</v>
+      </c>
+      <c r="L110">
+        <v>381975900</v>
+      </c>
+      <c r="M110">
+        <v>5366500</v>
+      </c>
+      <c r="N110">
+        <v>95485546000</v>
+      </c>
+      <c r="O110">
+        <v>-45402500</v>
+      </c>
+      <c r="P110">
+        <v>-684512474000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1675434000000</v>
+      </c>
+      <c r="B111">
+        <v>1498000</v>
+      </c>
+      <c r="C111">
+        <v>5909300</v>
+      </c>
+      <c r="D111">
+        <v>19300</v>
+      </c>
+      <c r="E111">
+        <v>26530625000</v>
+      </c>
+      <c r="F111">
+        <v>101940365000</v>
+      </c>
+      <c r="G111">
+        <v>445710000</v>
+      </c>
+      <c r="H111">
+        <v>7426600</v>
+      </c>
+      <c r="I111">
+        <v>128916700000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-02-03T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>6878598395000</v>
+      </c>
+      <c r="L111">
+        <v>389402500</v>
+      </c>
+      <c r="M111">
+        <v>4411300</v>
+      </c>
+      <c r="N111">
+        <v>75409740000</v>
+      </c>
+      <c r="O111">
+        <v>-40991200</v>
+      </c>
+      <c r="P111">
+        <v>-609102734000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1675434120000</v>
+      </c>
+      <c r="B112">
+        <v>1759700</v>
+      </c>
+      <c r="C112">
+        <v>5051700</v>
+      </c>
+      <c r="D112">
+        <v>15200</v>
+      </c>
+      <c r="E112">
+        <v>35305381000</v>
+      </c>
+      <c r="F112">
+        <v>85668672000</v>
+      </c>
+      <c r="G112">
+        <v>166124000</v>
+      </c>
+      <c r="H112">
+        <v>6826600</v>
+      </c>
+      <c r="I112">
+        <v>121140177000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-02-03T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>6999738572000</v>
+      </c>
+      <c r="L112">
+        <v>396229100</v>
+      </c>
+      <c r="M112">
+        <v>3292000</v>
+      </c>
+      <c r="N112">
+        <v>50363291000</v>
+      </c>
+      <c r="O112">
+        <v>-37699200</v>
+      </c>
+      <c r="P112">
+        <v>-558739443000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1675434240000</v>
+      </c>
+      <c r="B113">
+        <v>4243800</v>
+      </c>
+      <c r="C113">
+        <v>3640600</v>
+      </c>
+      <c r="D113">
+        <v>202600</v>
+      </c>
+      <c r="E113">
+        <v>79042550000</v>
+      </c>
+      <c r="F113">
+        <v>61442839000</v>
+      </c>
+      <c r="G113">
+        <v>4467231000</v>
+      </c>
+      <c r="H113">
+        <v>8087000</v>
+      </c>
+      <c r="I113">
+        <v>144952620000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-02-03T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>7144691192000</v>
+      </c>
+      <c r="L113">
+        <v>404316100</v>
+      </c>
+      <c r="M113">
+        <v>-603200</v>
+      </c>
+      <c r="N113">
+        <v>-17599711000</v>
+      </c>
+      <c r="O113">
+        <v>-38302400</v>
+      </c>
+      <c r="P113">
+        <v>-576339154000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1675434360000</v>
+      </c>
+      <c r="B114">
+        <v>4041700</v>
+      </c>
+      <c r="C114">
+        <v>2225900</v>
+      </c>
+      <c r="D114">
+        <v>10000</v>
+      </c>
+      <c r="E114">
+        <v>73201089000</v>
+      </c>
+      <c r="F114">
+        <v>47098667000</v>
+      </c>
+      <c r="G114">
+        <v>336002000</v>
+      </c>
+      <c r="H114">
+        <v>6277600</v>
+      </c>
+      <c r="I114">
+        <v>120635758000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-02-03T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>7265326950000</v>
+      </c>
+      <c r="L114">
+        <v>410593700</v>
+      </c>
+      <c r="M114">
+        <v>-1815800</v>
+      </c>
+      <c r="N114">
+        <v>-26102422000</v>
+      </c>
+      <c r="O114">
+        <v>-40118200</v>
+      </c>
+      <c r="P114">
+        <v>-602441576000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1675434480000</v>
+      </c>
+      <c r="B115">
+        <v>4962500</v>
+      </c>
+      <c r="C115">
+        <v>2602100</v>
+      </c>
+      <c r="D115">
+        <v>30800</v>
+      </c>
+      <c r="E115">
+        <v>79173204000</v>
+      </c>
+      <c r="F115">
+        <v>53285841000</v>
+      </c>
+      <c r="G115">
+        <v>541179000</v>
+      </c>
+      <c r="H115">
+        <v>7595400</v>
+      </c>
+      <c r="I115">
+        <v>133000224000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-02-03T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>7398327174000</v>
+      </c>
+      <c r="L115">
+        <v>418189100</v>
+      </c>
+      <c r="M115">
+        <v>-2360400</v>
+      </c>
+      <c r="N115">
+        <v>-25887363000</v>
+      </c>
+      <c r="O115">
+        <v>-42478600</v>
+      </c>
+      <c r="P115">
+        <v>-628328939000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1675434600000</v>
+      </c>
+      <c r="B116">
+        <v>11900</v>
+      </c>
+      <c r="C116">
+        <v>78700</v>
+      </c>
+      <c r="D116">
+        <v>6600</v>
+      </c>
+      <c r="E116">
+        <v>199145000</v>
+      </c>
+      <c r="F116">
+        <v>1417858000</v>
+      </c>
+      <c r="G116">
+        <v>120340000</v>
+      </c>
+      <c r="H116">
+        <v>97200</v>
+      </c>
+      <c r="I116">
+        <v>1737343000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-02-03T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>7400064517000</v>
+      </c>
+      <c r="L116">
+        <v>418286300</v>
+      </c>
+      <c r="M116">
+        <v>66800</v>
+      </c>
+      <c r="N116">
+        <v>1218713000</v>
+      </c>
+      <c r="O116">
+        <v>-42411800</v>
+      </c>
+      <c r="P116">
+        <v>-627110226000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1675435440000</v>
+      </c>
+      <c r="B117">
         <v>13594500</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>4095000</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>50098500</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>386592591000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>83100644000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>1296852441000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>67788000</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>1766545676000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-02-03T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-02-03T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>9166610193000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>486074300</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>-9499500</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>-303491947000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>-51911300</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>-930602173000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230203/VNINDEX_HOSE_5p_20230203.xlsx
+++ b/name/vnindex/20230203/VNINDEX_HOSE_5p_20230203.xlsx
@@ -466,25 +466,25 @@
         <v>1685800</v>
       </c>
       <c r="E2">
-        <v>33495634000</v>
+        <v>28466867800</v>
       </c>
       <c r="F2">
-        <v>30675147000</v>
+        <v>27849175800</v>
       </c>
       <c r="G2">
-        <v>26427833000</v>
+        <v>25774187300</v>
       </c>
       <c r="H2">
         <v>5514500</v>
       </c>
       <c r="I2">
-        <v>90598614000</v>
+        <v>82090230900</v>
       </c>
       <c r="J2" t="str">
         <v>2023-02-03T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>90598614000</v>
+        <v>82090230900</v>
       </c>
       <c r="L2">
         <v>5514500</v>
@@ -493,13 +493,13 @@
         <v>-321300</v>
       </c>
       <c r="N2">
-        <v>-2820487000</v>
+        <v>-617692000</v>
       </c>
       <c r="O2">
         <v>-321300</v>
       </c>
       <c r="P2">
-        <v>-2820487000</v>
+        <v>-617692000</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>26900</v>
       </c>
       <c r="E3">
-        <v>20057478000</v>
+        <v>18628508400</v>
       </c>
       <c r="F3">
-        <v>25121161000</v>
+        <v>23982900400</v>
       </c>
       <c r="G3">
-        <v>261955000</v>
+        <v>258858100</v>
       </c>
       <c r="H3">
         <v>2887900</v>
       </c>
       <c r="I3">
-        <v>45440594000</v>
+        <v>42870266900</v>
       </c>
       <c r="J3" t="str">
         <v>2023-02-03T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>136039208000</v>
+        <v>124960497800</v>
       </c>
       <c r="L3">
         <v>8402400</v>
@@ -543,13 +543,13 @@
         <v>472800</v>
       </c>
       <c r="N3">
-        <v>5063683000</v>
+        <v>5354392000</v>
       </c>
       <c r="O3">
         <v>151500</v>
       </c>
       <c r="P3">
-        <v>2243196000</v>
+        <v>4736700000</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>4600</v>
       </c>
       <c r="E4">
-        <v>26464242000</v>
+        <v>24919388400</v>
       </c>
       <c r="F4">
-        <v>21202610000</v>
+        <v>20747165900</v>
       </c>
       <c r="G4">
         <v>53943000</v>
@@ -578,13 +578,13 @@
         <v>3099200</v>
       </c>
       <c r="I4">
-        <v>47720795000</v>
+        <v>45720497300</v>
       </c>
       <c r="J4" t="str">
         <v>2023-02-03T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>183760003000</v>
+        <v>170680995100</v>
       </c>
       <c r="L4">
         <v>11501600</v>
@@ -593,13 +593,13 @@
         <v>-493400</v>
       </c>
       <c r="N4">
-        <v>-5261632000</v>
+        <v>-4172222500</v>
       </c>
       <c r="O4">
         <v>-341900</v>
       </c>
       <c r="P4">
-        <v>-3018436000</v>
+        <v>564477500</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>63000</v>
       </c>
       <c r="E5">
-        <v>18140227000</v>
+        <v>17789278300</v>
       </c>
       <c r="F5">
-        <v>20805827000</v>
+        <v>19212422000</v>
       </c>
       <c r="G5">
         <v>820664000</v>
@@ -628,13 +628,13 @@
         <v>2371700</v>
       </c>
       <c r="I5">
-        <v>39766718000</v>
+        <v>37822364300</v>
       </c>
       <c r="J5" t="str">
         <v>2023-02-03T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>223526721000</v>
+        <v>208503359400</v>
       </c>
       <c r="L5">
         <v>13873300</v>
@@ -643,13 +643,13 @@
         <v>-24700</v>
       </c>
       <c r="N5">
-        <v>2665600000</v>
+        <v>1423143700</v>
       </c>
       <c r="O5">
         <v>-366600</v>
       </c>
       <c r="P5">
-        <v>-352836000</v>
+        <v>1987621200</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>2100</v>
       </c>
       <c r="E6">
-        <v>15757510000</v>
+        <v>14109459700</v>
       </c>
       <c r="F6">
-        <v>40051460000</v>
+        <v>35320395800</v>
       </c>
       <c r="G6">
         <v>24683000</v>
@@ -678,13 +678,13 @@
         <v>3433900</v>
       </c>
       <c r="I6">
-        <v>55833653000</v>
+        <v>49454538500</v>
       </c>
       <c r="J6" t="str">
         <v>2023-02-03T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>279360374000</v>
+        <v>257957897900</v>
       </c>
       <c r="L6">
         <v>17307200</v>
@@ -693,13 +693,13 @@
         <v>1525800</v>
       </c>
       <c r="N6">
-        <v>24293950000</v>
+        <v>21210936100</v>
       </c>
       <c r="O6">
         <v>1159200</v>
       </c>
       <c r="P6">
-        <v>23941114000</v>
+        <v>23198557300</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>55300</v>
       </c>
       <c r="E7">
-        <v>26790942000</v>
+        <v>24916818000</v>
       </c>
       <c r="F7">
-        <v>41290203000</v>
+        <v>40935657900</v>
       </c>
       <c r="G7">
-        <v>669592000</v>
+        <v>658802800</v>
       </c>
       <c r="H7">
         <v>3673200</v>
       </c>
       <c r="I7">
-        <v>68750737000</v>
+        <v>66511278700</v>
       </c>
       <c r="J7" t="str">
         <v>2023-02-03T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>348111111000</v>
+        <v>324469176600</v>
       </c>
       <c r="L7">
         <v>20980400</v>
@@ -743,13 +743,13 @@
         <v>995500</v>
       </c>
       <c r="N7">
-        <v>14499261000</v>
+        <v>16018839900</v>
       </c>
       <c r="O7">
         <v>2154700</v>
       </c>
       <c r="P7">
-        <v>38440375000</v>
+        <v>39217397200</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>1700</v>
       </c>
       <c r="E8">
-        <v>22231632000</v>
+        <v>21190773900</v>
       </c>
       <c r="F8">
-        <v>28961534000</v>
+        <v>28326569600</v>
       </c>
       <c r="G8">
         <v>20086000</v>
@@ -778,13 +778,13 @@
         <v>3047400</v>
       </c>
       <c r="I8">
-        <v>51213252000</v>
+        <v>49537429500</v>
       </c>
       <c r="J8" t="str">
         <v>2023-02-03T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>399324363000</v>
+        <v>374006606100</v>
       </c>
       <c r="L8">
         <v>24027800</v>
@@ -793,13 +793,13 @@
         <v>444500</v>
       </c>
       <c r="N8">
-        <v>6729902000</v>
+        <v>7135795700</v>
       </c>
       <c r="O8">
         <v>2599200</v>
       </c>
       <c r="P8">
-        <v>45170277000</v>
+        <v>46353192900</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>2800</v>
       </c>
       <c r="E9">
-        <v>20312261000</v>
+        <v>19395578600</v>
       </c>
       <c r="F9">
-        <v>27718292000</v>
+        <v>26373038600</v>
       </c>
       <c r="G9">
-        <v>66286000</v>
+        <v>10342000</v>
       </c>
       <c r="H9">
         <v>2722900</v>
       </c>
       <c r="I9">
-        <v>48096839000</v>
+        <v>45778959200</v>
       </c>
       <c r="J9" t="str">
         <v>2023-02-03T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>447421202000</v>
+        <v>419785565300</v>
       </c>
       <c r="L9">
         <v>26750700</v>
@@ -843,13 +843,13 @@
         <v>544700</v>
       </c>
       <c r="N9">
-        <v>7406031000</v>
+        <v>6977460000</v>
       </c>
       <c r="O9">
         <v>3143900</v>
       </c>
       <c r="P9">
-        <v>52576308000</v>
+        <v>53330652900</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>9800</v>
       </c>
       <c r="E10">
-        <v>14828823000</v>
+        <v>13883069700</v>
       </c>
       <c r="F10">
-        <v>26887181000</v>
+        <v>25693376000</v>
       </c>
       <c r="G10">
         <v>73386000</v>
@@ -878,13 +878,13 @@
         <v>2327200</v>
       </c>
       <c r="I10">
-        <v>41789390000</v>
+        <v>39649831700</v>
       </c>
       <c r="J10" t="str">
         <v>2023-02-03T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>489210592000</v>
+        <v>459435397000</v>
       </c>
       <c r="L10">
         <v>29077900</v>
@@ -893,13 +893,13 @@
         <v>485400</v>
       </c>
       <c r="N10">
-        <v>12058358000</v>
+        <v>11810306300</v>
       </c>
       <c r="O10">
         <v>3629300</v>
       </c>
       <c r="P10">
-        <v>64634666000</v>
+        <v>65140959200</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>2400</v>
       </c>
       <c r="E11">
-        <v>15274299000</v>
+        <v>14670403500</v>
       </c>
       <c r="F11">
-        <v>25239389000</v>
+        <v>24387841400</v>
       </c>
       <c r="G11">
         <v>24943000</v>
@@ -928,13 +928,13 @@
         <v>2268700</v>
       </c>
       <c r="I11">
-        <v>40538631000</v>
+        <v>39083187900</v>
       </c>
       <c r="J11" t="str">
         <v>2023-02-03T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>529749223000</v>
+        <v>498518584900</v>
       </c>
       <c r="L11">
         <v>31346600</v>
@@ -943,13 +943,13 @@
         <v>556100</v>
       </c>
       <c r="N11">
-        <v>9965090000</v>
+        <v>9717437900</v>
       </c>
       <c r="O11">
         <v>4185400</v>
       </c>
       <c r="P11">
-        <v>74599756000</v>
+        <v>74858397100</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>25200</v>
       </c>
       <c r="E12">
-        <v>33114891000</v>
+        <v>29941567500</v>
       </c>
       <c r="F12">
-        <v>21660249000</v>
+        <v>20225285400</v>
       </c>
       <c r="G12">
         <v>203891000</v>
@@ -978,13 +978,13 @@
         <v>3362200</v>
       </c>
       <c r="I12">
-        <v>54979031000</v>
+        <v>50370743900</v>
       </c>
       <c r="J12" t="str">
         <v>2023-02-03T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>584728254000</v>
+        <v>548889328800</v>
       </c>
       <c r="L12">
         <v>34708800</v>
@@ -993,13 +993,13 @@
         <v>-134800</v>
       </c>
       <c r="N12">
-        <v>-11454642000</v>
+        <v>-9716282100</v>
       </c>
       <c r="O12">
         <v>4050600</v>
       </c>
       <c r="P12">
-        <v>63145114000</v>
+        <v>65142115000</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>11100</v>
       </c>
       <c r="E13">
-        <v>25192956000</v>
+        <v>24268481400</v>
       </c>
       <c r="F13">
-        <v>23532378000</v>
+        <v>22103608200</v>
       </c>
       <c r="G13">
-        <v>159700000</v>
+        <v>111748000</v>
       </c>
       <c r="H13">
         <v>3092200</v>
       </c>
       <c r="I13">
-        <v>48885034000</v>
+        <v>46483837600</v>
       </c>
       <c r="J13" t="str">
         <v>2023-02-03T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>633613288000</v>
+        <v>595373166400</v>
       </c>
       <c r="L13">
         <v>37801000</v>
@@ -1043,13 +1043,13 @@
         <v>17100</v>
       </c>
       <c r="N13">
-        <v>-1660578000</v>
+        <v>-2164873200</v>
       </c>
       <c r="O13">
         <v>4067700</v>
       </c>
       <c r="P13">
-        <v>61484536000</v>
+        <v>62977241800</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>6600</v>
       </c>
       <c r="E14">
-        <v>22726522000</v>
+        <v>20978771500</v>
       </c>
       <c r="F14">
-        <v>25726840000</v>
+        <v>24523544500</v>
       </c>
       <c r="G14">
         <v>173930000</v>
@@ -1078,13 +1078,13 @@
         <v>3350400</v>
       </c>
       <c r="I14">
-        <v>48627292000</v>
+        <v>45676246000</v>
       </c>
       <c r="J14" t="str">
         <v>2023-02-03T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>682240580000</v>
+        <v>641049412400</v>
       </c>
       <c r="L14">
         <v>41151400</v>
@@ -1093,13 +1093,13 @@
         <v>601000</v>
       </c>
       <c r="N14">
-        <v>3000318000</v>
+        <v>3544773000</v>
       </c>
       <c r="O14">
         <v>4668700</v>
       </c>
       <c r="P14">
-        <v>64484854000</v>
+        <v>66522014800</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>16800</v>
       </c>
       <c r="E15">
-        <v>25489413000</v>
+        <v>24515188200</v>
       </c>
       <c r="F15">
-        <v>19742220000</v>
+        <v>18574189200</v>
       </c>
       <c r="G15">
         <v>336249000</v>
@@ -1128,13 +1128,13 @@
         <v>2753000</v>
       </c>
       <c r="I15">
-        <v>45567882000</v>
+        <v>43425626400</v>
       </c>
       <c r="J15" t="str">
         <v>2023-02-03T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>727808462000</v>
+        <v>684475038800</v>
       </c>
       <c r="L15">
         <v>43904400</v>
@@ -1143,13 +1143,13 @@
         <v>-214600</v>
       </c>
       <c r="N15">
-        <v>-5747193000</v>
+        <v>-5940999000</v>
       </c>
       <c r="O15">
         <v>4454100</v>
       </c>
       <c r="P15">
-        <v>58737661000</v>
+        <v>60581015800</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>24200</v>
       </c>
       <c r="E16">
-        <v>17135561000</v>
+        <v>16471425800</v>
       </c>
       <c r="F16">
-        <v>27703613000</v>
+        <v>26409408500</v>
       </c>
       <c r="G16">
         <v>714669000</v>
@@ -1178,13 +1178,13 @@
         <v>2713200</v>
       </c>
       <c r="I16">
-        <v>45553843000</v>
+        <v>43595503300</v>
       </c>
       <c r="J16" t="str">
         <v>2023-02-03T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>773362305000</v>
+        <v>728070542100</v>
       </c>
       <c r="L16">
         <v>46617600</v>
@@ -1193,13 +1193,13 @@
         <v>677800</v>
       </c>
       <c r="N16">
-        <v>10568052000</v>
+        <v>9937982700</v>
       </c>
       <c r="O16">
         <v>5131900</v>
       </c>
       <c r="P16">
-        <v>69305713000</v>
+        <v>70518998500</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>16800</v>
       </c>
       <c r="E17">
-        <v>23513139000</v>
+        <v>22620132900</v>
       </c>
       <c r="F17">
-        <v>28331111000</v>
+        <v>28093648700</v>
       </c>
       <c r="G17">
         <v>290270000</v>
@@ -1228,13 +1228,13 @@
         <v>3262400</v>
       </c>
       <c r="I17">
-        <v>52134520000</v>
+        <v>51004051600</v>
       </c>
       <c r="J17" t="str">
         <v>2023-02-03T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>825496825000</v>
+        <v>779074593700</v>
       </c>
       <c r="L17">
         <v>49880000</v>
@@ -1243,13 +1243,13 @@
         <v>436000</v>
       </c>
       <c r="N17">
-        <v>4817972000</v>
+        <v>5473515800</v>
       </c>
       <c r="O17">
         <v>5567900</v>
       </c>
       <c r="P17">
-        <v>74123685000</v>
+        <v>75992514300</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>1100</v>
       </c>
       <c r="E18">
-        <v>22885743000</v>
+        <v>18109324200</v>
       </c>
       <c r="F18">
-        <v>23132809000</v>
+        <v>21879163900</v>
       </c>
       <c r="G18">
         <v>67469000</v>
@@ -1278,13 +1278,13 @@
         <v>2715000</v>
       </c>
       <c r="I18">
-        <v>46086021000</v>
+        <v>40055957100</v>
       </c>
       <c r="J18" t="str">
         <v>2023-02-03T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>871582846000</v>
+        <v>819130550800</v>
       </c>
       <c r="L18">
         <v>52595000</v>
@@ -1293,13 +1293,13 @@
         <v>-6700</v>
       </c>
       <c r="N18">
-        <v>247066000</v>
+        <v>3769839700</v>
       </c>
       <c r="O18">
         <v>5561200</v>
       </c>
       <c r="P18">
-        <v>74370751000</v>
+        <v>79762354000</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>24200</v>
       </c>
       <c r="E19">
-        <v>35063528000</v>
+        <v>32072122400</v>
       </c>
       <c r="F19">
-        <v>23796263000</v>
+        <v>23613545900</v>
       </c>
       <c r="G19">
         <v>467181000</v>
@@ -1328,13 +1328,13 @@
         <v>3166400</v>
       </c>
       <c r="I19">
-        <v>59326972000</v>
+        <v>56152849300</v>
       </c>
       <c r="J19" t="str">
         <v>2023-02-03T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>930909818000</v>
+        <v>875283400100</v>
       </c>
       <c r="L19">
         <v>55761400</v>
@@ -1343,13 +1343,13 @@
         <v>-690000</v>
       </c>
       <c r="N19">
-        <v>-11267265000</v>
+        <v>-8458576500</v>
       </c>
       <c r="O19">
         <v>4871200</v>
       </c>
       <c r="P19">
-        <v>63103486000</v>
+        <v>71303777500</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>13400</v>
       </c>
       <c r="E20">
-        <v>31712251000</v>
+        <v>27915551500</v>
       </c>
       <c r="F20">
-        <v>23923408000</v>
+        <v>23379152800</v>
       </c>
       <c r="G20">
         <v>305040000</v>
@@ -1378,13 +1378,13 @@
         <v>3043000</v>
       </c>
       <c r="I20">
-        <v>55940699000</v>
+        <v>51599744300</v>
       </c>
       <c r="J20" t="str">
         <v>2023-02-03T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>986850517000</v>
+        <v>926883144400</v>
       </c>
       <c r="L20">
         <v>58804400</v>
@@ -1393,13 +1393,13 @@
         <v>-559000</v>
       </c>
       <c r="N20">
-        <v>-7788843000</v>
+        <v>-4536398700</v>
       </c>
       <c r="O20">
         <v>4312200</v>
       </c>
       <c r="P20">
-        <v>55314643000</v>
+        <v>66767378800</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>14100</v>
       </c>
       <c r="E21">
-        <v>40690461000</v>
+        <v>36251304600</v>
       </c>
       <c r="F21">
-        <v>15332159000</v>
+        <v>14988702800</v>
       </c>
       <c r="G21">
         <v>306628000</v>
@@ -1428,13 +1428,13 @@
         <v>2815200</v>
       </c>
       <c r="I21">
-        <v>56329248000</v>
+        <v>51546635400</v>
       </c>
       <c r="J21" t="str">
         <v>2023-02-03T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1043179765000</v>
+        <v>978429779800</v>
       </c>
       <c r="L21">
         <v>61619600</v>
@@ -1443,13 +1443,13 @@
         <v>-1243700</v>
       </c>
       <c r="N21">
-        <v>-25358302000</v>
+        <v>-21262601800</v>
       </c>
       <c r="O21">
         <v>3068500</v>
       </c>
       <c r="P21">
-        <v>29956341000</v>
+        <v>45504777000</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>12400</v>
       </c>
       <c r="E22">
-        <v>57351428000</v>
+        <v>51107977700</v>
       </c>
       <c r="F22">
-        <v>11481290000</v>
+        <v>10347824600</v>
       </c>
       <c r="G22">
         <v>163151000</v>
@@ -1478,13 +1478,13 @@
         <v>3666400</v>
       </c>
       <c r="I22">
-        <v>68995869000</v>
+        <v>61618953300</v>
       </c>
       <c r="J22" t="str">
         <v>2023-02-03T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1112175634000</v>
+        <v>1040048733100</v>
       </c>
       <c r="L22">
         <v>65286000</v>
@@ -1493,13 +1493,13 @@
         <v>-2535400</v>
       </c>
       <c r="N22">
-        <v>-45870138000</v>
+        <v>-40760153100</v>
       </c>
       <c r="O22">
         <v>533100</v>
       </c>
       <c r="P22">
-        <v>-15913797000</v>
+        <v>4744623900</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>18200</v>
       </c>
       <c r="E23">
-        <v>26340887000</v>
+        <v>24620808800</v>
       </c>
       <c r="F23">
-        <v>19256120000</v>
+        <v>17812365200</v>
       </c>
       <c r="G23">
-        <v>357555000</v>
+        <v>346466100</v>
       </c>
       <c r="H23">
         <v>2493100</v>
       </c>
       <c r="I23">
-        <v>45954562000</v>
+        <v>42779640100</v>
       </c>
       <c r="J23" t="str">
         <v>2023-02-03T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1158130196000</v>
+        <v>1082828373200</v>
       </c>
       <c r="L23">
         <v>67779100</v>
@@ -1543,13 +1543,13 @@
         <v>-485500</v>
       </c>
       <c r="N23">
-        <v>-7084767000</v>
+        <v>-6808443600</v>
       </c>
       <c r="O23">
         <v>47600</v>
       </c>
       <c r="P23">
-        <v>-22998564000</v>
+        <v>-2063819700</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>3600</v>
       </c>
       <c r="E24">
-        <v>38173567000</v>
+        <v>36889452400</v>
       </c>
       <c r="F24">
-        <v>19807132000</v>
+        <v>18696144100</v>
       </c>
       <c r="G24">
         <v>32075000</v>
@@ -1578,13 +1578,13 @@
         <v>3306000</v>
       </c>
       <c r="I24">
-        <v>58012774000</v>
+        <v>55617671500</v>
       </c>
       <c r="J24" t="str">
         <v>2023-02-03T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1216142970000</v>
+        <v>1138446044700</v>
       </c>
       <c r="L24">
         <v>71085100</v>
@@ -1593,13 +1593,13 @@
         <v>-1411200</v>
       </c>
       <c r="N24">
-        <v>-18366435000</v>
+        <v>-18193308300</v>
       </c>
       <c r="O24">
         <v>-1363600</v>
       </c>
       <c r="P24">
-        <v>-41364999000</v>
+        <v>-20257128000</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>400</v>
       </c>
       <c r="E25">
-        <v>19422808000</v>
+        <v>19126704400</v>
       </c>
       <c r="F25">
-        <v>22014312000</v>
+        <v>18886043400</v>
       </c>
       <c r="G25">
         <v>6479000</v>
@@ -1628,13 +1628,13 @@
         <v>2244500</v>
       </c>
       <c r="I25">
-        <v>41443599000</v>
+        <v>38019226800</v>
       </c>
       <c r="J25" t="str">
         <v>2023-02-03T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1257586569000</v>
+        <v>1176465271500</v>
       </c>
       <c r="L25">
         <v>73329600</v>
@@ -1643,13 +1643,13 @@
         <v>-194100</v>
       </c>
       <c r="N25">
-        <v>2591504000</v>
+        <v>-240661000</v>
       </c>
       <c r="O25">
         <v>-1557700</v>
       </c>
       <c r="P25">
-        <v>-38773495000</v>
+        <v>-20497789000</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>30800</v>
       </c>
       <c r="E26">
-        <v>23769855000</v>
+        <v>20682045900</v>
       </c>
       <c r="F26">
-        <v>56688828000</v>
+        <v>35085652800</v>
       </c>
       <c r="G26">
         <v>858555000</v>
@@ -1678,13 +1678,13 @@
         <v>3645500</v>
       </c>
       <c r="I26">
-        <v>81317238000</v>
+        <v>56626253700</v>
       </c>
       <c r="J26" t="str">
         <v>2023-02-03T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1338903807000</v>
+        <v>1233091525200</v>
       </c>
       <c r="L26">
         <v>76975100</v>
@@ -1693,13 +1693,13 @@
         <v>1304900</v>
       </c>
       <c r="N26">
-        <v>32918973000</v>
+        <v>14403606900</v>
       </c>
       <c r="O26">
         <v>-252800</v>
       </c>
       <c r="P26">
-        <v>-5854522000</v>
+        <v>-6094182100</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>3300</v>
       </c>
       <c r="E27">
-        <v>52660096000</v>
+        <v>35724248800</v>
       </c>
       <c r="F27">
-        <v>20375730000</v>
+        <v>19117689300</v>
       </c>
       <c r="G27">
         <v>84725000</v>
@@ -1728,13 +1728,13 @@
         <v>3156200</v>
       </c>
       <c r="I27">
-        <v>73120551000</v>
+        <v>54926663100</v>
       </c>
       <c r="J27" t="str">
         <v>2023-02-03T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1412024358000</v>
+        <v>1288018188300</v>
       </c>
       <c r="L27">
         <v>80131300</v>
@@ -1743,13 +1743,13 @@
         <v>-1241900</v>
       </c>
       <c r="N27">
-        <v>-32284366000</v>
+        <v>-16606559500</v>
       </c>
       <c r="O27">
         <v>-1494700</v>
       </c>
       <c r="P27">
-        <v>-38138888000</v>
+        <v>-22700741600</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>8400</v>
       </c>
       <c r="E28">
-        <v>15709482000</v>
+        <v>15660131400</v>
       </c>
       <c r="F28">
-        <v>16796299000</v>
+        <v>13851147100</v>
       </c>
       <c r="G28">
         <v>192814000</v>
@@ -1778,13 +1778,13 @@
         <v>1814700</v>
       </c>
       <c r="I28">
-        <v>32698595000</v>
+        <v>29704092500</v>
       </c>
       <c r="J28" t="str">
         <v>2023-02-03T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1444722953000</v>
+        <v>1317722280800</v>
       </c>
       <c r="L28">
         <v>81946000</v>
@@ -1793,13 +1793,13 @@
         <v>9100</v>
       </c>
       <c r="N28">
-        <v>1086817000</v>
+        <v>-1808984300</v>
       </c>
       <c r="O28">
         <v>-1485600</v>
       </c>
       <c r="P28">
-        <v>-37052071000</v>
+        <v>-24509725900</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>1600</v>
       </c>
       <c r="E29">
-        <v>13265529000</v>
+        <v>9810487500</v>
       </c>
       <c r="F29">
-        <v>25766572000</v>
+        <v>20157786400</v>
       </c>
       <c r="G29">
-        <v>56448000</v>
+        <v>2502000</v>
       </c>
       <c r="H29">
         <v>1921000</v>
       </c>
       <c r="I29">
-        <v>39088549000</v>
+        <v>29970775900</v>
       </c>
       <c r="J29" t="str">
         <v>2023-02-03T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1483811502000</v>
+        <v>1347693056700</v>
       </c>
       <c r="L29">
         <v>83867000</v>
@@ -1843,13 +1843,13 @@
         <v>482000</v>
       </c>
       <c r="N29">
-        <v>12501043000</v>
+        <v>10347298900</v>
       </c>
       <c r="O29">
         <v>-1003600</v>
       </c>
       <c r="P29">
-        <v>-24551028000</v>
+        <v>-14162427000</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>3000</v>
       </c>
       <c r="E30">
-        <v>50028497000</v>
+        <v>42656876000</v>
       </c>
       <c r="F30">
-        <v>23409022000</v>
+        <v>20608625200</v>
       </c>
       <c r="G30">
-        <v>91080000</v>
+        <v>32838300</v>
       </c>
       <c r="H30">
         <v>3348300</v>
       </c>
       <c r="I30">
-        <v>73528599000</v>
+        <v>63298339500</v>
       </c>
       <c r="J30" t="str">
         <v>2023-02-03T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1557340101000</v>
+        <v>1410991396200</v>
       </c>
       <c r="L30">
         <v>87215300</v>
@@ -1893,13 +1893,13 @@
         <v>-718500</v>
       </c>
       <c r="N30">
-        <v>-26619475000</v>
+        <v>-22048250800</v>
       </c>
       <c r="O30">
         <v>-1722100</v>
       </c>
       <c r="P30">
-        <v>-51170503000</v>
+        <v>-36210677800</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>2100</v>
       </c>
       <c r="E31">
-        <v>33781638000</v>
+        <v>30160662600</v>
       </c>
       <c r="F31">
-        <v>19872196000</v>
+        <v>15752020300</v>
       </c>
       <c r="G31">
-        <v>28377000</v>
+        <v>19885500</v>
       </c>
       <c r="H31">
         <v>2821800</v>
       </c>
       <c r="I31">
-        <v>53682211000</v>
+        <v>45932568400</v>
       </c>
       <c r="J31" t="str">
         <v>2023-02-03T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1611022312000</v>
+        <v>1456923964600</v>
       </c>
       <c r="L31">
         <v>90037100</v>
@@ -1943,13 +1943,13 @@
         <v>-331100</v>
       </c>
       <c r="N31">
-        <v>-13909442000</v>
+        <v>-14408642300</v>
       </c>
       <c r="O31">
         <v>-2053200</v>
       </c>
       <c r="P31">
-        <v>-65079945000</v>
+        <v>-50619320100</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>8100</v>
       </c>
       <c r="E32">
-        <v>13810173000</v>
+        <v>11000885100</v>
       </c>
       <c r="F32">
-        <v>29799722000</v>
+        <v>29126795600</v>
       </c>
       <c r="G32">
         <v>345053000</v>
@@ -1978,13 +1978,13 @@
         <v>2093400</v>
       </c>
       <c r="I32">
-        <v>43954948000</v>
+        <v>40472733700</v>
       </c>
       <c r="J32" t="str">
         <v>2023-02-03T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1654977260000</v>
+        <v>1497396698300</v>
       </c>
       <c r="L32">
         <v>92130500</v>
@@ -1993,13 +1993,13 @@
         <v>605300</v>
       </c>
       <c r="N32">
-        <v>15989549000</v>
+        <v>18125910500</v>
       </c>
       <c r="O32">
         <v>-1447900</v>
       </c>
       <c r="P32">
-        <v>-49090396000</v>
+        <v>-32493409600</v>
       </c>
     </row>
     <row r="33">
@@ -2016,25 +2016,25 @@
         <v>12800</v>
       </c>
       <c r="E33">
-        <v>26322133000</v>
+        <v>23295862300</v>
       </c>
       <c r="F33">
-        <v>18093063000</v>
+        <v>16464792900</v>
       </c>
       <c r="G33">
-        <v>363248000</v>
+        <v>235875500</v>
       </c>
       <c r="H33">
         <v>2229900</v>
       </c>
       <c r="I33">
-        <v>44778444000</v>
+        <v>39996530700</v>
       </c>
       <c r="J33" t="str">
         <v>2023-02-03T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1699755704000</v>
+        <v>1537393229000</v>
       </c>
       <c r="L33">
         <v>94360400</v>
@@ -2043,13 +2043,13 @@
         <v>-237900</v>
       </c>
       <c r="N33">
-        <v>-8229070000</v>
+        <v>-6831069400</v>
       </c>
       <c r="O33">
         <v>-1685800</v>
       </c>
       <c r="P33">
-        <v>-57319466000</v>
+        <v>-39324479000</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>26500</v>
       </c>
       <c r="E34">
-        <v>37500816000</v>
+        <v>35188131000</v>
       </c>
       <c r="F34">
-        <v>18325997000</v>
+        <v>16346278700</v>
       </c>
       <c r="G34">
         <v>242768000</v>
@@ -2078,13 +2078,13 @@
         <v>2766800</v>
       </c>
       <c r="I34">
-        <v>56069581000</v>
+        <v>51777177700</v>
       </c>
       <c r="J34" t="str">
         <v>2023-02-03T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1755825285000</v>
+        <v>1589170406700</v>
       </c>
       <c r="L34">
         <v>97127200</v>
@@ -2093,13 +2093,13 @@
         <v>-911300</v>
       </c>
       <c r="N34">
-        <v>-19174819000</v>
+        <v>-18841852300</v>
       </c>
       <c r="O34">
         <v>-2597100</v>
       </c>
       <c r="P34">
-        <v>-76494285000</v>
+        <v>-58166331300</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>9000</v>
       </c>
       <c r="E35">
-        <v>22149544000</v>
+        <v>21107986600</v>
       </c>
       <c r="F35">
-        <v>24389339000</v>
+        <v>17876258600</v>
       </c>
       <c r="G35">
-        <v>119865000</v>
+        <v>104880000</v>
       </c>
       <c r="H35">
         <v>2319400</v>
       </c>
       <c r="I35">
-        <v>46658748000</v>
+        <v>39089125200</v>
       </c>
       <c r="J35" t="str">
         <v>2023-02-03T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1802484033000</v>
+        <v>1628259531900</v>
       </c>
       <c r="L35">
         <v>99446600</v>
@@ -2143,13 +2143,13 @@
         <v>35000</v>
       </c>
       <c r="N35">
-        <v>2239795000</v>
+        <v>-3231728000</v>
       </c>
       <c r="O35">
         <v>-2562100</v>
       </c>
       <c r="P35">
-        <v>-74254490000</v>
+        <v>-61398059300</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>900</v>
       </c>
       <c r="E36">
-        <v>11613818000</v>
+        <v>10395637400</v>
       </c>
       <c r="F36">
-        <v>26763115000</v>
+        <v>17442445000</v>
       </c>
       <c r="G36">
         <v>33335000</v>
@@ -2178,13 +2178,13 @@
         <v>1847100</v>
       </c>
       <c r="I36">
-        <v>38410268000</v>
+        <v>27871417400</v>
       </c>
       <c r="J36" t="str">
         <v>2023-02-03T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1840894301000</v>
+        <v>1656130949300</v>
       </c>
       <c r="L36">
         <v>101293700</v>
@@ -2193,13 +2193,13 @@
         <v>437800</v>
       </c>
       <c r="N36">
-        <v>15149297000</v>
+        <v>7046807600</v>
       </c>
       <c r="O36">
         <v>-2124300</v>
       </c>
       <c r="P36">
-        <v>-59105193000</v>
+        <v>-54351251700</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>4000</v>
       </c>
       <c r="E37">
-        <v>16630975000</v>
+        <v>15668838100</v>
       </c>
       <c r="F37">
-        <v>20906967000</v>
+        <v>20365808700</v>
       </c>
       <c r="G37">
         <v>33472000</v>
@@ -2228,13 +2228,13 @@
         <v>2145100</v>
       </c>
       <c r="I37">
-        <v>37571414000</v>
+        <v>36068118800</v>
       </c>
       <c r="J37" t="str">
         <v>2023-02-03T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1878465715000</v>
+        <v>1692199068100</v>
       </c>
       <c r="L37">
         <v>103438800</v>
@@ -2243,13 +2243,13 @@
         <v>236700</v>
       </c>
       <c r="N37">
-        <v>4275992000</v>
+        <v>4696970600</v>
       </c>
       <c r="O37">
         <v>-1887600</v>
       </c>
       <c r="P37">
-        <v>-54829201000</v>
+        <v>-49654281100</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>500</v>
       </c>
       <c r="E38">
-        <v>16226379000</v>
+        <v>15921783900</v>
       </c>
       <c r="F38">
-        <v>20475997000</v>
+        <v>15414263800</v>
       </c>
       <c r="G38">
         <v>8025000</v>
@@ -2278,13 +2278,13 @@
         <v>1950500</v>
       </c>
       <c r="I38">
-        <v>36710401000</v>
+        <v>31344072700</v>
       </c>
       <c r="J38" t="str">
         <v>2023-02-03T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1915176116000</v>
+        <v>1723543140800</v>
       </c>
       <c r="L38">
         <v>105389300</v>
@@ -2293,13 +2293,13 @@
         <v>31800</v>
       </c>
       <c r="N38">
-        <v>4249618000</v>
+        <v>-507520100</v>
       </c>
       <c r="O38">
         <v>-1855800</v>
       </c>
       <c r="P38">
-        <v>-50579583000</v>
+        <v>-50161801200</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>12124409000</v>
+        <v>11187546800</v>
       </c>
       <c r="F39">
-        <v>17871604000</v>
+        <v>16332344800</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2328,13 +2328,13 @@
         <v>1947400</v>
       </c>
       <c r="I39">
-        <v>29996013000</v>
+        <v>27519891600</v>
       </c>
       <c r="J39" t="str">
         <v>2023-02-03T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1945172129000</v>
+        <v>1751063032400</v>
       </c>
       <c r="L39">
         <v>107336700</v>
@@ -2343,13 +2343,13 @@
         <v>516800</v>
       </c>
       <c r="N39">
-        <v>5747195000</v>
+        <v>5144798000</v>
       </c>
       <c r="O39">
         <v>-1339000</v>
       </c>
       <c r="P39">
-        <v>-44832388000</v>
+        <v>-45017003200</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>10700</v>
       </c>
       <c r="E40">
-        <v>15049647000</v>
+        <v>13847050800</v>
       </c>
       <c r="F40">
-        <v>32879893000</v>
+        <v>30070405300</v>
       </c>
       <c r="G40">
         <v>179735000</v>
@@ -2378,13 +2378,13 @@
         <v>3341100</v>
       </c>
       <c r="I40">
-        <v>48109275000</v>
+        <v>44097191100</v>
       </c>
       <c r="J40" t="str">
         <v>2023-02-03T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1993281404000</v>
+        <v>1795160223500</v>
       </c>
       <c r="L40">
         <v>110677800</v>
@@ -2393,13 +2393,13 @@
         <v>1469200</v>
       </c>
       <c r="N40">
-        <v>17830246000</v>
+        <v>16223354500</v>
       </c>
       <c r="O40">
         <v>130200</v>
       </c>
       <c r="P40">
-        <v>-27002142000</v>
+        <v>-28793648700</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>2900</v>
       </c>
       <c r="E41">
-        <v>13746626000</v>
+        <v>13446826100</v>
       </c>
       <c r="F41">
-        <v>47683529000</v>
+        <v>41248570400</v>
       </c>
       <c r="G41">
         <v>62079000</v>
@@ -2428,13 +2428,13 @@
         <v>3722300</v>
       </c>
       <c r="I41">
-        <v>61492234000</v>
+        <v>54757475500</v>
       </c>
       <c r="J41" t="str">
         <v>2023-02-03T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2054773638000</v>
+        <v>1849917699000</v>
       </c>
       <c r="L41">
         <v>114400100</v>
@@ -2443,13 +2443,13 @@
         <v>2107600</v>
       </c>
       <c r="N41">
-        <v>33936903000</v>
+        <v>27801744300</v>
       </c>
       <c r="O41">
         <v>2237800</v>
       </c>
       <c r="P41">
-        <v>6934761000</v>
+        <v>-991904400</v>
       </c>
     </row>
     <row r="42">
@@ -2466,25 +2466,25 @@
         <v>5600</v>
       </c>
       <c r="E42">
-        <v>18832337000</v>
+        <v>16427144600</v>
       </c>
       <c r="F42">
-        <v>56647891000</v>
+        <v>52305837400</v>
       </c>
       <c r="G42">
-        <v>86108000</v>
+        <v>79314800</v>
       </c>
       <c r="H42">
         <v>4892700</v>
       </c>
       <c r="I42">
-        <v>75566336000</v>
+        <v>68812296800</v>
       </c>
       <c r="J42" t="str">
         <v>2023-02-03T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2130339974000</v>
+        <v>1918729995800</v>
       </c>
       <c r="L42">
         <v>119292800</v>
@@ -2493,13 +2493,13 @@
         <v>2925700</v>
       </c>
       <c r="N42">
-        <v>37815554000</v>
+        <v>35878692800</v>
       </c>
       <c r="O42">
         <v>5163500</v>
       </c>
       <c r="P42">
-        <v>44750315000</v>
+        <v>34886788400</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>23200</v>
       </c>
       <c r="E43">
-        <v>31893329000</v>
+        <v>31024199000</v>
       </c>
       <c r="F43">
-        <v>84302541000</v>
+        <v>82201743900</v>
       </c>
       <c r="G43">
         <v>343556000</v>
@@ -2528,13 +2528,13 @@
         <v>6728700</v>
       </c>
       <c r="I43">
-        <v>116539426000</v>
+        <v>113569498900</v>
       </c>
       <c r="J43" t="str">
         <v>2023-02-03T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2246879400000</v>
+        <v>2032299494700</v>
       </c>
       <c r="L43">
         <v>126021500</v>
@@ -2543,13 +2543,13 @@
         <v>3204300</v>
       </c>
       <c r="N43">
-        <v>52409212000</v>
+        <v>51177544900</v>
       </c>
       <c r="O43">
         <v>8367800</v>
       </c>
       <c r="P43">
-        <v>97159527000</v>
+        <v>86064333300</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>19600</v>
       </c>
       <c r="E44">
-        <v>16384971000</v>
+        <v>12966492900</v>
       </c>
       <c r="F44">
-        <v>60341109000</v>
+        <v>53070486900</v>
       </c>
       <c r="G44">
         <v>346535000</v>
@@ -2578,13 +2578,13 @@
         <v>4653300</v>
       </c>
       <c r="I44">
-        <v>77072615000</v>
+        <v>66383514800</v>
       </c>
       <c r="J44" t="str">
         <v>2023-02-03T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2323952015000</v>
+        <v>2098683009500</v>
       </c>
       <c r="L44">
         <v>130674800</v>
@@ -2593,13 +2593,13 @@
         <v>2598500</v>
       </c>
       <c r="N44">
-        <v>43956138000</v>
+        <v>40103994000</v>
       </c>
       <c r="O44">
         <v>10966300</v>
       </c>
       <c r="P44">
-        <v>141115665000</v>
+        <v>126168327300</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>4800</v>
       </c>
       <c r="E45">
-        <v>23498541000</v>
+        <v>19884458700</v>
       </c>
       <c r="F45">
-        <v>48622632000</v>
+        <v>44086173000</v>
       </c>
       <c r="G45">
         <v>32423000</v>
@@ -2628,13 +2628,13 @@
         <v>4139900</v>
       </c>
       <c r="I45">
-        <v>72153596000</v>
+        <v>64003054700</v>
       </c>
       <c r="J45" t="str">
         <v>2023-02-03T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2396105611000</v>
+        <v>2162686064200</v>
       </c>
       <c r="L45">
         <v>134814700</v>
@@ -2643,13 +2643,13 @@
         <v>1625500</v>
       </c>
       <c r="N45">
-        <v>25124091000</v>
+        <v>24201714300</v>
       </c>
       <c r="O45">
         <v>12591800</v>
       </c>
       <c r="P45">
-        <v>166239756000</v>
+        <v>150370041600</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>10700</v>
       </c>
       <c r="E46">
-        <v>29402875000</v>
+        <v>27893585800</v>
       </c>
       <c r="F46">
-        <v>36240837000</v>
+        <v>31764118200</v>
       </c>
       <c r="G46">
         <v>201640000</v>
@@ -2678,13 +2678,13 @@
         <v>4104500</v>
       </c>
       <c r="I46">
-        <v>65845352000</v>
+        <v>59859344000</v>
       </c>
       <c r="J46" t="str">
         <v>2023-02-03T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2461950963000</v>
+        <v>2222545408200</v>
       </c>
       <c r="L46">
         <v>138919200</v>
@@ -2693,13 +2693,13 @@
         <v>831400</v>
       </c>
       <c r="N46">
-        <v>6837962000</v>
+        <v>3870532400</v>
       </c>
       <c r="O46">
         <v>13423200</v>
       </c>
       <c r="P46">
-        <v>173077718000</v>
+        <v>154240574000</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>18200</v>
       </c>
       <c r="E47">
-        <v>71931093000</v>
+        <v>68995131900</v>
       </c>
       <c r="F47">
-        <v>19171371000</v>
+        <v>18583859100</v>
       </c>
       <c r="G47">
         <v>447060000</v>
@@ -2728,13 +2728,13 @@
         <v>4470200</v>
       </c>
       <c r="I47">
-        <v>91549524000</v>
+        <v>88026051000</v>
       </c>
       <c r="J47" t="str">
         <v>2023-02-03T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2553500487000</v>
+        <v>2310571459200</v>
       </c>
       <c r="L47">
         <v>143389400</v>
@@ -2743,13 +2743,13 @@
         <v>-2053200</v>
       </c>
       <c r="N47">
-        <v>-52759722000</v>
+        <v>-50411272800</v>
       </c>
       <c r="O47">
         <v>11370000</v>
       </c>
       <c r="P47">
-        <v>120317996000</v>
+        <v>103829301200</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>10600</v>
       </c>
       <c r="E48">
-        <v>47047770000</v>
+        <v>44263956600</v>
       </c>
       <c r="F48">
-        <v>13427938000</v>
+        <v>12967798600</v>
       </c>
       <c r="G48">
         <v>92008000</v>
@@ -2778,13 +2778,13 @@
         <v>3293800</v>
       </c>
       <c r="I48">
-        <v>60567716000</v>
+        <v>57323763200</v>
       </c>
       <c r="J48" t="str">
         <v>2023-02-03T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2614068203000</v>
+        <v>2367895222400</v>
       </c>
       <c r="L48">
         <v>146683200</v>
@@ -2793,13 +2793,13 @@
         <v>-1917400</v>
       </c>
       <c r="N48">
-        <v>-33619832000</v>
+        <v>-31296158000</v>
       </c>
       <c r="O48">
         <v>9452600</v>
       </c>
       <c r="P48">
-        <v>86698164000</v>
+        <v>72533143200</v>
       </c>
     </row>
     <row r="49">
@@ -2816,25 +2816,25 @@
         <v>800</v>
       </c>
       <c r="E49">
-        <v>28387835000</v>
+        <v>25604321300</v>
       </c>
       <c r="F49">
-        <v>11707519000</v>
+        <v>10716311200</v>
       </c>
       <c r="G49">
-        <v>29760000</v>
+        <v>7682099.999999999</v>
       </c>
       <c r="H49">
         <v>2143700</v>
       </c>
       <c r="I49">
-        <v>40125114000</v>
+        <v>36328314600</v>
       </c>
       <c r="J49" t="str">
         <v>2023-02-03T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2654193317000</v>
+        <v>2404223537000</v>
       </c>
       <c r="L49">
         <v>148826900</v>
@@ -2843,13 +2843,13 @@
         <v>-831700</v>
       </c>
       <c r="N49">
-        <v>-16680316000</v>
+        <v>-14888010100</v>
       </c>
       <c r="O49">
         <v>8620900</v>
       </c>
       <c r="P49">
-        <v>70017848000</v>
+        <v>57645133100</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>1200</v>
       </c>
       <c r="E50">
-        <v>24256943000</v>
+        <v>22827274100</v>
       </c>
       <c r="F50">
-        <v>11998048000</v>
+        <v>11594651800</v>
       </c>
       <c r="G50">
         <v>63920000</v>
@@ -2878,13 +2878,13 @@
         <v>1928900</v>
       </c>
       <c r="I50">
-        <v>36318911000</v>
+        <v>34485845900</v>
       </c>
       <c r="J50" t="str">
         <v>2023-02-03T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2690512228000</v>
+        <v>2438709382900</v>
       </c>
       <c r="L50">
         <v>150755800</v>
@@ -2893,13 +2893,13 @@
         <v>-616900</v>
       </c>
       <c r="N50">
-        <v>-12258895000</v>
+        <v>-11232622300</v>
       </c>
       <c r="O50">
         <v>8004000</v>
       </c>
       <c r="P50">
-        <v>57758953000</v>
+        <v>46412510800</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>7200</v>
       </c>
       <c r="E51">
-        <v>22365496000</v>
+        <v>20881181800</v>
       </c>
       <c r="F51">
-        <v>18749029000</v>
+        <v>18404973400</v>
       </c>
       <c r="G51">
         <v>92483000</v>
@@ -2928,13 +2928,13 @@
         <v>2004500</v>
       </c>
       <c r="I51">
-        <v>41207008000</v>
+        <v>39378638200</v>
       </c>
       <c r="J51" t="str">
         <v>2023-02-03T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2731719236000</v>
+        <v>2478088021100</v>
       </c>
       <c r="L51">
         <v>152760300</v>
@@ -2943,13 +2943,13 @@
         <v>-290300</v>
       </c>
       <c r="N51">
-        <v>-3616467000</v>
+        <v>-2476208400</v>
       </c>
       <c r="O51">
         <v>7713700</v>
       </c>
       <c r="P51">
-        <v>54142486000</v>
+        <v>43936302400</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>2200</v>
       </c>
       <c r="E52">
-        <v>16599562000</v>
+        <v>14497166500</v>
       </c>
       <c r="F52">
-        <v>15159352000</v>
+        <v>14205207100</v>
       </c>
       <c r="G52">
         <v>59204000</v>
@@ -2978,13 +2978,13 @@
         <v>1709000</v>
       </c>
       <c r="I52">
-        <v>31818118000</v>
+        <v>28761577600</v>
       </c>
       <c r="J52" t="str">
         <v>2023-02-03T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2763537354000</v>
+        <v>2506849598700</v>
       </c>
       <c r="L52">
         <v>154469300</v>
@@ -2993,13 +2993,13 @@
         <v>-92000</v>
       </c>
       <c r="N52">
-        <v>-1440210000</v>
+        <v>-291959400</v>
       </c>
       <c r="O52">
         <v>7621700</v>
       </c>
       <c r="P52">
-        <v>52702276000</v>
+        <v>43644343000</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>400</v>
       </c>
       <c r="E53">
-        <v>22991393000</v>
+        <v>22105679600</v>
       </c>
       <c r="F53">
-        <v>16244981000</v>
+        <v>15797728700</v>
       </c>
       <c r="G53">
         <v>7420000</v>
@@ -3028,13 +3028,13 @@
         <v>1988600</v>
       </c>
       <c r="I53">
-        <v>39243794000</v>
+        <v>37910828300</v>
       </c>
       <c r="J53" t="str">
         <v>2023-02-03T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2802781148000</v>
+        <v>2544760427000</v>
       </c>
       <c r="L53">
         <v>156457900</v>
@@ -3043,13 +3043,13 @@
         <v>-383800</v>
       </c>
       <c r="N53">
-        <v>-6746412000</v>
+        <v>-6307950900</v>
       </c>
       <c r="O53">
         <v>7237900</v>
       </c>
       <c r="P53">
-        <v>45955864000</v>
+        <v>37336392100</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>600</v>
       </c>
       <c r="E54">
-        <v>16602489000</v>
+        <v>14033160900</v>
       </c>
       <c r="F54">
-        <v>13436228000</v>
+        <v>12523741400</v>
       </c>
       <c r="G54">
         <v>9675000</v>
@@ -3078,13 +3078,13 @@
         <v>1673000</v>
       </c>
       <c r="I54">
-        <v>30048392000</v>
+        <v>26566577300</v>
       </c>
       <c r="J54" t="str">
         <v>2023-02-03T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2832829540000</v>
+        <v>2571327004300</v>
       </c>
       <c r="L54">
         <v>158130900</v>
@@ -3093,13 +3093,13 @@
         <v>-276600</v>
       </c>
       <c r="N54">
-        <v>-3166261000</v>
+        <v>-1509419500</v>
       </c>
       <c r="O54">
         <v>6961300</v>
       </c>
       <c r="P54">
-        <v>42789603000</v>
+        <v>35826972600</v>
       </c>
     </row>
     <row r="55">
@@ -3116,25 +3116,25 @@
         <v>8900</v>
       </c>
       <c r="E55">
-        <v>16704786000</v>
+        <v>15270921300</v>
       </c>
       <c r="F55">
-        <v>10543791000</v>
+        <v>9770864700</v>
       </c>
       <c r="G55">
-        <v>207243000</v>
+        <v>48402000</v>
       </c>
       <c r="H55">
         <v>1434600</v>
       </c>
       <c r="I55">
-        <v>27455820000</v>
+        <v>25090188000</v>
       </c>
       <c r="J55" t="str">
         <v>2023-02-03T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2860285360000</v>
+        <v>2596417192300</v>
       </c>
       <c r="L55">
         <v>159565500</v>
@@ -3143,13 +3143,13 @@
         <v>-347900</v>
       </c>
       <c r="N55">
-        <v>-6160995000</v>
+        <v>-5500056600</v>
       </c>
       <c r="O55">
         <v>6613400</v>
       </c>
       <c r="P55">
-        <v>36628608000</v>
+        <v>30326916000</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>13000</v>
       </c>
       <c r="E56">
-        <v>15165717000</v>
+        <v>13396488000</v>
       </c>
       <c r="F56">
-        <v>11198513000</v>
+        <v>10933678100</v>
       </c>
       <c r="G56">
         <v>261950000</v>
@@ -3178,13 +3178,13 @@
         <v>1306600</v>
       </c>
       <c r="I56">
-        <v>26626180000</v>
+        <v>24592116100</v>
       </c>
       <c r="J56" t="str">
         <v>2023-02-03T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2886911540000</v>
+        <v>2621009308400</v>
       </c>
       <c r="L56">
         <v>160872100</v>
@@ -3193,13 +3193,13 @@
         <v>-71600</v>
       </c>
       <c r="N56">
-        <v>-3967204000</v>
+        <v>-2462809900</v>
       </c>
       <c r="O56">
         <v>6541800</v>
       </c>
       <c r="P56">
-        <v>32661404000</v>
+        <v>27864106100</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>8800</v>
       </c>
       <c r="E57">
-        <v>25135957000</v>
+        <v>22003892200</v>
       </c>
       <c r="F57">
-        <v>9658773000</v>
+        <v>9514017900</v>
       </c>
       <c r="G57">
         <v>212396000</v>
@@ -3228,13 +3228,13 @@
         <v>1884800</v>
       </c>
       <c r="I57">
-        <v>35007126000</v>
+        <v>31730306100</v>
       </c>
       <c r="J57" t="str">
         <v>2023-02-03T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2921918666000</v>
+        <v>2652739614500</v>
       </c>
       <c r="L57">
         <v>162756900</v>
@@ -3243,13 +3243,13 @@
         <v>-938400</v>
       </c>
       <c r="N57">
-        <v>-15477184000</v>
+        <v>-12489874300</v>
       </c>
       <c r="O57">
         <v>5603400</v>
       </c>
       <c r="P57">
-        <v>17184220000</v>
+        <v>15374231800</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>100</v>
       </c>
       <c r="E58">
-        <v>17779801000</v>
+        <v>14966117500</v>
       </c>
       <c r="F58">
-        <v>9667607000</v>
+        <v>9000974300</v>
       </c>
       <c r="G58">
         <v>1360000</v>
@@ -3278,13 +3278,13 @@
         <v>1574600</v>
       </c>
       <c r="I58">
-        <v>27448768000</v>
+        <v>23968451800</v>
       </c>
       <c r="J58" t="str">
         <v>2023-02-03T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2949367434000</v>
+        <v>2676708066300</v>
       </c>
       <c r="L58">
         <v>164331500</v>
@@ -3293,13 +3293,13 @@
         <v>-719900</v>
       </c>
       <c r="N58">
-        <v>-8112194000</v>
+        <v>-5965143200</v>
       </c>
       <c r="O58">
         <v>4883500</v>
       </c>
       <c r="P58">
-        <v>9072026000</v>
+        <v>9409088600</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>100</v>
       </c>
       <c r="E59">
-        <v>13169091000</v>
+        <v>11549811900</v>
       </c>
       <c r="F59">
-        <v>13957042000</v>
+        <v>11814486700</v>
       </c>
       <c r="G59">
         <v>529000</v>
@@ -3328,13 +3328,13 @@
         <v>1370000</v>
       </c>
       <c r="I59">
-        <v>27126662000</v>
+        <v>23364827600</v>
       </c>
       <c r="J59" t="str">
         <v>2023-02-03T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2976494096000</v>
+        <v>2700072893900</v>
       </c>
       <c r="L59">
         <v>165701500</v>
@@ -3343,13 +3343,13 @@
         <v>-78100</v>
       </c>
       <c r="N59">
-        <v>787951000</v>
+        <v>264674800</v>
       </c>
       <c r="O59">
         <v>4805400</v>
       </c>
       <c r="P59">
-        <v>9859977000</v>
+        <v>9673763400</v>
       </c>
     </row>
     <row r="60">
@@ -3366,25 +3366,25 @@
         <v>3600</v>
       </c>
       <c r="E60">
-        <v>11740777000</v>
+        <v>10971147400</v>
       </c>
       <c r="F60">
-        <v>16262741000</v>
+        <v>14823281900</v>
       </c>
       <c r="G60">
-        <v>71492000</v>
+        <v>18545000</v>
       </c>
       <c r="H60">
         <v>1522300</v>
       </c>
       <c r="I60">
-        <v>28075010000</v>
+        <v>25812974300</v>
       </c>
       <c r="J60" t="str">
         <v>2023-02-03T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>3004569106000</v>
+        <v>2725885868200</v>
       </c>
       <c r="L60">
         <v>167223800</v>
@@ -3393,13 +3393,13 @@
         <v>-77300</v>
       </c>
       <c r="N60">
-        <v>4521964000</v>
+        <v>3852134500</v>
       </c>
       <c r="O60">
         <v>4728100</v>
       </c>
       <c r="P60">
-        <v>14381941000</v>
+        <v>13525897900</v>
       </c>
     </row>
     <row r="61">
@@ -3416,25 +3416,25 @@
         <v>31000</v>
       </c>
       <c r="E61">
-        <v>15601440000</v>
+        <v>13240803000</v>
       </c>
       <c r="F61">
-        <v>11042775000</v>
+        <v>10629888300</v>
       </c>
       <c r="G61">
-        <v>685645000</v>
+        <v>680050600</v>
       </c>
       <c r="H61">
         <v>1321300</v>
       </c>
       <c r="I61">
-        <v>27329860000</v>
+        <v>24550741900</v>
       </c>
       <c r="J61" t="str">
         <v>2023-02-03T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>3031898966000</v>
+        <v>2750436610100</v>
       </c>
       <c r="L61">
         <v>168545100</v>
@@ -3443,13 +3443,13 @@
         <v>-158700</v>
       </c>
       <c r="N61">
-        <v>-4558665000</v>
+        <v>-2610914700</v>
       </c>
       <c r="O61">
         <v>4569400</v>
       </c>
       <c r="P61">
-        <v>9823276000</v>
+        <v>10914983200</v>
       </c>
     </row>
     <row r="62">
@@ -3466,25 +3466,25 @@
         <v>2000</v>
       </c>
       <c r="E62">
-        <v>14158459000</v>
+        <v>12318201100</v>
       </c>
       <c r="F62">
-        <v>9985407000</v>
+        <v>9526466400</v>
       </c>
       <c r="G62">
-        <v>49249000</v>
+        <v>1696600</v>
       </c>
       <c r="H62">
         <v>1214300</v>
       </c>
       <c r="I62">
-        <v>24193115000</v>
+        <v>21846364100</v>
       </c>
       <c r="J62" t="str">
         <v>2023-02-03T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>3056092081000</v>
+        <v>2772282974200</v>
       </c>
       <c r="L62">
         <v>169759400</v>
@@ -3493,13 +3493,13 @@
         <v>-320700</v>
       </c>
       <c r="N62">
-        <v>-4173052000</v>
+        <v>-2791734700</v>
       </c>
       <c r="O62">
         <v>4248700</v>
       </c>
       <c r="P62">
-        <v>5650224000</v>
+        <v>8123248500</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>12268046000</v>
+        <v>11324190800</v>
       </c>
       <c r="F63">
-        <v>6856520000</v>
+        <v>6086091200</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>997700</v>
       </c>
       <c r="I63">
-        <v>19124566000</v>
+        <v>17410282000</v>
       </c>
       <c r="J63" t="str">
         <v>2023-02-03T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>3075216647000</v>
+        <v>2789693256200</v>
       </c>
       <c r="L63">
         <v>170757100</v>
@@ -3543,13 +3543,13 @@
         <v>-354500</v>
       </c>
       <c r="N63">
-        <v>-5411526000</v>
+        <v>-5238099600</v>
       </c>
       <c r="O63">
         <v>3894200</v>
       </c>
       <c r="P63">
-        <v>238698000</v>
+        <v>2885148900</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>100</v>
       </c>
       <c r="E64">
-        <v>16805473000</v>
+        <v>16586492200</v>
       </c>
       <c r="F64">
-        <v>10975340000</v>
+        <v>9675541100</v>
       </c>
       <c r="G64">
         <v>1055000</v>
@@ -3578,13 +3578,13 @@
         <v>1378500</v>
       </c>
       <c r="I64">
-        <v>27781868000</v>
+        <v>26263088300</v>
       </c>
       <c r="J64" t="str">
         <v>2023-02-03T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>3102998515000</v>
+        <v>2815956344500</v>
       </c>
       <c r="L64">
         <v>172135600</v>
@@ -3593,13 +3593,13 @@
         <v>-234600</v>
       </c>
       <c r="N64">
-        <v>-5830133000</v>
+        <v>-6910951100</v>
       </c>
       <c r="O64">
         <v>3659600</v>
       </c>
       <c r="P64">
-        <v>-5591435000</v>
+        <v>-4025802200</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>12600</v>
       </c>
       <c r="E65">
-        <v>8843829000</v>
+        <v>8758514400</v>
       </c>
       <c r="F65">
-        <v>11460532000</v>
+        <v>10775218000</v>
       </c>
       <c r="G65">
         <v>260820000</v>
@@ -3628,13 +3628,13 @@
         <v>1173900</v>
       </c>
       <c r="I65">
-        <v>20565181000</v>
+        <v>19794552400</v>
       </c>
       <c r="J65" t="str">
         <v>2023-02-03T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>3123563696000</v>
+        <v>2835750896900</v>
       </c>
       <c r="L65">
         <v>173309500</v>
@@ -3643,13 +3643,13 @@
         <v>199900</v>
       </c>
       <c r="N65">
-        <v>2616703000</v>
+        <v>2016703600</v>
       </c>
       <c r="O65">
         <v>3859500</v>
       </c>
       <c r="P65">
-        <v>-2974732000</v>
+        <v>-2009098600</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>30700</v>
       </c>
       <c r="E66">
-        <v>14963629000</v>
+        <v>14372121100</v>
       </c>
       <c r="F66">
-        <v>10925229000</v>
+        <v>8543613000</v>
       </c>
       <c r="G66">
         <v>440545000</v>
@@ -3678,13 +3678,13 @@
         <v>1330600</v>
       </c>
       <c r="I66">
-        <v>26329403000</v>
+        <v>23356279100</v>
       </c>
       <c r="J66" t="str">
         <v>2023-02-03T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>3149893099000</v>
+        <v>2859107176000</v>
       </c>
       <c r="L66">
         <v>174640100</v>
@@ -3693,13 +3693,13 @@
         <v>-371100</v>
       </c>
       <c r="N66">
-        <v>-4038400000</v>
+        <v>-5828508100</v>
       </c>
       <c r="O66">
         <v>3488400</v>
       </c>
       <c r="P66">
-        <v>-7013132000</v>
+        <v>-7837606700</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>13000</v>
       </c>
       <c r="E67">
-        <v>12601967000</v>
+        <v>12292376900</v>
       </c>
       <c r="F67">
-        <v>9895294000</v>
+        <v>9131958100</v>
       </c>
       <c r="G67">
         <v>320695000</v>
@@ -3728,13 +3728,13 @@
         <v>1038100</v>
       </c>
       <c r="I67">
-        <v>22817956000</v>
+        <v>21745030000</v>
       </c>
       <c r="J67" t="str">
         <v>2023-02-03T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>3172711055000</v>
+        <v>2880852206000</v>
       </c>
       <c r="L67">
         <v>175678200</v>
@@ -3743,13 +3743,13 @@
         <v>-234900</v>
       </c>
       <c r="N67">
-        <v>-2706673000</v>
+        <v>-3160418800</v>
       </c>
       <c r="O67">
         <v>3253500</v>
       </c>
       <c r="P67">
-        <v>-9719805000</v>
+        <v>-10998025500</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>10459626000</v>
+        <v>10358327400</v>
       </c>
       <c r="F68">
-        <v>10313726000</v>
+        <v>9860080100</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3778,13 +3778,13 @@
         <v>1248700</v>
       </c>
       <c r="I68">
-        <v>20773352000</v>
+        <v>20218407500</v>
       </c>
       <c r="J68" t="str">
         <v>2023-02-03T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3193484407000</v>
+        <v>2901070613500</v>
       </c>
       <c r="L68">
         <v>176926900</v>
@@ -3793,13 +3793,13 @@
         <v>-221100</v>
       </c>
       <c r="N68">
-        <v>-145900000</v>
+        <v>-498247300</v>
       </c>
       <c r="O68">
         <v>3032400</v>
       </c>
       <c r="P68">
-        <v>-9865705000</v>
+        <v>-11496272800</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>4500</v>
       </c>
       <c r="E69">
-        <v>20726011000</v>
+        <v>19792845100</v>
       </c>
       <c r="F69">
-        <v>9738108000</v>
+        <v>9223922700</v>
       </c>
       <c r="G69">
         <v>168750000</v>
@@ -3828,13 +3828,13 @@
         <v>1640700</v>
       </c>
       <c r="I69">
-        <v>30632869000</v>
+        <v>29185517800</v>
       </c>
       <c r="J69" t="str">
         <v>2023-02-03T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3224117276000</v>
+        <v>2930256131300</v>
       </c>
       <c r="L69">
         <v>178567600</v>
@@ -3843,13 +3843,13 @@
         <v>-723800</v>
       </c>
       <c r="N69">
-        <v>-10987903000</v>
+        <v>-10568922400</v>
       </c>
       <c r="O69">
         <v>2308600</v>
       </c>
       <c r="P69">
-        <v>-20853608000</v>
+        <v>-22065195200</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-02-03T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3224177236000</v>
+        <v>2930316091300</v>
       </c>
       <c r="L70">
         <v>178572700</v>
@@ -3899,7 +3899,7 @@
         <v>2309700</v>
       </c>
       <c r="P70">
-        <v>-20876048000</v>
+        <v>-22087635200</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>269100</v>
       </c>
       <c r="E71">
-        <v>97227804000</v>
+        <v>93002034000</v>
       </c>
       <c r="F71">
-        <v>39678697000</v>
+        <v>37046032300</v>
       </c>
       <c r="G71">
-        <v>4357317000</v>
+        <v>4041033600</v>
       </c>
       <c r="H71">
         <v>8309500</v>
       </c>
       <c r="I71">
-        <v>141263818000</v>
+        <v>134089099900</v>
       </c>
       <c r="J71" t="str">
         <v>2023-02-03T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3365441054000</v>
+        <v>3064405191200</v>
       </c>
       <c r="L71">
         <v>186882200</v>
@@ -3943,13 +3943,13 @@
         <v>-3532400</v>
       </c>
       <c r="N71">
-        <v>-57549107000</v>
+        <v>-55956001700</v>
       </c>
       <c r="O71">
         <v>-1222700</v>
       </c>
       <c r="P71">
-        <v>-78425155000</v>
+        <v>-78043636900</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>11800</v>
       </c>
       <c r="E72">
-        <v>42289632000</v>
+        <v>38798726400</v>
       </c>
       <c r="F72">
-        <v>17977829000</v>
+        <v>16654753400</v>
       </c>
       <c r="G72">
         <v>209895000</v>
@@ -3978,13 +3978,13 @@
         <v>3970100</v>
       </c>
       <c r="I72">
-        <v>60477356000</v>
+        <v>55663374800</v>
       </c>
       <c r="J72" t="str">
         <v>2023-02-03T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3425918410000</v>
+        <v>3120068566000</v>
       </c>
       <c r="L72">
         <v>190852300</v>
@@ -3993,13 +3993,13 @@
         <v>-2288900</v>
       </c>
       <c r="N72">
-        <v>-24311803000</v>
+        <v>-22143973000</v>
       </c>
       <c r="O72">
         <v>-3511600</v>
       </c>
       <c r="P72">
-        <v>-102736958000</v>
+        <v>-100187609900</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>20200</v>
       </c>
       <c r="E73">
-        <v>58950242000</v>
+        <v>57557636000</v>
       </c>
       <c r="F73">
-        <v>15794387000</v>
+        <v>14742639800</v>
       </c>
       <c r="G73">
         <v>192948000</v>
@@ -4028,13 +4028,13 @@
         <v>5592000</v>
       </c>
       <c r="I73">
-        <v>74937577000</v>
+        <v>72493223800</v>
       </c>
       <c r="J73" t="str">
         <v>2023-02-03T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3500855987000</v>
+        <v>3192561789800</v>
       </c>
       <c r="L73">
         <v>196444300</v>
@@ -4043,13 +4043,13 @@
         <v>-3426400</v>
       </c>
       <c r="N73">
-        <v>-43155855000</v>
+        <v>-42814996200</v>
       </c>
       <c r="O73">
         <v>-6938000</v>
       </c>
       <c r="P73">
-        <v>-145892813000</v>
+        <v>-143002606100</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>5100</v>
       </c>
       <c r="E74">
-        <v>41536798000</v>
+        <v>40561873900</v>
       </c>
       <c r="F74">
-        <v>20162685000</v>
+        <v>18582466800</v>
       </c>
       <c r="G74">
-        <v>153293000</v>
+        <v>150296000</v>
       </c>
       <c r="H74">
         <v>3447300</v>
       </c>
       <c r="I74">
-        <v>61852776000</v>
+        <v>59294636700</v>
       </c>
       <c r="J74" t="str">
         <v>2023-02-03T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3562708763000</v>
+        <v>3251856426500</v>
       </c>
       <c r="L74">
         <v>199891600</v>
@@ -4093,13 +4093,13 @@
         <v>-1339400</v>
       </c>
       <c r="N74">
-        <v>-21374113000</v>
+        <v>-21979407100</v>
       </c>
       <c r="O74">
         <v>-8277400</v>
       </c>
       <c r="P74">
-        <v>-167266926000</v>
+        <v>-164982013200</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>5600</v>
       </c>
       <c r="E75">
-        <v>44045290000</v>
+        <v>38762078500</v>
       </c>
       <c r="F75">
-        <v>10588086000</v>
+        <v>10126348200</v>
       </c>
       <c r="G75">
-        <v>82420000</v>
+        <v>53948500</v>
       </c>
       <c r="H75">
         <v>2914200</v>
       </c>
       <c r="I75">
-        <v>54715796000</v>
+        <v>48942375200</v>
       </c>
       <c r="J75" t="str">
         <v>2023-02-03T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3617424559000</v>
+        <v>3300798801700</v>
       </c>
       <c r="L75">
         <v>202805800</v>
@@ -4143,13 +4143,13 @@
         <v>-1564200</v>
       </c>
       <c r="N75">
-        <v>-33457204000</v>
+        <v>-28635730300</v>
       </c>
       <c r="O75">
         <v>-9841600</v>
       </c>
       <c r="P75">
-        <v>-200724130000</v>
+        <v>-193617743500</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>19400</v>
       </c>
       <c r="E76">
-        <v>34496022000</v>
+        <v>33387132000</v>
       </c>
       <c r="F76">
-        <v>42994719000</v>
+        <v>39070746900</v>
       </c>
       <c r="G76">
         <v>375803000</v>
@@ -4178,13 +4178,13 @@
         <v>3963800</v>
       </c>
       <c r="I76">
-        <v>77866544000</v>
+        <v>72833681900</v>
       </c>
       <c r="J76" t="str">
         <v>2023-02-03T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3695291103000</v>
+        <v>3373632483600</v>
       </c>
       <c r="L76">
         <v>206769600</v>
@@ -4193,13 +4193,13 @@
         <v>-20000</v>
       </c>
       <c r="N76">
-        <v>8498697000</v>
+        <v>5683614900</v>
       </c>
       <c r="O76">
         <v>-9861600</v>
       </c>
       <c r="P76">
-        <v>-192225433000</v>
+        <v>-187934128600</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>6800</v>
       </c>
       <c r="E77">
-        <v>30227090000</v>
+        <v>29904113300</v>
       </c>
       <c r="F77">
-        <v>26994075000</v>
+        <v>23323749000</v>
       </c>
       <c r="G77">
-        <v>260134000</v>
+        <v>49145200</v>
       </c>
       <c r="H77">
         <v>3361400</v>
       </c>
       <c r="I77">
-        <v>57481299000</v>
+        <v>53277007500</v>
       </c>
       <c r="J77" t="str">
         <v>2023-02-03T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3752772402000</v>
+        <v>3426909491100</v>
       </c>
       <c r="L77">
         <v>210131000</v>
@@ -4243,13 +4243,13 @@
         <v>-421800</v>
       </c>
       <c r="N77">
-        <v>-3233015000</v>
+        <v>-6580364300</v>
       </c>
       <c r="O77">
         <v>-10283400</v>
       </c>
       <c r="P77">
-        <v>-195458448000</v>
+        <v>-194514492900</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>16600</v>
       </c>
       <c r="E78">
-        <v>31352003000</v>
+        <v>29941415000</v>
       </c>
       <c r="F78">
-        <v>24016268000</v>
+        <v>19733555000</v>
       </c>
       <c r="G78">
         <v>541140000</v>
@@ -4278,13 +4278,13 @@
         <v>2990500</v>
       </c>
       <c r="I78">
-        <v>55909411000</v>
+        <v>50216110000</v>
       </c>
       <c r="J78" t="str">
         <v>2023-02-03T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3808681813000</v>
+        <v>3477125601100</v>
       </c>
       <c r="L78">
         <v>213121500</v>
@@ -4293,13 +4293,13 @@
         <v>-590900</v>
       </c>
       <c r="N78">
-        <v>-7335735000</v>
+        <v>-10207860000</v>
       </c>
       <c r="O78">
         <v>-10874300</v>
       </c>
       <c r="P78">
-        <v>-202794183000</v>
+        <v>-204722352900</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>16700</v>
       </c>
       <c r="E79">
-        <v>31417687000</v>
+        <v>29856949300</v>
       </c>
       <c r="F79">
-        <v>22109322000</v>
+        <v>20378554500</v>
       </c>
       <c r="G79">
-        <v>251781000</v>
+        <v>157875000</v>
       </c>
       <c r="H79">
         <v>2996100</v>
       </c>
       <c r="I79">
-        <v>53778790000</v>
+        <v>50393378800</v>
       </c>
       <c r="J79" t="str">
         <v>2023-02-03T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3862460603000</v>
+        <v>3527518979900</v>
       </c>
       <c r="L79">
         <v>216117600</v>
@@ -4343,13 +4343,13 @@
         <v>-476600</v>
       </c>
       <c r="N79">
-        <v>-9308365000</v>
+        <v>-9478394800</v>
       </c>
       <c r="O79">
         <v>-11350900</v>
       </c>
       <c r="P79">
-        <v>-212102548000</v>
+        <v>-214200747700</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>26600</v>
       </c>
       <c r="E80">
-        <v>32280570000</v>
+        <v>30826825200</v>
       </c>
       <c r="F80">
-        <v>33774378000</v>
+        <v>31385369400</v>
       </c>
       <c r="G80">
         <v>751255000</v>
@@ -4378,13 +4378,13 @@
         <v>3801900</v>
       </c>
       <c r="I80">
-        <v>66806203000</v>
+        <v>62963449600</v>
       </c>
       <c r="J80" t="str">
         <v>2023-02-03T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3929266806000</v>
+        <v>3590482429500</v>
       </c>
       <c r="L80">
         <v>219919500</v>
@@ -4393,13 +4393,13 @@
         <v>191500</v>
       </c>
       <c r="N80">
-        <v>1493808000</v>
+        <v>558544200</v>
       </c>
       <c r="O80">
         <v>-11159400</v>
       </c>
       <c r="P80">
-        <v>-210608740000</v>
+        <v>-213642203500</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>7800</v>
       </c>
       <c r="E81">
-        <v>22616098000</v>
+        <v>22128386200</v>
       </c>
       <c r="F81">
-        <v>24713353000</v>
+        <v>23054513500</v>
       </c>
       <c r="G81">
         <v>214720000</v>
@@ -4428,13 +4428,13 @@
         <v>2831700</v>
       </c>
       <c r="I81">
-        <v>47544171000</v>
+        <v>45397619700</v>
       </c>
       <c r="J81" t="str">
         <v>2023-02-03T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3976810977000</v>
+        <v>3635880049200</v>
       </c>
       <c r="L81">
         <v>222751200</v>
@@ -4443,13 +4443,13 @@
         <v>-241300</v>
       </c>
       <c r="N81">
-        <v>2097255000</v>
+        <v>926127300</v>
       </c>
       <c r="O81">
         <v>-11400700</v>
       </c>
       <c r="P81">
-        <v>-208511485000</v>
+        <v>-212716076200</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>20900</v>
       </c>
       <c r="E82">
-        <v>32313190000</v>
+        <v>31700303500</v>
       </c>
       <c r="F82">
-        <v>18909304000</v>
+        <v>17368146700</v>
       </c>
       <c r="G82">
-        <v>312300000</v>
+        <v>300811500</v>
       </c>
       <c r="H82">
         <v>2837200</v>
       </c>
       <c r="I82">
-        <v>51534794000</v>
+        <v>49369261700</v>
       </c>
       <c r="J82" t="str">
         <v>2023-02-03T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>4028345771000</v>
+        <v>3685249310900</v>
       </c>
       <c r="L82">
         <v>225588400</v>
@@ -4493,13 +4493,13 @@
         <v>-869900</v>
       </c>
       <c r="N82">
-        <v>-13403886000</v>
+        <v>-14332156800</v>
       </c>
       <c r="O82">
         <v>-12270600</v>
       </c>
       <c r="P82">
-        <v>-221915371000</v>
+        <v>-227048233000</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>42200</v>
       </c>
       <c r="E83">
-        <v>120457275000</v>
+        <v>103545803400</v>
       </c>
       <c r="F83">
-        <v>22857426000</v>
+        <v>19464921900</v>
       </c>
       <c r="G83">
-        <v>892041000</v>
+        <v>809323800</v>
       </c>
       <c r="H83">
         <v>8096600</v>
       </c>
       <c r="I83">
-        <v>144206742000</v>
+        <v>123820049100</v>
       </c>
       <c r="J83" t="str">
         <v>2023-02-03T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>4172552513000</v>
+        <v>3809069360000</v>
       </c>
       <c r="L83">
         <v>233685000</v>
@@ -4543,13 +4543,13 @@
         <v>-5394000</v>
       </c>
       <c r="N83">
-        <v>-97599849000</v>
+        <v>-84080881500</v>
       </c>
       <c r="O83">
         <v>-17664600</v>
       </c>
       <c r="P83">
-        <v>-319515220000</v>
+        <v>-311129114500</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>28300</v>
       </c>
       <c r="E84">
-        <v>112645959000</v>
+        <v>98023895700</v>
       </c>
       <c r="F84">
-        <v>17776032000</v>
+        <v>15250360200</v>
       </c>
       <c r="G84">
-        <v>677957000</v>
+        <v>668366600</v>
       </c>
       <c r="H84">
         <v>8106000</v>
       </c>
       <c r="I84">
-        <v>131099948000</v>
+        <v>113942622500</v>
       </c>
       <c r="J84" t="str">
         <v>2023-02-03T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4303652461000</v>
+        <v>3923011982500</v>
       </c>
       <c r="L84">
         <v>241791000</v>
@@ -4593,13 +4593,13 @@
         <v>-6189300</v>
       </c>
       <c r="N84">
-        <v>-94869927000</v>
+        <v>-82773535500</v>
       </c>
       <c r="O84">
         <v>-23853900</v>
       </c>
       <c r="P84">
-        <v>-414385147000</v>
+        <v>-393902650000</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>67200</v>
       </c>
       <c r="E85">
-        <v>62392604000</v>
+        <v>57824976200</v>
       </c>
       <c r="F85">
-        <v>28759569000</v>
+        <v>26570760000</v>
       </c>
       <c r="G85">
         <v>908107000</v>
@@ -4628,13 +4628,13 @@
         <v>5309500</v>
       </c>
       <c r="I85">
-        <v>92060280000</v>
+        <v>85303843200</v>
       </c>
       <c r="J85" t="str">
         <v>2023-02-03T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4395712741000</v>
+        <v>4008315825700</v>
       </c>
       <c r="L85">
         <v>247100500</v>
@@ -4643,13 +4643,13 @@
         <v>-2314500</v>
       </c>
       <c r="N85">
-        <v>-33633035000</v>
+        <v>-31254216200</v>
       </c>
       <c r="O85">
         <v>-26168400</v>
       </c>
       <c r="P85">
-        <v>-448018182000</v>
+        <v>-425156866200</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>1300</v>
       </c>
       <c r="E86">
-        <v>46710128000</v>
+        <v>40754889200</v>
       </c>
       <c r="F86">
-        <v>18519082000</v>
+        <v>17007694900</v>
       </c>
       <c r="G86">
         <v>39954000</v>
@@ -4678,13 +4678,13 @@
         <v>3827500</v>
       </c>
       <c r="I86">
-        <v>65269164000</v>
+        <v>57802538100</v>
       </c>
       <c r="J86" t="str">
         <v>2023-02-03T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4460981905000</v>
+        <v>4066118363800</v>
       </c>
       <c r="L86">
         <v>250928000</v>
@@ -4693,13 +4693,13 @@
         <v>-1776000</v>
       </c>
       <c r="N86">
-        <v>-28191046000</v>
+        <v>-23747194300</v>
       </c>
       <c r="O86">
         <v>-27944400</v>
       </c>
       <c r="P86">
-        <v>-476209228000</v>
+        <v>-448904060500</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>12100</v>
       </c>
       <c r="E87">
-        <v>58123714000</v>
+        <v>49721724400</v>
       </c>
       <c r="F87">
-        <v>19360744000</v>
+        <v>18824880400</v>
       </c>
       <c r="G87">
         <v>65159000</v>
@@ -4728,13 +4728,13 @@
         <v>4486800</v>
       </c>
       <c r="I87">
-        <v>77549617000</v>
+        <v>68611763800</v>
       </c>
       <c r="J87" t="str">
         <v>2023-02-03T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4538531522000</v>
+        <v>4134730127600</v>
       </c>
       <c r="L87">
         <v>255414800</v>
@@ -4743,13 +4743,13 @@
         <v>-2230300</v>
       </c>
       <c r="N87">
-        <v>-38762970000</v>
+        <v>-30896844000</v>
       </c>
       <c r="O87">
         <v>-30174700</v>
       </c>
       <c r="P87">
-        <v>-514972198000</v>
+        <v>-479800904500</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>17600</v>
       </c>
       <c r="E88">
-        <v>61912598000</v>
+        <v>59310103100</v>
       </c>
       <c r="F88">
-        <v>23159463000</v>
+        <v>22355168100</v>
       </c>
       <c r="G88">
         <v>313738000</v>
@@ -4778,13 +4778,13 @@
         <v>5503100</v>
       </c>
       <c r="I88">
-        <v>85385799000</v>
+        <v>81979009200</v>
       </c>
       <c r="J88" t="str">
         <v>2023-02-03T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4623917321000</v>
+        <v>4216709136800</v>
       </c>
       <c r="L88">
         <v>260917900</v>
@@ -4793,13 +4793,13 @@
         <v>-2791500</v>
       </c>
       <c r="N88">
-        <v>-38753135000</v>
+        <v>-36954935000</v>
       </c>
       <c r="O88">
         <v>-32966200</v>
       </c>
       <c r="P88">
-        <v>-553725333000</v>
+        <v>-516755839500</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>60100</v>
       </c>
       <c r="E89">
-        <v>40922751000</v>
+        <v>39915858900</v>
       </c>
       <c r="F89">
-        <v>27915054000</v>
+        <v>27619250100</v>
       </c>
       <c r="G89">
         <v>612144000</v>
@@ -4828,13 +4828,13 @@
         <v>3966800</v>
       </c>
       <c r="I89">
-        <v>69449949000</v>
+        <v>68147253000</v>
       </c>
       <c r="J89" t="str">
         <v>2023-02-03T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4693367270000</v>
+        <v>4284856389800</v>
       </c>
       <c r="L89">
         <v>264884700</v>
@@ -4843,13 +4843,13 @@
         <v>-724100</v>
       </c>
       <c r="N89">
-        <v>-13007697000</v>
+        <v>-12296608800</v>
       </c>
       <c r="O89">
         <v>-33690300</v>
       </c>
       <c r="P89">
-        <v>-566733030000</v>
+        <v>-529052448300</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>1000</v>
       </c>
       <c r="E90">
-        <v>30387715000</v>
+        <v>19893419800</v>
       </c>
       <c r="F90">
-        <v>50321276000</v>
+        <v>48893505200</v>
       </c>
       <c r="G90">
         <v>22680000</v>
@@ -4878,13 +4878,13 @@
         <v>3956200</v>
       </c>
       <c r="I90">
-        <v>80731671000</v>
+        <v>68809605000</v>
       </c>
       <c r="J90" t="str">
         <v>2023-02-03T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4774098941000</v>
+        <v>4353665994800</v>
       </c>
       <c r="L90">
         <v>268840900</v>
@@ -4893,13 +4893,13 @@
         <v>1050600</v>
       </c>
       <c r="N90">
-        <v>19933561000</v>
+        <v>29000085400</v>
       </c>
       <c r="O90">
         <v>-32639700</v>
       </c>
       <c r="P90">
-        <v>-546799469000</v>
+        <v>-500052362900</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>9000</v>
       </c>
       <c r="E91">
-        <v>31145923000</v>
+        <v>28372599100</v>
       </c>
       <c r="F91">
-        <v>43354790000</v>
+        <v>42509336300</v>
       </c>
       <c r="G91">
         <v>80204000</v>
@@ -4928,13 +4928,13 @@
         <v>4807400</v>
       </c>
       <c r="I91">
-        <v>74580917000</v>
+        <v>70962139400</v>
       </c>
       <c r="J91" t="str">
         <v>2023-02-03T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4848679858000</v>
+        <v>4424628134200</v>
       </c>
       <c r="L91">
         <v>273648300</v>
@@ -4943,13 +4943,13 @@
         <v>-351800</v>
       </c>
       <c r="N91">
-        <v>12208867000</v>
+        <v>14136737200</v>
       </c>
       <c r="O91">
         <v>-32991500</v>
       </c>
       <c r="P91">
-        <v>-534590602000</v>
+        <v>-485915625700</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>13500</v>
       </c>
       <c r="E92">
-        <v>29414768000</v>
+        <v>27010474700</v>
       </c>
       <c r="F92">
-        <v>36002932000</v>
+        <v>33565671700</v>
       </c>
       <c r="G92">
         <v>144798000</v>
@@ -4978,13 +4978,13 @@
         <v>3981500</v>
       </c>
       <c r="I92">
-        <v>65562498000</v>
+        <v>60720944400</v>
       </c>
       <c r="J92" t="str">
         <v>2023-02-03T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4914242356000</v>
+        <v>4485349078600</v>
       </c>
       <c r="L92">
         <v>277629800</v>
@@ -4993,13 +4993,13 @@
         <v>530600</v>
       </c>
       <c r="N92">
-        <v>6588164000</v>
+        <v>6555197000</v>
       </c>
       <c r="O92">
         <v>-32460900</v>
       </c>
       <c r="P92">
-        <v>-528002438000</v>
+        <v>-479360428700</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>4000</v>
       </c>
       <c r="E93">
-        <v>23048730000</v>
+        <v>21043237500</v>
       </c>
       <c r="F93">
-        <v>25343205000</v>
+        <v>24410438700</v>
       </c>
       <c r="G93">
         <v>140920000</v>
@@ -5028,13 +5028,13 @@
         <v>2789700</v>
       </c>
       <c r="I93">
-        <v>48532855000</v>
+        <v>45594596200</v>
       </c>
       <c r="J93" t="str">
         <v>2023-02-03T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4962775211000</v>
+        <v>4530943674800</v>
       </c>
       <c r="L93">
         <v>280419500</v>
@@ -5043,13 +5043,13 @@
         <v>-203900</v>
       </c>
       <c r="N93">
-        <v>2294475000</v>
+        <v>3367201200</v>
       </c>
       <c r="O93">
         <v>-32664800</v>
       </c>
       <c r="P93">
-        <v>-525707963000</v>
+        <v>-475993227500</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>69200</v>
       </c>
       <c r="E94">
-        <v>33210753000</v>
+        <v>31241823900</v>
       </c>
       <c r="F94">
-        <v>50152788000</v>
+        <v>47513929500</v>
       </c>
       <c r="G94">
-        <v>1232483000</v>
+        <v>1066149500</v>
       </c>
       <c r="H94">
         <v>4477400</v>
       </c>
       <c r="I94">
-        <v>84596024000</v>
+        <v>79821902900</v>
       </c>
       <c r="J94" t="str">
         <v>2023-02-03T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>5047371235000</v>
+        <v>4610765577700</v>
       </c>
       <c r="L94">
         <v>284896900</v>
@@ -5093,13 +5093,13 @@
         <v>659400</v>
       </c>
       <c r="N94">
-        <v>16942035000</v>
+        <v>16272105600</v>
       </c>
       <c r="O94">
         <v>-32005400</v>
       </c>
       <c r="P94">
-        <v>-508765928000</v>
+        <v>-459721121900</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>800</v>
       </c>
       <c r="E95">
-        <v>36570514000</v>
+        <v>33912574600</v>
       </c>
       <c r="F95">
-        <v>44697288000</v>
+        <v>40203985800</v>
       </c>
       <c r="G95">
         <v>9011000</v>
@@ -5128,13 +5128,13 @@
         <v>4118000</v>
       </c>
       <c r="I95">
-        <v>81276813000</v>
+        <v>74125571400</v>
       </c>
       <c r="J95" t="str">
         <v>2023-02-03T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>5128648048000</v>
+        <v>4684891149100</v>
       </c>
       <c r="L95">
         <v>289014900</v>
@@ -5143,13 +5143,13 @@
         <v>718200</v>
       </c>
       <c r="N95">
-        <v>8126774000</v>
+        <v>6291411200</v>
       </c>
       <c r="O95">
         <v>-31287200</v>
       </c>
       <c r="P95">
-        <v>-500639154000</v>
+        <v>-453429710700</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>51400</v>
       </c>
       <c r="E96">
-        <v>68119448000</v>
+        <v>64202568800</v>
       </c>
       <c r="F96">
-        <v>19487116000</v>
+        <v>16789816000</v>
       </c>
       <c r="G96">
-        <v>886985000</v>
+        <v>848623400</v>
       </c>
       <c r="H96">
         <v>4863300</v>
       </c>
       <c r="I96">
-        <v>88493549000</v>
+        <v>81841008200</v>
       </c>
       <c r="J96" t="str">
         <v>2023-02-03T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>5217141597000</v>
+        <v>4766732157300</v>
       </c>
       <c r="L96">
         <v>293878200</v>
@@ -5193,13 +5193,13 @@
         <v>-2347100</v>
       </c>
       <c r="N96">
-        <v>-48632332000</v>
+        <v>-47412752800</v>
       </c>
       <c r="O96">
         <v>-33634300</v>
       </c>
       <c r="P96">
-        <v>-549271486000</v>
+        <v>-500842463500</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>15400</v>
       </c>
       <c r="E97">
-        <v>48187958000</v>
+        <v>46349798000</v>
       </c>
       <c r="F97">
-        <v>21880125000</v>
+        <v>20678128200</v>
       </c>
       <c r="G97">
-        <v>134134000</v>
+        <v>125742400</v>
       </c>
       <c r="H97">
         <v>4273400</v>
       </c>
       <c r="I97">
-        <v>70202217000</v>
+        <v>67153668600</v>
       </c>
       <c r="J97" t="str">
         <v>2023-02-03T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5287343814000</v>
+        <v>4833885825900</v>
       </c>
       <c r="L97">
         <v>298151600</v>
@@ -5243,13 +5243,13 @@
         <v>-1757800</v>
       </c>
       <c r="N97">
-        <v>-26307833000</v>
+        <v>-25671669800</v>
       </c>
       <c r="O97">
         <v>-35392100</v>
       </c>
       <c r="P97">
-        <v>-575579319000</v>
+        <v>-526514133300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>47400</v>
       </c>
       <c r="E98">
-        <v>39066585000</v>
+        <v>37813639200</v>
       </c>
       <c r="F98">
-        <v>22835759000</v>
+        <v>20905790900</v>
       </c>
       <c r="G98">
         <v>724274000</v>
@@ -5278,13 +5278,13 @@
         <v>3821700</v>
       </c>
       <c r="I98">
-        <v>62626618000</v>
+        <v>59443704100</v>
       </c>
       <c r="J98" t="str">
         <v>2023-02-03T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5349970432000</v>
+        <v>4893329530000</v>
       </c>
       <c r="L98">
         <v>301973300</v>
@@ -5293,13 +5293,13 @@
         <v>-1142900</v>
       </c>
       <c r="N98">
-        <v>-16230826000</v>
+        <v>-16907848300</v>
       </c>
       <c r="O98">
         <v>-36535000</v>
       </c>
       <c r="P98">
-        <v>-591810145000</v>
+        <v>-543421981600</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>3800</v>
       </c>
       <c r="E99">
-        <v>49591837000</v>
+        <v>44791941700</v>
       </c>
       <c r="F99">
-        <v>20568528000</v>
+        <v>17921078100</v>
       </c>
       <c r="G99">
         <v>68475000</v>
@@ -5328,13 +5328,13 @@
         <v>3979300</v>
       </c>
       <c r="I99">
-        <v>70228840000</v>
+        <v>62781494800</v>
       </c>
       <c r="J99" t="str">
         <v>2023-02-03T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>5420199272000</v>
+        <v>4956111024800</v>
       </c>
       <c r="L99">
         <v>305952600</v>
@@ -5343,13 +5343,13 @@
         <v>-1802700</v>
       </c>
       <c r="N99">
-        <v>-29023309000</v>
+        <v>-26870863600</v>
       </c>
       <c r="O99">
         <v>-38337700</v>
       </c>
       <c r="P99">
-        <v>-620833454000</v>
+        <v>-570292845200</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>18800</v>
       </c>
       <c r="E100">
-        <v>148474838000</v>
+        <v>135044282000</v>
       </c>
       <c r="F100">
-        <v>20697115000</v>
+        <v>19305807700</v>
       </c>
       <c r="G100">
         <v>236179000</v>
@@ -5378,13 +5378,13 @@
         <v>9790900</v>
       </c>
       <c r="I100">
-        <v>169408132000</v>
+        <v>154586268700</v>
       </c>
       <c r="J100" t="str">
         <v>2023-02-03T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>5589607404000</v>
+        <v>5110697293500</v>
       </c>
       <c r="L100">
         <v>315743500</v>
@@ -5393,13 +5393,13 @@
         <v>-7391300</v>
       </c>
       <c r="N100">
-        <v>-127777723000</v>
+        <v>-115738474300</v>
       </c>
       <c r="O100">
         <v>-45729000</v>
       </c>
       <c r="P100">
-        <v>-748611177000</v>
+        <v>-686031319500</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>34400</v>
       </c>
       <c r="E101">
-        <v>183537622000</v>
+        <v>167972003200</v>
       </c>
       <c r="F101">
-        <v>36537283000</v>
+        <v>34563658600</v>
       </c>
       <c r="G101">
-        <v>591659000</v>
+        <v>572478200</v>
       </c>
       <c r="H101">
         <v>12949100</v>
       </c>
       <c r="I101">
-        <v>220666564000</v>
+        <v>203108140000</v>
       </c>
       <c r="J101" t="str">
         <v>2023-02-03T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>5810273968000</v>
+        <v>5313805433500</v>
       </c>
       <c r="L101">
         <v>328692600</v>
@@ -5443,13 +5443,13 @@
         <v>-8821900</v>
       </c>
       <c r="N101">
-        <v>-147000339000</v>
+        <v>-133408344600</v>
       </c>
       <c r="O101">
         <v>-54550900</v>
       </c>
       <c r="P101">
-        <v>-895611516000</v>
+        <v>-819439664100</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>38900</v>
       </c>
       <c r="E102">
-        <v>79387788000</v>
+        <v>73655426100</v>
       </c>
       <c r="F102">
-        <v>82504646000</v>
+        <v>72668991500</v>
       </c>
       <c r="G102">
-        <v>536567000</v>
+        <v>522181400</v>
       </c>
       <c r="H102">
         <v>9742400</v>
       </c>
       <c r="I102">
-        <v>162429001000</v>
+        <v>146846599000</v>
       </c>
       <c r="J102" t="str">
         <v>2023-02-03T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5972702969000</v>
+        <v>5460652032500</v>
       </c>
       <c r="L102">
         <v>338435000</v>
@@ -5493,13 +5493,13 @@
         <v>-1094700</v>
       </c>
       <c r="N102">
-        <v>3116858000</v>
+        <v>-986434600</v>
       </c>
       <c r="O102">
         <v>-55645600</v>
       </c>
       <c r="P102">
-        <v>-892494658000</v>
+        <v>-820426098700</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>6900</v>
       </c>
       <c r="E103">
-        <v>22726329000</v>
+        <v>21968287800</v>
       </c>
       <c r="F103">
-        <v>56094749000</v>
+        <v>51692255900</v>
       </c>
       <c r="G103">
         <v>203915000</v>
@@ -5528,13 +5528,13 @@
         <v>4721600</v>
       </c>
       <c r="I103">
-        <v>79024993000</v>
+        <v>73864458700</v>
       </c>
       <c r="J103" t="str">
         <v>2023-02-03T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>6051727962000</v>
+        <v>5534516491200</v>
       </c>
       <c r="L103">
         <v>343156600</v>
@@ -5543,13 +5543,13 @@
         <v>2179900</v>
       </c>
       <c r="N103">
-        <v>33368420000</v>
+        <v>29723968100</v>
       </c>
       <c r="O103">
         <v>-53465700</v>
       </c>
       <c r="P103">
-        <v>-859126238000</v>
+        <v>-790702130600</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>22000</v>
       </c>
       <c r="E104">
-        <v>52108097000</v>
+        <v>48290918000</v>
       </c>
       <c r="F104">
-        <v>33376594000</v>
+        <v>31197974800</v>
       </c>
       <c r="G104">
         <v>476950000</v>
@@ -5578,13 +5578,13 @@
         <v>5083100</v>
       </c>
       <c r="I104">
-        <v>85961641000</v>
+        <v>79965842800</v>
       </c>
       <c r="J104" t="str">
         <v>2023-02-03T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>6137689603000</v>
+        <v>5614482334000</v>
       </c>
       <c r="L104">
         <v>348239700</v>
@@ -5593,13 +5593,13 @@
         <v>-1186500</v>
       </c>
       <c r="N104">
-        <v>-18731503000</v>
+        <v>-17092943200</v>
       </c>
       <c r="O104">
         <v>-54652200</v>
       </c>
       <c r="P104">
-        <v>-877857741000</v>
+        <v>-807795073800</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>9300</v>
       </c>
       <c r="E105">
-        <v>32244915000</v>
+        <v>31402558200</v>
       </c>
       <c r="F105">
-        <v>29846304000</v>
+        <v>26374179600</v>
       </c>
       <c r="G105">
         <v>323832000</v>
@@ -5628,13 +5628,13 @@
         <v>3535500</v>
       </c>
       <c r="I105">
-        <v>62415051000</v>
+        <v>58100569800</v>
       </c>
       <c r="J105" t="str">
         <v>2023-02-03T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>6200104654000</v>
+        <v>5672582903800</v>
       </c>
       <c r="L105">
         <v>351775200</v>
@@ -5643,13 +5643,13 @@
         <v>-495400</v>
       </c>
       <c r="N105">
-        <v>-2398611000</v>
+        <v>-5028378600</v>
       </c>
       <c r="O105">
         <v>-55147600</v>
       </c>
       <c r="P105">
-        <v>-880256352000</v>
+        <v>-812823452400</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>9600</v>
       </c>
       <c r="E106">
-        <v>40339594000</v>
+        <v>38740994200</v>
       </c>
       <c r="F106">
-        <v>43684876000</v>
+        <v>40589874100</v>
       </c>
       <c r="G106">
         <v>71714000</v>
@@ -5678,13 +5678,13 @@
         <v>4389300</v>
       </c>
       <c r="I106">
-        <v>84096184000</v>
+        <v>79402582300</v>
       </c>
       <c r="J106" t="str">
         <v>2023-02-03T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>6284200838000</v>
+        <v>5751985486100</v>
       </c>
       <c r="L106">
         <v>356164500</v>
@@ -5693,13 +5693,13 @@
         <v>-276900</v>
       </c>
       <c r="N106">
-        <v>3345282000</v>
+        <v>1848879900</v>
       </c>
       <c r="O106">
         <v>-55424500</v>
       </c>
       <c r="P106">
-        <v>-876911070000</v>
+        <v>-810974572500</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>56800</v>
       </c>
       <c r="E107">
-        <v>44178911000</v>
+        <v>43057633400</v>
       </c>
       <c r="F107">
-        <v>40927970000</v>
+        <v>38451648800</v>
       </c>
       <c r="G107">
         <v>590009000</v>
@@ -5728,13 +5728,13 @@
         <v>4692900</v>
       </c>
       <c r="I107">
-        <v>85696890000</v>
+        <v>82099291200</v>
       </c>
       <c r="J107" t="str">
         <v>2023-02-03T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>6369897728000</v>
+        <v>5834084777300</v>
       </c>
       <c r="L107">
         <v>360857400</v>
@@ -5743,13 +5743,13 @@
         <v>-577900</v>
       </c>
       <c r="N107">
-        <v>-3250941000</v>
+        <v>-4605984600</v>
       </c>
       <c r="O107">
         <v>-56002400</v>
       </c>
       <c r="P107">
-        <v>-880162011000</v>
+        <v>-815580557100</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>60600</v>
       </c>
       <c r="E108">
-        <v>31703513000</v>
+        <v>30905112200</v>
       </c>
       <c r="F108">
-        <v>68990009000</v>
+        <v>65599403000</v>
       </c>
       <c r="G108">
         <v>761877000</v>
@@ -5778,13 +5778,13 @@
         <v>5380800</v>
       </c>
       <c r="I108">
-        <v>101455399000</v>
+        <v>97266392200</v>
       </c>
       <c r="J108" t="str">
         <v>2023-02-03T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>6471353127000</v>
+        <v>5931351169500</v>
       </c>
       <c r="L108">
         <v>366238200</v>
@@ -5793,13 +5793,13 @@
         <v>1572600</v>
       </c>
       <c r="N108">
-        <v>37286496000</v>
+        <v>34694290800</v>
       </c>
       <c r="O108">
         <v>-54429800</v>
       </c>
       <c r="P108">
-        <v>-842875515000</v>
+        <v>-780886266300</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>22200</v>
       </c>
       <c r="E109">
-        <v>29803401000</v>
+        <v>28471434300</v>
       </c>
       <c r="F109">
-        <v>92680896000</v>
+        <v>86899683000</v>
       </c>
       <c r="G109">
         <v>444555000</v>
@@ -5828,13 +5828,13 @@
         <v>6922400</v>
       </c>
       <c r="I109">
-        <v>122928852000</v>
+        <v>115815672300</v>
       </c>
       <c r="J109" t="str">
         <v>2023-02-03T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>6594281979000</v>
+        <v>6047166841800</v>
       </c>
       <c r="L109">
         <v>373160600</v>
@@ -5843,13 +5843,13 @@
         <v>3660800</v>
       </c>
       <c r="N109">
-        <v>62877495000</v>
+        <v>58428248700</v>
       </c>
       <c r="O109">
         <v>-50769000</v>
       </c>
       <c r="P109">
-        <v>-779998020000</v>
+        <v>-722458017600</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>63200</v>
       </c>
       <c r="E110">
-        <v>29343250000</v>
+        <v>26214981400</v>
       </c>
       <c r="F110">
-        <v>124828796000</v>
+        <v>113094841700</v>
       </c>
       <c r="G110">
         <v>1227670000</v>
@@ -5878,13 +5878,13 @@
         <v>8815300</v>
       </c>
       <c r="I110">
-        <v>155399716000</v>
+        <v>140537493100</v>
       </c>
       <c r="J110" t="str">
         <v>2023-02-03T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>6749681695000</v>
+        <v>6187704334900</v>
       </c>
       <c r="L110">
         <v>381975900</v>
@@ -5893,13 +5893,13 @@
         <v>5366500</v>
       </c>
       <c r="N110">
-        <v>95485546000</v>
+        <v>86879860300</v>
       </c>
       <c r="O110">
         <v>-45402500</v>
       </c>
       <c r="P110">
-        <v>-684512474000</v>
+        <v>-635578157300</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>19300</v>
       </c>
       <c r="E111">
-        <v>26530625000</v>
+        <v>25076280800</v>
       </c>
       <c r="F111">
-        <v>101940365000</v>
+        <v>86360460500</v>
       </c>
       <c r="G111">
-        <v>445710000</v>
+        <v>415740000</v>
       </c>
       <c r="H111">
         <v>7426600</v>
       </c>
       <c r="I111">
-        <v>128916700000</v>
+        <v>111852481300</v>
       </c>
       <c r="J111" t="str">
         <v>2023-02-03T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>6878598395000</v>
+        <v>6299556816200</v>
       </c>
       <c r="L111">
         <v>389402500</v>
@@ -5943,13 +5943,13 @@
         <v>4411300</v>
       </c>
       <c r="N111">
-        <v>75409740000</v>
+        <v>61284179700</v>
       </c>
       <c r="O111">
         <v>-40991200</v>
       </c>
       <c r="P111">
-        <v>-609102734000</v>
+        <v>-574293977600</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>15200</v>
       </c>
       <c r="E112">
-        <v>35305381000</v>
+        <v>30144247300</v>
       </c>
       <c r="F112">
-        <v>85668672000</v>
+        <v>73812739800</v>
       </c>
       <c r="G112">
         <v>166124000</v>
@@ -5978,13 +5978,13 @@
         <v>6826600</v>
       </c>
       <c r="I112">
-        <v>121140177000</v>
+        <v>104123111100</v>
       </c>
       <c r="J112" t="str">
         <v>2023-02-03T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>6999738572000</v>
+        <v>6403679927300</v>
       </c>
       <c r="L112">
         <v>396229100</v>
@@ -5993,13 +5993,13 @@
         <v>3292000</v>
       </c>
       <c r="N112">
-        <v>50363291000</v>
+        <v>43668492500</v>
       </c>
       <c r="O112">
         <v>-37699200</v>
       </c>
       <c r="P112">
-        <v>-558739443000</v>
+        <v>-530625485100</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>202600</v>
       </c>
       <c r="E113">
-        <v>79042550000</v>
+        <v>73619878100</v>
       </c>
       <c r="F113">
-        <v>61442839000</v>
+        <v>57022863400</v>
       </c>
       <c r="G113">
         <v>4467231000</v>
@@ -6028,13 +6028,13 @@
         <v>8087000</v>
       </c>
       <c r="I113">
-        <v>144952620000</v>
+        <v>135109972500</v>
       </c>
       <c r="J113" t="str">
         <v>2023-02-03T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>7144691192000</v>
+        <v>6538789899800</v>
       </c>
       <c r="L113">
         <v>404316100</v>
@@ -6043,13 +6043,13 @@
         <v>-603200</v>
       </c>
       <c r="N113">
-        <v>-17599711000</v>
+        <v>-16597014700</v>
       </c>
       <c r="O113">
         <v>-38302400</v>
       </c>
       <c r="P113">
-        <v>-576339154000</v>
+        <v>-547222499800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>10000</v>
       </c>
       <c r="E114">
-        <v>73201089000</v>
+        <v>66605391300</v>
       </c>
       <c r="F114">
-        <v>47098667000</v>
+        <v>42420949400</v>
       </c>
       <c r="G114">
-        <v>336002000</v>
+        <v>308429600</v>
       </c>
       <c r="H114">
         <v>6277600</v>
       </c>
       <c r="I114">
-        <v>120635758000</v>
+        <v>109334770300</v>
       </c>
       <c r="J114" t="str">
         <v>2023-02-03T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>7265326950000</v>
+        <v>6648124670100</v>
       </c>
       <c r="L114">
         <v>410593700</v>
@@ -6093,13 +6093,13 @@
         <v>-1815800</v>
       </c>
       <c r="N114">
-        <v>-26102422000</v>
+        <v>-24184441900</v>
       </c>
       <c r="O114">
         <v>-40118200</v>
       </c>
       <c r="P114">
-        <v>-602441576000</v>
+        <v>-571406941700</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>30800</v>
       </c>
       <c r="E115">
-        <v>79173204000</v>
+        <v>69600486300</v>
       </c>
       <c r="F115">
-        <v>53285841000</v>
+        <v>43600935600</v>
       </c>
       <c r="G115">
-        <v>541179000</v>
+        <v>534086100</v>
       </c>
       <c r="H115">
         <v>7595400</v>
       </c>
       <c r="I115">
-        <v>133000224000</v>
+        <v>113735508000</v>
       </c>
       <c r="J115" t="str">
         <v>2023-02-03T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>7398327174000</v>
+        <v>6761860178100</v>
       </c>
       <c r="L115">
         <v>418189100</v>
@@ -6143,13 +6143,13 @@
         <v>-2360400</v>
       </c>
       <c r="N115">
-        <v>-25887363000</v>
+        <v>-25999550700</v>
       </c>
       <c r="O115">
         <v>-42478600</v>
       </c>
       <c r="P115">
-        <v>-628328939000</v>
+        <v>-597406492400</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-02-03T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>7400064517000</v>
+        <v>6763597521100</v>
       </c>
       <c r="L116">
         <v>418286300</v>
@@ -6199,7 +6199,7 @@
         <v>-42411800</v>
       </c>
       <c r="P116">
-        <v>-627110226000</v>
+        <v>-596187779400</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>50098500</v>
       </c>
       <c r="E117">
-        <v>386592591000</v>
+        <v>383810775600</v>
       </c>
       <c r="F117">
-        <v>83100644000</v>
+        <v>64065198500</v>
       </c>
       <c r="G117">
-        <v>1296852441000</v>
+        <v>1228513048800</v>
       </c>
       <c r="H117">
         <v>67788000</v>
       </c>
       <c r="I117">
-        <v>1766545676000</v>
+        <v>1676389022900</v>
       </c>
       <c r="J117" t="str">
         <v>2023-02-03T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>9166610193000</v>
+        <v>8439986544000</v>
       </c>
       <c r="L117">
         <v>486074300</v>
@@ -6243,13 +6243,13 @@
         <v>-9499500</v>
       </c>
       <c r="N117">
-        <v>-303491947000</v>
+        <v>-319745577100</v>
       </c>
       <c r="O117">
         <v>-51911300</v>
       </c>
       <c r="P117">
-        <v>-930602173000</v>
+        <v>-915933356500</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230203/VNINDEX_HOSE_5p_20230203.xlsx
+++ b/name/vnindex/20230203/VNINDEX_HOSE_5p_20230203.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-617692000</v>
       </c>
+      <c r="Q2">
+        <v>27849175800</v>
+      </c>
+      <c r="R2">
+        <v>28466867800</v>
+      </c>
+      <c r="S2">
+        <v>1753700</v>
+      </c>
+      <c r="T2">
+        <v>2075000</v>
+      </c>
+      <c r="U2">
+        <v>26864348656</v>
+      </c>
+      <c r="V2">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W2">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X2">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y2">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z2">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA2">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB2">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>4736700000</v>
       </c>
+      <c r="Q3">
+        <v>51832076200</v>
+      </c>
+      <c r="R3">
+        <v>47095376200</v>
+      </c>
+      <c r="S3">
+        <v>3420600</v>
+      </c>
+      <c r="T3">
+        <v>3269100</v>
+      </c>
+      <c r="U3">
+        <v>26864348656</v>
+      </c>
+      <c r="V3">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W3">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X3">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y3">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z3">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA3">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB3">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC3">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>564477500</v>
       </c>
+      <c r="Q4">
+        <v>72579242100</v>
+      </c>
+      <c r="R4">
+        <v>72014764600</v>
+      </c>
+      <c r="S4">
+        <v>4721200</v>
+      </c>
+      <c r="T4">
+        <v>5063100</v>
+      </c>
+      <c r="U4">
+        <v>26864348656</v>
+      </c>
+      <c r="V4">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W4">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X4">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y4">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z4">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA4">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB4">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>1987621200</v>
       </c>
+      <c r="Q5">
+        <v>91791664100</v>
+      </c>
+      <c r="R5">
+        <v>89804042900</v>
+      </c>
+      <c r="S5">
+        <v>5863200</v>
+      </c>
+      <c r="T5">
+        <v>6229800</v>
+      </c>
+      <c r="U5">
+        <v>26864348656</v>
+      </c>
+      <c r="V5">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W5">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X5">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y5">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z5">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA5">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB5">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC5">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>23198557300</v>
       </c>
+      <c r="Q6">
+        <v>127112059900</v>
+      </c>
+      <c r="R6">
+        <v>103913502600</v>
+      </c>
+      <c r="S6">
+        <v>8342000</v>
+      </c>
+      <c r="T6">
+        <v>7182800</v>
+      </c>
+      <c r="U6">
+        <v>26864348656</v>
+      </c>
+      <c r="V6">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W6">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X6">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y6">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z6">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA6">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB6">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC6">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>39217397200</v>
       </c>
+      <c r="Q7">
+        <v>168047717800</v>
+      </c>
+      <c r="R7">
+        <v>128830320600</v>
+      </c>
+      <c r="S7">
+        <v>10648700</v>
+      </c>
+      <c r="T7">
+        <v>8494000</v>
+      </c>
+      <c r="U7">
+        <v>26864348656</v>
+      </c>
+      <c r="V7">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W7">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X7">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y7">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z7">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA7">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB7">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>46353192900</v>
       </c>
+      <c r="Q8">
+        <v>196374287400</v>
+      </c>
+      <c r="R8">
+        <v>150021094500</v>
+      </c>
+      <c r="S8">
+        <v>12393800</v>
+      </c>
+      <c r="T8">
+        <v>9794600</v>
+      </c>
+      <c r="U8">
+        <v>26864348656</v>
+      </c>
+      <c r="V8">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W8">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X8">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y8">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z8">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA8">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB8">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>53330652900</v>
       </c>
+      <c r="Q9">
+        <v>222747326000</v>
+      </c>
+      <c r="R9">
+        <v>169416673100</v>
+      </c>
+      <c r="S9">
+        <v>14026200</v>
+      </c>
+      <c r="T9">
+        <v>10882300</v>
+      </c>
+      <c r="U9">
+        <v>26864348656</v>
+      </c>
+      <c r="V9">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W9">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X9">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y9">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z9">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA9">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB9">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC9">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>65140959200</v>
       </c>
+      <c r="Q10">
+        <v>248440702000</v>
+      </c>
+      <c r="R10">
+        <v>183299742800</v>
+      </c>
+      <c r="S10">
+        <v>15427600</v>
+      </c>
+      <c r="T10">
+        <v>11798300</v>
+      </c>
+      <c r="U10">
+        <v>26864348656</v>
+      </c>
+      <c r="V10">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W10">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X10">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y10">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z10">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA10">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB10">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>74858397100</v>
       </c>
+      <c r="Q11">
+        <v>272828543400</v>
+      </c>
+      <c r="R11">
+        <v>197970146300</v>
+      </c>
+      <c r="S11">
+        <v>16838800</v>
+      </c>
+      <c r="T11">
+        <v>12653400</v>
+      </c>
+      <c r="U11">
+        <v>26864348656</v>
+      </c>
+      <c r="V11">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W11">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X11">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y11">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z11">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA11">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB11">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC11">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>65142115000</v>
       </c>
+      <c r="Q12">
+        <v>293053828800</v>
+      </c>
+      <c r="R12">
+        <v>227911713800</v>
+      </c>
+      <c r="S12">
+        <v>18439900</v>
+      </c>
+      <c r="T12">
+        <v>14389300</v>
+      </c>
+      <c r="U12">
+        <v>26864348656</v>
+      </c>
+      <c r="V12">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W12">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X12">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y12">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z12">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA12">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB12">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC12">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>62977241800</v>
       </c>
+      <c r="Q13">
+        <v>315157437000</v>
+      </c>
+      <c r="R13">
+        <v>252180195200</v>
+      </c>
+      <c r="S13">
+        <v>19989000</v>
+      </c>
+      <c r="T13">
+        <v>15921300</v>
+      </c>
+      <c r="U13">
+        <v>26864348656</v>
+      </c>
+      <c r="V13">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W13">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X13">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y13">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z13">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA13">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB13">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC13">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>66522014800</v>
       </c>
+      <c r="Q14">
+        <v>339680981500</v>
+      </c>
+      <c r="R14">
+        <v>273158966700</v>
+      </c>
+      <c r="S14">
+        <v>21961400</v>
+      </c>
+      <c r="T14">
+        <v>17292700</v>
+      </c>
+      <c r="U14">
+        <v>26864348656</v>
+      </c>
+      <c r="V14">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W14">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X14">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y14">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z14">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA14">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB14">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC14">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>60581015800</v>
       </c>
+      <c r="Q15">
+        <v>358255170700</v>
+      </c>
+      <c r="R15">
+        <v>297674154900</v>
+      </c>
+      <c r="S15">
+        <v>23222200</v>
+      </c>
+      <c r="T15">
+        <v>18768100</v>
+      </c>
+      <c r="U15">
+        <v>26864348656</v>
+      </c>
+      <c r="V15">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W15">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X15">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y15">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z15">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA15">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB15">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC15">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>70518998500</v>
       </c>
+      <c r="Q16">
+        <v>384664579200</v>
+      </c>
+      <c r="R16">
+        <v>314145580700</v>
+      </c>
+      <c r="S16">
+        <v>24905600</v>
+      </c>
+      <c r="T16">
+        <v>19773700</v>
+      </c>
+      <c r="U16">
+        <v>26864348656</v>
+      </c>
+      <c r="V16">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W16">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X16">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y16">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z16">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA16">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB16">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC16">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>75992514300</v>
       </c>
+      <c r="Q17">
+        <v>412758227900</v>
+      </c>
+      <c r="R17">
+        <v>336765713600</v>
+      </c>
+      <c r="S17">
+        <v>26746400</v>
+      </c>
+      <c r="T17">
+        <v>21178500</v>
+      </c>
+      <c r="U17">
+        <v>26864348656</v>
+      </c>
+      <c r="V17">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W17">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X17">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y17">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z17">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA17">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB17">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC17">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>79762354000</v>
       </c>
+      <c r="Q18">
+        <v>434637391800</v>
+      </c>
+      <c r="R18">
+        <v>354875037800</v>
+      </c>
+      <c r="S18">
+        <v>28100000</v>
+      </c>
+      <c r="T18">
+        <v>22538800</v>
+      </c>
+      <c r="U18">
+        <v>26864348656</v>
+      </c>
+      <c r="V18">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W18">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X18">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y18">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z18">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA18">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB18">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC18">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>71303777500</v>
       </c>
+      <c r="Q19">
+        <v>458250937700</v>
+      </c>
+      <c r="R19">
+        <v>386947160200</v>
+      </c>
+      <c r="S19">
+        <v>29326100</v>
+      </c>
+      <c r="T19">
+        <v>24454900</v>
+      </c>
+      <c r="U19">
+        <v>26864348656</v>
+      </c>
+      <c r="V19">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W19">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X19">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y19">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z19">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA19">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB19">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC19">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>66767378800</v>
       </c>
+      <c r="Q20">
+        <v>481630090500</v>
+      </c>
+      <c r="R20">
+        <v>414862711700</v>
+      </c>
+      <c r="S20">
+        <v>30561400</v>
+      </c>
+      <c r="T20">
+        <v>26249200</v>
+      </c>
+      <c r="U20">
+        <v>26864348656</v>
+      </c>
+      <c r="V20">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W20">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X20">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y20">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z20">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA20">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB20">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC20">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>45504777000</v>
       </c>
+      <c r="Q21">
+        <v>496618793300</v>
+      </c>
+      <c r="R21">
+        <v>451114016300</v>
+      </c>
+      <c r="S21">
+        <v>31340100</v>
+      </c>
+      <c r="T21">
+        <v>28271600</v>
+      </c>
+      <c r="U21">
+        <v>26864348656</v>
+      </c>
+      <c r="V21">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W21">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X21">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y21">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z21">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA21">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB21">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC21">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>4744623900</v>
       </c>
+      <c r="Q22">
+        <v>506966617900</v>
+      </c>
+      <c r="R22">
+        <v>502221994000</v>
+      </c>
+      <c r="S22">
+        <v>31899400</v>
+      </c>
+      <c r="T22">
+        <v>31366300</v>
+      </c>
+      <c r="U22">
+        <v>26864348656</v>
+      </c>
+      <c r="V22">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W22">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X22">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y22">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z22">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA22">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB22">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC22">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-2063819700</v>
       </c>
+      <c r="Q23">
+        <v>524778983100</v>
+      </c>
+      <c r="R23">
+        <v>526842802800</v>
+      </c>
+      <c r="S23">
+        <v>32894100</v>
+      </c>
+      <c r="T23">
+        <v>32846500</v>
+      </c>
+      <c r="U23">
+        <v>26864348656</v>
+      </c>
+      <c r="V23">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W23">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X23">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y23">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z23">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA23">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB23">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC23">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-20257128000</v>
       </c>
+      <c r="Q24">
+        <v>543475127200</v>
+      </c>
+      <c r="R24">
+        <v>563732255200</v>
+      </c>
+      <c r="S24">
+        <v>33839700</v>
+      </c>
+      <c r="T24">
+        <v>35203300</v>
+      </c>
+      <c r="U24">
+        <v>26864348656</v>
+      </c>
+      <c r="V24">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W24">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X24">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y24">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z24">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA24">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB24">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC24">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-20497789000</v>
       </c>
+      <c r="Q25">
+        <v>562361170600</v>
+      </c>
+      <c r="R25">
+        <v>582858959600</v>
+      </c>
+      <c r="S25">
+        <v>34864700</v>
+      </c>
+      <c r="T25">
+        <v>36422400</v>
+      </c>
+      <c r="U25">
+        <v>26864348656</v>
+      </c>
+      <c r="V25">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W25">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X25">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y25">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z25">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA25">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB25">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-6094182100</v>
       </c>
+      <c r="Q26">
+        <v>597446823400</v>
+      </c>
+      <c r="R26">
+        <v>603541005500</v>
+      </c>
+      <c r="S26">
+        <v>37324500</v>
+      </c>
+      <c r="T26">
+        <v>37577300</v>
+      </c>
+      <c r="U26">
+        <v>26864348656</v>
+      </c>
+      <c r="V26">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W26">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X26">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y26">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z26">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA26">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB26">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC26">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-22700741600</v>
       </c>
+      <c r="Q27">
+        <v>616564512700</v>
+      </c>
+      <c r="R27">
+        <v>639265254300</v>
+      </c>
+      <c r="S27">
+        <v>38280000</v>
+      </c>
+      <c r="T27">
+        <v>39774700</v>
+      </c>
+      <c r="U27">
+        <v>26864348656</v>
+      </c>
+      <c r="V27">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W27">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X27">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y27">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z27">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA27">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB27">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC27">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-24509725900</v>
       </c>
+      <c r="Q28">
+        <v>630415659800</v>
+      </c>
+      <c r="R28">
+        <v>654925385700</v>
+      </c>
+      <c r="S28">
+        <v>39187700</v>
+      </c>
+      <c r="T28">
+        <v>40673300</v>
+      </c>
+      <c r="U28">
+        <v>26864348656</v>
+      </c>
+      <c r="V28">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W28">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X28">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y28">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z28">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA28">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB28">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC28">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-14162427000</v>
       </c>
+      <c r="Q29">
+        <v>650573446200</v>
+      </c>
+      <c r="R29">
+        <v>664735873200</v>
+      </c>
+      <c r="S29">
+        <v>40388400</v>
+      </c>
+      <c r="T29">
+        <v>41392000</v>
+      </c>
+      <c r="U29">
+        <v>26864348656</v>
+      </c>
+      <c r="V29">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W29">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X29">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y29">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z29">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA29">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB29">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC29">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-36210677800</v>
       </c>
+      <c r="Q30">
+        <v>671182071400</v>
+      </c>
+      <c r="R30">
+        <v>707392749200</v>
+      </c>
+      <c r="S30">
+        <v>41701800</v>
+      </c>
+      <c r="T30">
+        <v>43423900</v>
+      </c>
+      <c r="U30">
+        <v>26864348656</v>
+      </c>
+      <c r="V30">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W30">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X30">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y30">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z30">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA30">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB30">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC30">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-50619320100</v>
       </c>
+      <c r="Q31">
+        <v>686934091700</v>
+      </c>
+      <c r="R31">
+        <v>737553411800</v>
+      </c>
+      <c r="S31">
+        <v>42946100</v>
+      </c>
+      <c r="T31">
+        <v>44999300</v>
+      </c>
+      <c r="U31">
+        <v>26864348656</v>
+      </c>
+      <c r="V31">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W31">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X31">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y31">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z31">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA31">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB31">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC31">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-32493409600</v>
       </c>
+      <c r="Q32">
+        <v>716060887300</v>
+      </c>
+      <c r="R32">
+        <v>748554296900</v>
+      </c>
+      <c r="S32">
+        <v>44291400</v>
+      </c>
+      <c r="T32">
+        <v>45739300</v>
+      </c>
+      <c r="U32">
+        <v>26864348656</v>
+      </c>
+      <c r="V32">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W32">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X32">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y32">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z32">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA32">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB32">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC32">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-39324479000</v>
       </c>
+      <c r="Q33">
+        <v>732525680200</v>
+      </c>
+      <c r="R33">
+        <v>771850159200</v>
+      </c>
+      <c r="S33">
+        <v>45281000</v>
+      </c>
+      <c r="T33">
+        <v>46966800</v>
+      </c>
+      <c r="U33">
+        <v>26864348656</v>
+      </c>
+      <c r="V33">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W33">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X33">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y33">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z33">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA33">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB33">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC33">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-58166331300</v>
       </c>
+      <c r="Q34">
+        <v>748871958900</v>
+      </c>
+      <c r="R34">
+        <v>807038290200</v>
+      </c>
+      <c r="S34">
+        <v>46195500</v>
+      </c>
+      <c r="T34">
+        <v>48792600</v>
+      </c>
+      <c r="U34">
+        <v>26864348656</v>
+      </c>
+      <c r="V34">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W34">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X34">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y34">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z34">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA34">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB34">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC34">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-61398059300</v>
       </c>
+      <c r="Q35">
+        <v>766748217500</v>
+      </c>
+      <c r="R35">
+        <v>828146276800</v>
+      </c>
+      <c r="S35">
+        <v>47368200</v>
+      </c>
+      <c r="T35">
+        <v>49930300</v>
+      </c>
+      <c r="U35">
+        <v>26864348656</v>
+      </c>
+      <c r="V35">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W35">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X35">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y35">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z35">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA35">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB35">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC35">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-54351251700</v>
       </c>
+      <c r="Q36">
+        <v>784190662500</v>
+      </c>
+      <c r="R36">
+        <v>838541914200</v>
+      </c>
+      <c r="S36">
+        <v>48510200</v>
+      </c>
+      <c r="T36">
+        <v>50634500</v>
+      </c>
+      <c r="U36">
+        <v>26864348656</v>
+      </c>
+      <c r="V36">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W36">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X36">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y36">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z36">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA36">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB36">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC36">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-49654281100</v>
       </c>
+      <c r="Q37">
+        <v>804556471200</v>
+      </c>
+      <c r="R37">
+        <v>854210752300</v>
+      </c>
+      <c r="S37">
+        <v>49699100</v>
+      </c>
+      <c r="T37">
+        <v>51586700</v>
+      </c>
+      <c r="U37">
+        <v>26864348656</v>
+      </c>
+      <c r="V37">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W37">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X37">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y37">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z37">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA37">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB37">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC37">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-50161801200</v>
       </c>
+      <c r="Q38">
+        <v>819970735000</v>
+      </c>
+      <c r="R38">
+        <v>870132536200</v>
+      </c>
+      <c r="S38">
+        <v>50690000</v>
+      </c>
+      <c r="T38">
+        <v>52545800</v>
+      </c>
+      <c r="U38">
+        <v>26864348656</v>
+      </c>
+      <c r="V38">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W38">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X38">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y38">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z38">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA38">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB38">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC38">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-45017003200</v>
       </c>
+      <c r="Q39">
+        <v>836303079800</v>
+      </c>
+      <c r="R39">
+        <v>881320083000</v>
+      </c>
+      <c r="S39">
+        <v>51922100</v>
+      </c>
+      <c r="T39">
+        <v>53261100</v>
+      </c>
+      <c r="U39">
+        <v>26864348656</v>
+      </c>
+      <c r="V39">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W39">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X39">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y39">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z39">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA39">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB39">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC39">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-28793648700</v>
       </c>
+      <c r="Q40">
+        <v>866373485100</v>
+      </c>
+      <c r="R40">
+        <v>895167133800</v>
+      </c>
+      <c r="S40">
+        <v>54321900</v>
+      </c>
+      <c r="T40">
+        <v>54191700</v>
+      </c>
+      <c r="U40">
+        <v>26864348656</v>
+      </c>
+      <c r="V40">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W40">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X40">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y40">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z40">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA40">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB40">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC40">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-991904400</v>
       </c>
+      <c r="Q41">
+        <v>907622055500</v>
+      </c>
+      <c r="R41">
+        <v>908613959900</v>
+      </c>
+      <c r="S41">
+        <v>57235400</v>
+      </c>
+      <c r="T41">
+        <v>54997600</v>
+      </c>
+      <c r="U41">
+        <v>26864348656</v>
+      </c>
+      <c r="V41">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W41">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X41">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y41">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z41">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA41">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB41">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC41">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>34886788400</v>
       </c>
+      <c r="Q42">
+        <v>959927892900</v>
+      </c>
+      <c r="R42">
+        <v>925041104500</v>
+      </c>
+      <c r="S42">
+        <v>61141800</v>
+      </c>
+      <c r="T42">
+        <v>55978300</v>
+      </c>
+      <c r="U42">
+        <v>26864348656</v>
+      </c>
+      <c r="V42">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W42">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X42">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y42">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z42">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA42">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB42">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC42">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>86064333300</v>
       </c>
+      <c r="Q43">
+        <v>1042129636800</v>
+      </c>
+      <c r="R43">
+        <v>956065303500</v>
+      </c>
+      <c r="S43">
+        <v>66096700</v>
+      </c>
+      <c r="T43">
+        <v>57728900</v>
+      </c>
+      <c r="U43">
+        <v>26864348656</v>
+      </c>
+      <c r="V43">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W43">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X43">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y43">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z43">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA43">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB43">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC43">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>126168327300</v>
       </c>
+      <c r="Q44">
+        <v>1095200123700</v>
+      </c>
+      <c r="R44">
+        <v>969031796400</v>
+      </c>
+      <c r="S44">
+        <v>69712800</v>
+      </c>
+      <c r="T44">
+        <v>58746500</v>
+      </c>
+      <c r="U44">
+        <v>26864348656</v>
+      </c>
+      <c r="V44">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W44">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X44">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y44">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z44">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA44">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB44">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC44">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>150370041600</v>
       </c>
+      <c r="Q45">
+        <v>1139286296700</v>
+      </c>
+      <c r="R45">
+        <v>988916255100</v>
+      </c>
+      <c r="S45">
+        <v>72593100</v>
+      </c>
+      <c r="T45">
+        <v>60001300</v>
+      </c>
+      <c r="U45">
+        <v>26864348656</v>
+      </c>
+      <c r="V45">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W45">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X45">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y45">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z45">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA45">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB45">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC45">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>154240574000</v>
       </c>
+      <c r="Q46">
+        <v>1171050414900</v>
+      </c>
+      <c r="R46">
+        <v>1016809840900</v>
+      </c>
+      <c r="S46">
+        <v>75055700</v>
+      </c>
+      <c r="T46">
+        <v>61632500</v>
+      </c>
+      <c r="U46">
+        <v>26864348656</v>
+      </c>
+      <c r="V46">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W46">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X46">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y46">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z46">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA46">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB46">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC46">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>103829301200</v>
       </c>
+      <c r="Q47">
+        <v>1189634274000</v>
+      </c>
+      <c r="R47">
+        <v>1085804972800</v>
+      </c>
+      <c r="S47">
+        <v>76255100</v>
+      </c>
+      <c r="T47">
+        <v>64885100</v>
+      </c>
+      <c r="U47">
+        <v>26864348656</v>
+      </c>
+      <c r="V47">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W47">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X47">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y47">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z47">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA47">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB47">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC47">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>72533143200</v>
       </c>
+      <c r="Q48">
+        <v>1202602072600</v>
+      </c>
+      <c r="R48">
+        <v>1130068929400</v>
+      </c>
+      <c r="S48">
+        <v>76938000</v>
+      </c>
+      <c r="T48">
+        <v>67485400</v>
+      </c>
+      <c r="U48">
+        <v>26864348656</v>
+      </c>
+      <c r="V48">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W48">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X48">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y48">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z48">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA48">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB48">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>57645133100</v>
       </c>
+      <c r="Q49">
+        <v>1213318383800</v>
+      </c>
+      <c r="R49">
+        <v>1155673250700</v>
+      </c>
+      <c r="S49">
+        <v>77593600</v>
+      </c>
+      <c r="T49">
+        <v>68972700</v>
+      </c>
+      <c r="U49">
+        <v>26864348656</v>
+      </c>
+      <c r="V49">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W49">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X49">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y49">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z49">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA49">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB49">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC49">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>46412510800</v>
       </c>
+      <c r="Q50">
+        <v>1224913035600</v>
+      </c>
+      <c r="R50">
+        <v>1178500524800</v>
+      </c>
+      <c r="S50">
+        <v>78249000</v>
+      </c>
+      <c r="T50">
+        <v>70245000</v>
+      </c>
+      <c r="U50">
+        <v>26864348656</v>
+      </c>
+      <c r="V50">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W50">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X50">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y50">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z50">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA50">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB50">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC50">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>43936302400</v>
       </c>
+      <c r="Q51">
+        <v>1243318009000</v>
+      </c>
+      <c r="R51">
+        <v>1199381706600</v>
+      </c>
+      <c r="S51">
+        <v>79102500</v>
+      </c>
+      <c r="T51">
+        <v>71388800</v>
+      </c>
+      <c r="U51">
+        <v>26864348656</v>
+      </c>
+      <c r="V51">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W51">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X51">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y51">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z51">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA51">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB51">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC51">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>43644343000</v>
       </c>
+      <c r="Q52">
+        <v>1257523216100</v>
+      </c>
+      <c r="R52">
+        <v>1213878873100</v>
+      </c>
+      <c r="S52">
+        <v>79909900</v>
+      </c>
+      <c r="T52">
+        <v>72288200</v>
+      </c>
+      <c r="U52">
+        <v>26864348656</v>
+      </c>
+      <c r="V52">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W52">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X52">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y52">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z52">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA52">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB52">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>37336392100</v>
       </c>
+      <c r="Q53">
+        <v>1273320944800</v>
+      </c>
+      <c r="R53">
+        <v>1235984552700</v>
+      </c>
+      <c r="S53">
+        <v>80712100</v>
+      </c>
+      <c r="T53">
+        <v>73474200</v>
+      </c>
+      <c r="U53">
+        <v>26864348656</v>
+      </c>
+      <c r="V53">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W53">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X53">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y53">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z53">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA53">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB53">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC53">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>35826972600</v>
       </c>
+      <c r="Q54">
+        <v>1285844686200</v>
+      </c>
+      <c r="R54">
+        <v>1250017713600</v>
+      </c>
+      <c r="S54">
+        <v>81410000</v>
+      </c>
+      <c r="T54">
+        <v>74448700</v>
+      </c>
+      <c r="U54">
+        <v>26864348656</v>
+      </c>
+      <c r="V54">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W54">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X54">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y54">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z54">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA54">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB54">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC54">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>30326916000</v>
       </c>
+      <c r="Q55">
+        <v>1295615550900</v>
+      </c>
+      <c r="R55">
+        <v>1265288634900</v>
+      </c>
+      <c r="S55">
+        <v>81948900</v>
+      </c>
+      <c r="T55">
+        <v>75335500</v>
+      </c>
+      <c r="U55">
+        <v>26864348656</v>
+      </c>
+      <c r="V55">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W55">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X55">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y55">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z55">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA55">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB55">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC55">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>27864106100</v>
       </c>
+      <c r="Q56">
+        <v>1306549229000</v>
+      </c>
+      <c r="R56">
+        <v>1278685122900</v>
+      </c>
+      <c r="S56">
+        <v>82559900</v>
+      </c>
+      <c r="T56">
+        <v>76018100</v>
+      </c>
+      <c r="U56">
+        <v>26864348656</v>
+      </c>
+      <c r="V56">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W56">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X56">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y56">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z56">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA56">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB56">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC56">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>15374231800</v>
       </c>
+      <c r="Q57">
+        <v>1316063246900</v>
+      </c>
+      <c r="R57">
+        <v>1300689015100</v>
+      </c>
+      <c r="S57">
+        <v>83028700</v>
+      </c>
+      <c r="T57">
+        <v>77425300</v>
+      </c>
+      <c r="U57">
+        <v>26864348656</v>
+      </c>
+      <c r="V57">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W57">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X57">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y57">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z57">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA57">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB57">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC57">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>9409088600</v>
       </c>
+      <c r="Q58">
+        <v>1325064221200</v>
+      </c>
+      <c r="R58">
+        <v>1315655132600</v>
+      </c>
+      <c r="S58">
+        <v>83456000</v>
+      </c>
+      <c r="T58">
+        <v>78572500</v>
+      </c>
+      <c r="U58">
+        <v>26864348656</v>
+      </c>
+      <c r="V58">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W58">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X58">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y58">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z58">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA58">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB58">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC58">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>9673763400</v>
       </c>
+      <c r="Q59">
+        <v>1336878707900</v>
+      </c>
+      <c r="R59">
+        <v>1327204944500</v>
+      </c>
+      <c r="S59">
+        <v>84101900</v>
+      </c>
+      <c r="T59">
+        <v>79296500</v>
+      </c>
+      <c r="U59">
+        <v>26864348656</v>
+      </c>
+      <c r="V59">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W59">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X59">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y59">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z59">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA59">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB59">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>13525897900</v>
       </c>
+      <c r="Q60">
+        <v>1351701989800</v>
+      </c>
+      <c r="R60">
+        <v>1338176091900</v>
+      </c>
+      <c r="S60">
+        <v>84822600</v>
+      </c>
+      <c r="T60">
+        <v>80094500</v>
+      </c>
+      <c r="U60">
+        <v>26864348656</v>
+      </c>
+      <c r="V60">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W60">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X60">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y60">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z60">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA60">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB60">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC60">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>10914983200</v>
       </c>
+      <c r="Q61">
+        <v>1362331878100</v>
+      </c>
+      <c r="R61">
+        <v>1351416894900</v>
+      </c>
+      <c r="S61">
+        <v>85388400</v>
+      </c>
+      <c r="T61">
+        <v>80819000</v>
+      </c>
+      <c r="U61">
+        <v>26864348656</v>
+      </c>
+      <c r="V61">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W61">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X61">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y61">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z61">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA61">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB61">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC61">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>8123248500</v>
       </c>
+      <c r="Q62">
+        <v>1371858344500</v>
+      </c>
+      <c r="R62">
+        <v>1363735096000</v>
+      </c>
+      <c r="S62">
+        <v>85834200</v>
+      </c>
+      <c r="T62">
+        <v>81585500</v>
+      </c>
+      <c r="U62">
+        <v>26864348656</v>
+      </c>
+      <c r="V62">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W62">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X62">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y62">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z62">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA62">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB62">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC62">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>2885148900</v>
       </c>
+      <c r="Q63">
+        <v>1377944435700</v>
+      </c>
+      <c r="R63">
+        <v>1375059286800</v>
+      </c>
+      <c r="S63">
+        <v>86155800</v>
+      </c>
+      <c r="T63">
+        <v>82261600</v>
+      </c>
+      <c r="U63">
+        <v>26864348656</v>
+      </c>
+      <c r="V63">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W63">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X63">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y63">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z63">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA63">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB63">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC63">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-4025802200</v>
       </c>
+      <c r="Q64">
+        <v>1387619976800</v>
+      </c>
+      <c r="R64">
+        <v>1391645779000</v>
+      </c>
+      <c r="S64">
+        <v>86727700</v>
+      </c>
+      <c r="T64">
+        <v>83068100</v>
+      </c>
+      <c r="U64">
+        <v>26864348656</v>
+      </c>
+      <c r="V64">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W64">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X64">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y64">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z64">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA64">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB64">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC64">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-2009098600</v>
       </c>
+      <c r="Q65">
+        <v>1398395194800</v>
+      </c>
+      <c r="R65">
+        <v>1400404293400</v>
+      </c>
+      <c r="S65">
+        <v>87408300</v>
+      </c>
+      <c r="T65">
+        <v>83548800</v>
+      </c>
+      <c r="U65">
+        <v>26864348656</v>
+      </c>
+      <c r="V65">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W65">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X65">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y65">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z65">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA65">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB65">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC65">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-7837606700</v>
       </c>
+      <c r="Q66">
+        <v>1406938807800</v>
+      </c>
+      <c r="R66">
+        <v>1414776414500</v>
+      </c>
+      <c r="S66">
+        <v>87872700</v>
+      </c>
+      <c r="T66">
+        <v>84384300</v>
+      </c>
+      <c r="U66">
+        <v>26864348656</v>
+      </c>
+      <c r="V66">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W66">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X66">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y66">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z66">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA66">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB66">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC66">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-10998025500</v>
       </c>
+      <c r="Q67">
+        <v>1416070765900</v>
+      </c>
+      <c r="R67">
+        <v>1427068791400</v>
+      </c>
+      <c r="S67">
+        <v>88267800</v>
+      </c>
+      <c r="T67">
+        <v>85014300</v>
+      </c>
+      <c r="U67">
+        <v>26864348656</v>
+      </c>
+      <c r="V67">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W67">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X67">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y67">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z67">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA67">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB67">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC67">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-11496272800</v>
       </c>
+      <c r="Q68">
+        <v>1425930846000</v>
+      </c>
+      <c r="R68">
+        <v>1437427118800</v>
+      </c>
+      <c r="S68">
+        <v>88781600</v>
+      </c>
+      <c r="T68">
+        <v>85749200</v>
+      </c>
+      <c r="U68">
+        <v>26864348656</v>
+      </c>
+      <c r="V68">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W68">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X68">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y68">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z68">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA68">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB68">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC68">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-22065195200</v>
       </c>
+      <c r="Q69">
+        <v>1435154768700</v>
+      </c>
+      <c r="R69">
+        <v>1457219963900</v>
+      </c>
+      <c r="S69">
+        <v>89237800</v>
+      </c>
+      <c r="T69">
+        <v>86929200</v>
+      </c>
+      <c r="U69">
+        <v>26864348656</v>
+      </c>
+      <c r="V69">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W69">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X69">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y69">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z69">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA69">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB69">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC69">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-22087635200</v>
       </c>
+      <c r="Q70">
+        <v>1435173528700</v>
+      </c>
+      <c r="R70">
+        <v>1457261163900</v>
+      </c>
+      <c r="S70">
+        <v>89240900</v>
+      </c>
+      <c r="T70">
+        <v>86931200</v>
+      </c>
+      <c r="U70">
+        <v>26864348656</v>
+      </c>
+      <c r="V70">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W70">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X70">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y70">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z70">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA70">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB70">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-78043636900</v>
       </c>
+      <c r="Q71">
+        <v>1472219561000</v>
+      </c>
+      <c r="R71">
+        <v>1550263197900</v>
+      </c>
+      <c r="S71">
+        <v>91494900</v>
+      </c>
+      <c r="T71">
+        <v>92717600</v>
+      </c>
+      <c r="U71">
+        <v>26864348656</v>
+      </c>
+      <c r="V71">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W71">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X71">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y71">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z71">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA71">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB71">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC71">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-100187609900</v>
       </c>
+      <c r="Q72">
+        <v>1488874314400</v>
+      </c>
+      <c r="R72">
+        <v>1589061924300</v>
+      </c>
+      <c r="S72">
+        <v>92329600</v>
+      </c>
+      <c r="T72">
+        <v>95841200</v>
+      </c>
+      <c r="U72">
+        <v>26864348656</v>
+      </c>
+      <c r="V72">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W72">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X72">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y72">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z72">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA72">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB72">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC72">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-143002606100</v>
       </c>
+      <c r="Q73">
+        <v>1503616954200</v>
+      </c>
+      <c r="R73">
+        <v>1646619560300</v>
+      </c>
+      <c r="S73">
+        <v>93402300</v>
+      </c>
+      <c r="T73">
+        <v>100340300</v>
+      </c>
+      <c r="U73">
+        <v>26864348656</v>
+      </c>
+      <c r="V73">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W73">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X73">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y73">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z73">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA73">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB73">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC73">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-164982013200</v>
       </c>
+      <c r="Q74">
+        <v>1522199421000</v>
+      </c>
+      <c r="R74">
+        <v>1687181434200</v>
+      </c>
+      <c r="S74">
+        <v>94453700</v>
+      </c>
+      <c r="T74">
+        <v>102731100</v>
+      </c>
+      <c r="U74">
+        <v>26864348656</v>
+      </c>
+      <c r="V74">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W74">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X74">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y74">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z74">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA74">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB74">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC74">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-193617743500</v>
       </c>
+      <c r="Q75">
+        <v>1532325769200</v>
+      </c>
+      <c r="R75">
+        <v>1725943512700</v>
+      </c>
+      <c r="S75">
+        <v>95125900</v>
+      </c>
+      <c r="T75">
+        <v>104967500</v>
+      </c>
+      <c r="U75">
+        <v>26864348656</v>
+      </c>
+      <c r="V75">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W75">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X75">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y75">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z75">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA75">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB75">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC75">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-187934128600</v>
       </c>
+      <c r="Q76">
+        <v>1571396516100</v>
+      </c>
+      <c r="R76">
+        <v>1759330644700</v>
+      </c>
+      <c r="S76">
+        <v>97088100</v>
+      </c>
+      <c r="T76">
+        <v>106949700</v>
+      </c>
+      <c r="U76">
+        <v>26864348656</v>
+      </c>
+      <c r="V76">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W76">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X76">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y76">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z76">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA76">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB76">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC76">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-194514492900</v>
       </c>
+      <c r="Q77">
+        <v>1594720265100</v>
+      </c>
+      <c r="R77">
+        <v>1789234758000</v>
+      </c>
+      <c r="S77">
+        <v>98554500</v>
+      </c>
+      <c r="T77">
+        <v>108837900</v>
+      </c>
+      <c r="U77">
+        <v>26864348656</v>
+      </c>
+      <c r="V77">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W77">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X77">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y77">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z77">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA77">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB77">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC77">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-204722352900</v>
       </c>
+      <c r="Q78">
+        <v>1614453820100</v>
+      </c>
+      <c r="R78">
+        <v>1819176173000</v>
+      </c>
+      <c r="S78">
+        <v>99746000</v>
+      </c>
+      <c r="T78">
+        <v>110620300</v>
+      </c>
+      <c r="U78">
+        <v>26864348656</v>
+      </c>
+      <c r="V78">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W78">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X78">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y78">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z78">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA78">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB78">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC78">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-214200747700</v>
       </c>
+      <c r="Q79">
+        <v>1634832374600</v>
+      </c>
+      <c r="R79">
+        <v>1849033122300</v>
+      </c>
+      <c r="S79">
+        <v>100997400</v>
+      </c>
+      <c r="T79">
+        <v>112348300</v>
+      </c>
+      <c r="U79">
+        <v>26864348656</v>
+      </c>
+      <c r="V79">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W79">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X79">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y79">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z79">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA79">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB79">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC79">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-213642203500</v>
       </c>
+      <c r="Q80">
+        <v>1666217744000</v>
+      </c>
+      <c r="R80">
+        <v>1879859947500</v>
+      </c>
+      <c r="S80">
+        <v>102980800</v>
+      </c>
+      <c r="T80">
+        <v>114140200</v>
+      </c>
+      <c r="U80">
+        <v>26864348656</v>
+      </c>
+      <c r="V80">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W80">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X80">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y80">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z80">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA80">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB80">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC80">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-212716076200</v>
       </c>
+      <c r="Q81">
+        <v>1689272257500</v>
+      </c>
+      <c r="R81">
+        <v>1901988333700</v>
+      </c>
+      <c r="S81">
+        <v>104272100</v>
+      </c>
+      <c r="T81">
+        <v>115672800</v>
+      </c>
+      <c r="U81">
+        <v>26864348656</v>
+      </c>
+      <c r="V81">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W81">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X81">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y81">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z81">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA81">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB81">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC81">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-227048233000</v>
       </c>
+      <c r="Q82">
+        <v>1706640404200</v>
+      </c>
+      <c r="R82">
+        <v>1933688637200</v>
+      </c>
+      <c r="S82">
+        <v>105245300</v>
+      </c>
+      <c r="T82">
+        <v>117515900</v>
+      </c>
+      <c r="U82">
+        <v>26864348656</v>
+      </c>
+      <c r="V82">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W82">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X82">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y82">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z82">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA82">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB82">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC82">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-311129114500</v>
       </c>
+      <c r="Q83">
+        <v>1726105326100</v>
+      </c>
+      <c r="R83">
+        <v>2037234440600</v>
+      </c>
+      <c r="S83">
+        <v>106575500</v>
+      </c>
+      <c r="T83">
+        <v>124240100</v>
+      </c>
+      <c r="U83">
+        <v>26864348656</v>
+      </c>
+      <c r="V83">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W83">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X83">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y83">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z83">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA83">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB83">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC83">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-393902650000</v>
       </c>
+      <c r="Q84">
+        <v>1741355686300</v>
+      </c>
+      <c r="R84">
+        <v>2135258336300</v>
+      </c>
+      <c r="S84">
+        <v>107519700</v>
+      </c>
+      <c r="T84">
+        <v>131373600</v>
+      </c>
+      <c r="U84">
+        <v>26864348656</v>
+      </c>
+      <c r="V84">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W84">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X84">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y84">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z84">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA84">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB84">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC84">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-425156866200</v>
       </c>
+      <c r="Q85">
+        <v>1767926446300</v>
+      </c>
+      <c r="R85">
+        <v>2193083312500</v>
+      </c>
+      <c r="S85">
+        <v>108983600</v>
+      </c>
+      <c r="T85">
+        <v>135152000</v>
+      </c>
+      <c r="U85">
+        <v>26864348656</v>
+      </c>
+      <c r="V85">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W85">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X85">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y85">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z85">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA85">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB85">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-448904060500</v>
       </c>
+      <c r="Q86">
+        <v>1784934141200</v>
+      </c>
+      <c r="R86">
+        <v>2233838201700</v>
+      </c>
+      <c r="S86">
+        <v>110008700</v>
+      </c>
+      <c r="T86">
+        <v>137953100</v>
+      </c>
+      <c r="U86">
+        <v>26864348656</v>
+      </c>
+      <c r="V86">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W86">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X86">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y86">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z86">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA86">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB86">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC86">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-479800904500</v>
       </c>
+      <c r="Q87">
+        <v>1803759021600</v>
+      </c>
+      <c r="R87">
+        <v>2283559926100</v>
+      </c>
+      <c r="S87">
+        <v>111130900</v>
+      </c>
+      <c r="T87">
+        <v>141305600</v>
+      </c>
+      <c r="U87">
+        <v>26864348656</v>
+      </c>
+      <c r="V87">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W87">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X87">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y87">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z87">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA87">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB87">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC87">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-516755839500</v>
       </c>
+      <c r="Q88">
+        <v>1826114189700</v>
+      </c>
+      <c r="R88">
+        <v>2342870029200</v>
+      </c>
+      <c r="S88">
+        <v>112477900</v>
+      </c>
+      <c r="T88">
+        <v>145444100</v>
+      </c>
+      <c r="U88">
+        <v>26864348656</v>
+      </c>
+      <c r="V88">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W88">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X88">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y88">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z88">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA88">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB88">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC88">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-529052448300</v>
       </c>
+      <c r="Q89">
+        <v>1853733439800</v>
+      </c>
+      <c r="R89">
+        <v>2382785888100</v>
+      </c>
+      <c r="S89">
+        <v>114069200</v>
+      </c>
+      <c r="T89">
+        <v>147759500</v>
+      </c>
+      <c r="U89">
+        <v>26864348656</v>
+      </c>
+      <c r="V89">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W89">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X89">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y89">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z89">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA89">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB89">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC89">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-500052362900</v>
       </c>
+      <c r="Q90">
+        <v>1902626945000</v>
+      </c>
+      <c r="R90">
+        <v>2402679307900</v>
+      </c>
+      <c r="S90">
+        <v>116572100</v>
+      </c>
+      <c r="T90">
+        <v>149211800</v>
+      </c>
+      <c r="U90">
+        <v>26864348656</v>
+      </c>
+      <c r="V90">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W90">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X90">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y90">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z90">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA90">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB90">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC90">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-485915625700</v>
       </c>
+      <c r="Q91">
+        <v>1945136281300</v>
+      </c>
+      <c r="R91">
+        <v>2431051907000</v>
+      </c>
+      <c r="S91">
+        <v>118795400</v>
+      </c>
+      <c r="T91">
+        <v>151786900</v>
+      </c>
+      <c r="U91">
+        <v>26864348656</v>
+      </c>
+      <c r="V91">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W91">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X91">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y91">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z91">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA91">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB91">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC91">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-479360428700</v>
       </c>
+      <c r="Q92">
+        <v>1978701953000</v>
+      </c>
+      <c r="R92">
+        <v>2458062381700</v>
+      </c>
+      <c r="S92">
+        <v>121044700</v>
+      </c>
+      <c r="T92">
+        <v>153505600</v>
+      </c>
+      <c r="U92">
+        <v>26864348656</v>
+      </c>
+      <c r="V92">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W92">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X92">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y92">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z92">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA92">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB92">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC92">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-475993227500</v>
       </c>
+      <c r="Q93">
+        <v>2003112391700</v>
+      </c>
+      <c r="R93">
+        <v>2479105619200</v>
+      </c>
+      <c r="S93">
+        <v>122335600</v>
+      </c>
+      <c r="T93">
+        <v>155000400</v>
+      </c>
+      <c r="U93">
+        <v>26864348656</v>
+      </c>
+      <c r="V93">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W93">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X93">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y93">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z93">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA93">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB93">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC93">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-459721121900</v>
       </c>
+      <c r="Q94">
+        <v>2050626321200</v>
+      </c>
+      <c r="R94">
+        <v>2510347443100</v>
+      </c>
+      <c r="S94">
+        <v>124869400</v>
+      </c>
+      <c r="T94">
+        <v>156874800</v>
+      </c>
+      <c r="U94">
+        <v>26864348656</v>
+      </c>
+      <c r="V94">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W94">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X94">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y94">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z94">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA94">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB94">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC94">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-453429710700</v>
       </c>
+      <c r="Q95">
+        <v>2090830307000</v>
+      </c>
+      <c r="R95">
+        <v>2544260017700</v>
+      </c>
+      <c r="S95">
+        <v>127287100</v>
+      </c>
+      <c r="T95">
+        <v>158574300</v>
+      </c>
+      <c r="U95">
+        <v>26864348656</v>
+      </c>
+      <c r="V95">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W95">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X95">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y95">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z95">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA95">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB95">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC95">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-500842463500</v>
       </c>
+      <c r="Q96">
+        <v>2107620123000</v>
+      </c>
+      <c r="R96">
+        <v>2608462586500</v>
+      </c>
+      <c r="S96">
+        <v>128519500</v>
+      </c>
+      <c r="T96">
+        <v>162153800</v>
+      </c>
+      <c r="U96">
+        <v>26864348656</v>
+      </c>
+      <c r="V96">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W96">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X96">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y96">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z96">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA96">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB96">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC96">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-526514133300</v>
       </c>
+      <c r="Q97">
+        <v>2128298251200</v>
+      </c>
+      <c r="R97">
+        <v>2654812384500</v>
+      </c>
+      <c r="S97">
+        <v>129769600</v>
+      </c>
+      <c r="T97">
+        <v>165161700</v>
+      </c>
+      <c r="U97">
+        <v>26864348656</v>
+      </c>
+      <c r="V97">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W97">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X97">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y97">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z97">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA97">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB97">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC97">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-543421981600</v>
       </c>
+      <c r="Q98">
+        <v>2149204042100</v>
+      </c>
+      <c r="R98">
+        <v>2692626023700</v>
+      </c>
+      <c r="S98">
+        <v>131085300</v>
+      </c>
+      <c r="T98">
+        <v>167620300</v>
+      </c>
+      <c r="U98">
+        <v>26864348656</v>
+      </c>
+      <c r="V98">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W98">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X98">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y98">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z98">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA98">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB98">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC98">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-570292845200</v>
       </c>
+      <c r="Q99">
+        <v>2167125120200</v>
+      </c>
+      <c r="R99">
+        <v>2737417965400</v>
+      </c>
+      <c r="S99">
+        <v>132171700</v>
+      </c>
+      <c r="T99">
+        <v>170509400</v>
+      </c>
+      <c r="U99">
+        <v>26864348656</v>
+      </c>
+      <c r="V99">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W99">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X99">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y99">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z99">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA99">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB99">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC99">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-686031319500</v>
       </c>
+      <c r="Q100">
+        <v>2186430927900</v>
+      </c>
+      <c r="R100">
+        <v>2872462247400</v>
+      </c>
+      <c r="S100">
+        <v>133362100</v>
+      </c>
+      <c r="T100">
+        <v>179091100</v>
+      </c>
+      <c r="U100">
+        <v>26864348656</v>
+      </c>
+      <c r="V100">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W100">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X100">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y100">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z100">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA100">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB100">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC100">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-819439664100</v>
       </c>
+      <c r="Q101">
+        <v>2220994586500</v>
+      </c>
+      <c r="R101">
+        <v>3040434250600</v>
+      </c>
+      <c r="S101">
+        <v>135408500</v>
+      </c>
+      <c r="T101">
+        <v>189959400</v>
+      </c>
+      <c r="U101">
+        <v>26864348656</v>
+      </c>
+      <c r="V101">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W101">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X101">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y101">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z101">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA101">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB101">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC101">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-820426098700</v>
       </c>
+      <c r="Q102">
+        <v>2293663578000</v>
+      </c>
+      <c r="R102">
+        <v>3114089676700</v>
+      </c>
+      <c r="S102">
+        <v>139712900</v>
+      </c>
+      <c r="T102">
+        <v>195358500</v>
+      </c>
+      <c r="U102">
+        <v>26864348656</v>
+      </c>
+      <c r="V102">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W102">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X102">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y102">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z102">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA102">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB102">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC102">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-790702130600</v>
       </c>
+      <c r="Q103">
+        <v>2345355833900</v>
+      </c>
+      <c r="R103">
+        <v>3136057964500</v>
+      </c>
+      <c r="S103">
+        <v>143160200</v>
+      </c>
+      <c r="T103">
+        <v>196625900</v>
+      </c>
+      <c r="U103">
+        <v>26864348656</v>
+      </c>
+      <c r="V103">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W103">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X103">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y103">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z103">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA103">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB103">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC103">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-807795073800</v>
       </c>
+      <c r="Q104">
+        <v>2376553808700</v>
+      </c>
+      <c r="R104">
+        <v>3184348882500</v>
+      </c>
+      <c r="S104">
+        <v>145097500</v>
+      </c>
+      <c r="T104">
+        <v>199749700</v>
+      </c>
+      <c r="U104">
+        <v>26864348656</v>
+      </c>
+      <c r="V104">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W104">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X104">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y104">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z104">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA104">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB104">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC104">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-812823452400</v>
       </c>
+      <c r="Q105">
+        <v>2402927988300</v>
+      </c>
+      <c r="R105">
+        <v>3215751440700</v>
+      </c>
+      <c r="S105">
+        <v>146612900</v>
+      </c>
+      <c r="T105">
+        <v>201760500</v>
+      </c>
+      <c r="U105">
+        <v>26864348656</v>
+      </c>
+      <c r="V105">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W105">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X105">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y105">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z105">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA105">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB105">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC105">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-810974572500</v>
       </c>
+      <c r="Q106">
+        <v>2443517862400</v>
+      </c>
+      <c r="R106">
+        <v>3254492434900</v>
+      </c>
+      <c r="S106">
+        <v>148664300</v>
+      </c>
+      <c r="T106">
+        <v>204088800</v>
+      </c>
+      <c r="U106">
+        <v>26864348656</v>
+      </c>
+      <c r="V106">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W106">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X106">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y106">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z106">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA106">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB106">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC106">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-815580557100</v>
       </c>
+      <c r="Q107">
+        <v>2481969511200</v>
+      </c>
+      <c r="R107">
+        <v>3297550068300</v>
+      </c>
+      <c r="S107">
+        <v>150693400</v>
+      </c>
+      <c r="T107">
+        <v>206695800</v>
+      </c>
+      <c r="U107">
+        <v>26864348656</v>
+      </c>
+      <c r="V107">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W107">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X107">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y107">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z107">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA107">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB107">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC107">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-780886266300</v>
       </c>
+      <c r="Q108">
+        <v>2547568914200</v>
+      </c>
+      <c r="R108">
+        <v>3328455180500</v>
+      </c>
+      <c r="S108">
+        <v>154139800</v>
+      </c>
+      <c r="T108">
+        <v>208569600</v>
+      </c>
+      <c r="U108">
+        <v>26864348656</v>
+      </c>
+      <c r="V108">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W108">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X108">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y108">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z108">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA108">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB108">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC108">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-722458017600</v>
       </c>
+      <c r="Q109">
+        <v>2634468597200</v>
+      </c>
+      <c r="R109">
+        <v>3356926614800</v>
+      </c>
+      <c r="S109">
+        <v>159420300</v>
+      </c>
+      <c r="T109">
+        <v>210189300</v>
+      </c>
+      <c r="U109">
+        <v>26864348656</v>
+      </c>
+      <c r="V109">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W109">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X109">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y109">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z109">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA109">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB109">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC109">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-635578157300</v>
       </c>
+      <c r="Q110">
+        <v>2747563438900</v>
+      </c>
+      <c r="R110">
+        <v>3383141596200</v>
+      </c>
+      <c r="S110">
+        <v>166479600</v>
+      </c>
+      <c r="T110">
+        <v>211882100</v>
+      </c>
+      <c r="U110">
+        <v>26864348656</v>
+      </c>
+      <c r="V110">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W110">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X110">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y110">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z110">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA110">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB110">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC110">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-574293977600</v>
       </c>
+      <c r="Q111">
+        <v>2833923899400</v>
+      </c>
+      <c r="R111">
+        <v>3408217877000</v>
+      </c>
+      <c r="S111">
+        <v>172388900</v>
+      </c>
+      <c r="T111">
+        <v>213380100</v>
+      </c>
+      <c r="U111">
+        <v>26864348656</v>
+      </c>
+      <c r="V111">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W111">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X111">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y111">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z111">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA111">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB111">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC111">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-530625485100</v>
       </c>
+      <c r="Q112">
+        <v>2907736639200</v>
+      </c>
+      <c r="R112">
+        <v>3438362124300</v>
+      </c>
+      <c r="S112">
+        <v>177440600</v>
+      </c>
+      <c r="T112">
+        <v>215139800</v>
+      </c>
+      <c r="U112">
+        <v>26864348656</v>
+      </c>
+      <c r="V112">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W112">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X112">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y112">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z112">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA112">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB112">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC112">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-547222499800</v>
       </c>
+      <c r="Q113">
+        <v>2964759502600</v>
+      </c>
+      <c r="R113">
+        <v>3511982002400</v>
+      </c>
+      <c r="S113">
+        <v>181081200</v>
+      </c>
+      <c r="T113">
+        <v>219383600</v>
+      </c>
+      <c r="U113">
+        <v>26864348656</v>
+      </c>
+      <c r="V113">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W113">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X113">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y113">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z113">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA113">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB113">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC113">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-571406941700</v>
       </c>
+      <c r="Q114">
+        <v>3007180452000</v>
+      </c>
+      <c r="R114">
+        <v>3578587393700</v>
+      </c>
+      <c r="S114">
+        <v>183307100</v>
+      </c>
+      <c r="T114">
+        <v>223425300</v>
+      </c>
+      <c r="U114">
+        <v>26864348656</v>
+      </c>
+      <c r="V114">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W114">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X114">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y114">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z114">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA114">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB114">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC114">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-597406492400</v>
       </c>
+      <c r="Q115">
+        <v>3050781387600</v>
+      </c>
+      <c r="R115">
+        <v>3648187880000</v>
+      </c>
+      <c r="S115">
+        <v>185909200</v>
+      </c>
+      <c r="T115">
+        <v>228387800</v>
+      </c>
+      <c r="U115">
+        <v>26864348656</v>
+      </c>
+      <c r="V115">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W115">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X115">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y115">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z115">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA115">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB115">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC115">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-596187779400</v>
       </c>
+      <c r="Q116">
+        <v>3052199245600</v>
+      </c>
+      <c r="R116">
+        <v>3648387025000</v>
+      </c>
+      <c r="S116">
+        <v>185987900</v>
+      </c>
+      <c r="T116">
+        <v>228399700</v>
+      </c>
+      <c r="U116">
+        <v>26864348656</v>
+      </c>
+      <c r="V116">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W116">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X116">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y116">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z116">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA116">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB116">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC116">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>-915933356500</v>
       </c>
+      <c r="Q117">
+        <v>3116264444100</v>
+      </c>
+      <c r="R117">
+        <v>4032197800600</v>
+      </c>
+      <c r="S117">
+        <v>190082900</v>
+      </c>
+      <c r="T117">
+        <v>241994200</v>
+      </c>
+      <c r="U117">
+        <v>26864348656</v>
+      </c>
+      <c r="V117">
+        <v>34760325867.2</v>
+      </c>
+      <c r="W117">
+        <v>72758504689.7</v>
+      </c>
+      <c r="X117">
+        <v>4190295.7</v>
+      </c>
+      <c r="Y117">
+        <v>1638645.7</v>
+      </c>
+      <c r="Z117">
+        <v>2086156.9</v>
+      </c>
+      <c r="AA117">
+        <v>-447511.2</v>
+      </c>
+      <c r="AB117">
+        <v>-7895977211.2</v>
+      </c>
+      <c r="AC117">
+        <v>40.5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>